--- a/PMCGR/PMCGR_2018-2019/Prog.VideoConferenciasEnero.xlsx
+++ b/PMCGR/PMCGR_2018-2019/Prog.VideoConferenciasEnero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\PMCGR\PMCGR_2018-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40C1284-C2B2-44CB-A7A9-8CD2C4EE7715}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743EC808-5D5F-407D-85BD-FA3A25F50C10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2605,182 +2605,200 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2791,6 +2809,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2805,27 +2826,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3220,37 +3220,37 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68">
+      <c r="B2" s="97">
         <v>1</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="94" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="K2" s="68" t="s">
         <v>665</v>
       </c>
-      <c r="L2" s="115" t="s">
+      <c r="L2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="118" t="s">
+      <c r="M2" s="71" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -3259,9 +3259,9 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1">
-      <c r="A3" s="102"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="99"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="9">
         <v>1</v>
       </c>
@@ -3271,20 +3271,20 @@
       <c r="F3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="119"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1">
-      <c r="A4" s="102"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="99"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D23" si="0">+D3+1</f>
         <v>2</v>
@@ -3295,20 +3295,20 @@
       <c r="F4" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="119"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="99"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3319,20 +3319,20 @@
       <c r="F5" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="119"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="72"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="99"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3343,20 +3343,20 @@
       <c r="F6" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="119"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="99"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3367,20 +3367,20 @@
       <c r="F7" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="119"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="72"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="99"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3391,20 +3391,20 @@
       <c r="F8" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="119"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1">
-      <c r="A9" s="102"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="99"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3415,20 +3415,20 @@
       <c r="F9" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="119"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1">
-      <c r="A10" s="102"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="99"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3439,20 +3439,20 @@
       <c r="F10" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="119"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="99"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3463,20 +3463,20 @@
       <c r="F11" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="119"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1">
-      <c r="A12" s="102"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="99"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3487,20 +3487,20 @@
       <c r="F12" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="119"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="21" customHeight="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="99"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3511,20 +3511,20 @@
       <c r="F13" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="119"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="21" customHeight="1">
-      <c r="A14" s="102"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="99"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3535,20 +3535,20 @@
       <c r="F14" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="119"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="21" customHeight="1">
-      <c r="A15" s="102"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="99"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3559,20 +3559,20 @@
       <c r="F15" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="119"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="99"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3583,20 +3583,20 @@
       <c r="F16" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="119"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" ht="21" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="99"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3607,20 +3607,20 @@
       <c r="F17" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="119"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" ht="21" customHeight="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3631,20 +3631,20 @@
       <c r="F18" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="119"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="99"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3655,20 +3655,20 @@
       <c r="F19" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="119"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" ht="21" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="99"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3677,20 +3677,20 @@
         <v>243</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="119"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" ht="21" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="99"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3699,20 +3699,20 @@
         <v>244</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="119"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="21" customHeight="1">
-      <c r="A22" s="102"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="99"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3721,20 +3721,20 @@
         <v>245</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="119"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="72"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="21" customHeight="1">
-      <c r="A23" s="102"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="100"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3743,23 +3743,23 @@
         <v>242</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="120"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="73"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="21" customHeight="1">
-      <c r="A24" s="102"/>
-      <c r="B24" s="68">
+      <c r="A24" s="81"/>
+      <c r="B24" s="97">
         <f>+B2+1</f>
         <v>2</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="94" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="10"/>
@@ -3792,9 +3792,9 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="21" customHeight="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="100"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="10">
         <v>1</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="102"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="43"/>
       <c r="C26" s="34"/>
       <c r="D26" s="10"/>
@@ -3832,12 +3832,12 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" ht="21" customHeight="1">
-      <c r="A27" s="102"/>
-      <c r="B27" s="68">
+      <c r="A27" s="81"/>
+      <c r="B27" s="97">
         <f>+B24+1</f>
         <v>3</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="94" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="10"/>
@@ -3870,9 +3870,9 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" ht="21" customHeight="1">
-      <c r="A28" s="102"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="99"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="95"/>
       <c r="D28" s="9">
         <v>1</v>
       </c>
@@ -3893,9 +3893,9 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" ht="21" customHeight="1">
-      <c r="A29" s="102"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="99"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="95"/>
       <c r="D29" s="9">
         <v>2</v>
       </c>
@@ -3916,9 +3916,9 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" ht="21" customHeight="1">
-      <c r="A30" s="102"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="100"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="9">
         <v>3</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" ht="21" customHeight="1">
-      <c r="A31" s="102"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="43"/>
       <c r="C31" s="32"/>
       <c r="D31" s="9"/>
@@ -3956,12 +3956,12 @@
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" ht="21" customHeight="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="68">
+      <c r="A32" s="81"/>
+      <c r="B32" s="97">
         <f>+B27+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="94" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="9"/>
@@ -3994,9 +3994,9 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="21" customHeight="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="99"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="95"/>
       <c r="D33" s="9">
         <v>1</v>
       </c>
@@ -4017,9 +4017,9 @@
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" ht="21" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="99"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="95"/>
       <c r="D34" s="9">
         <f t="shared" ref="D34:D39" si="1">1+D33</f>
         <v>2</v>
@@ -4041,9 +4041,9 @@
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" ht="21" customHeight="1">
-      <c r="A35" s="102"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="99"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="95"/>
       <c r="D35" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4065,9 +4065,9 @@
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" ht="21" customHeight="1">
-      <c r="A36" s="102"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="99"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="95"/>
       <c r="D36" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4089,9 +4089,9 @@
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" ht="21" customHeight="1">
-      <c r="A37" s="102"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="99"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4113,9 +4113,9 @@
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:15" ht="21" customHeight="1">
-      <c r="A38" s="102"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="99"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="95"/>
       <c r="D38" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4137,9 +4137,9 @@
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" ht="21" customHeight="1">
-      <c r="A39" s="102"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="100"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4161,7 +4161,7 @@
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="102"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="43"/>
       <c r="C40" s="34"/>
       <c r="D40" s="9"/>
@@ -4178,12 +4178,12 @@
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:15" ht="21" customHeight="1">
-      <c r="A41" s="102"/>
-      <c r="B41" s="68">
+      <c r="A41" s="81"/>
+      <c r="B41" s="97">
         <f>+B32+1</f>
         <v>5</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="94" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="9"/>
@@ -4216,9 +4216,9 @@
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:15" ht="21" customHeight="1">
-      <c r="A42" s="102"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="99"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="95"/>
       <c r="D42" s="9">
         <v>1</v>
       </c>
@@ -4239,9 +4239,9 @@
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:15" ht="21" customHeight="1">
-      <c r="A43" s="102"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="99"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="9">
         <f>1+D42</f>
         <v>2</v>
@@ -4263,9 +4263,9 @@
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:15" ht="21" customHeight="1">
-      <c r="A44" s="102"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="99"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="95"/>
       <c r="D44" s="9">
         <f>1+D43</f>
         <v>3</v>
@@ -4287,9 +4287,9 @@
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:15" ht="21" customHeight="1">
-      <c r="A45" s="102"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="99"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="95"/>
       <c r="D45" s="9">
         <f>1+D44</f>
         <v>4</v>
@@ -4311,9 +4311,9 @@
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:15" ht="21" customHeight="1">
-      <c r="A46" s="102"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="100"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="96"/>
       <c r="D46" s="9">
         <f>1+D45</f>
         <v>5</v>
@@ -4335,7 +4335,7 @@
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" ht="21" customHeight="1">
-      <c r="A47" s="102"/>
+      <c r="A47" s="81"/>
       <c r="B47" s="43"/>
       <c r="C47" s="32"/>
       <c r="D47" s="9"/>
@@ -4352,12 +4352,12 @@
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="21" customHeight="1">
-      <c r="A48" s="102"/>
-      <c r="B48" s="68">
+      <c r="A48" s="81"/>
+      <c r="B48" s="97">
         <f>+B41+1</f>
         <v>6</v>
       </c>
-      <c r="C48" s="98" t="s">
+      <c r="C48" s="94" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="9"/>
@@ -4390,9 +4390,9 @@
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:15" ht="21" customHeight="1">
-      <c r="A49" s="102"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="99"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="9">
         <v>1</v>
       </c>
@@ -4413,9 +4413,9 @@
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:15" ht="21" customHeight="1">
-      <c r="A50" s="102"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="99"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="9">
         <f>1+D49</f>
         <v>2</v>
@@ -4437,9 +4437,9 @@
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15" ht="21" customHeight="1">
-      <c r="A51" s="102"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="99"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="95"/>
       <c r="D51" s="9">
         <f>1+D50</f>
         <v>3</v>
@@ -4461,9 +4461,9 @@
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="1:15" ht="21" customHeight="1">
-      <c r="A52" s="102"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="99"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="95"/>
       <c r="D52" s="9">
         <f>1+D51</f>
         <v>4</v>
@@ -4485,9 +4485,9 @@
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15" ht="21" customHeight="1">
-      <c r="A53" s="102"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="99"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="95"/>
       <c r="D53" s="9">
         <f>1+D52</f>
         <v>5</v>
@@ -4509,9 +4509,9 @@
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" ht="21" customHeight="1">
-      <c r="A54" s="102"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="100"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="96"/>
       <c r="D54" s="9">
         <f>1+D53</f>
         <v>6</v>
@@ -4533,7 +4533,7 @@
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="102"/>
+      <c r="A55" s="81"/>
       <c r="B55" s="43"/>
       <c r="C55" s="34"/>
       <c r="D55" s="9"/>
@@ -4550,12 +4550,12 @@
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="1:15" ht="21" customHeight="1">
-      <c r="A56" s="102"/>
-      <c r="B56" s="68">
+      <c r="A56" s="81"/>
+      <c r="B56" s="97">
         <f>+B48+1</f>
         <v>7</v>
       </c>
-      <c r="C56" s="98" t="s">
+      <c r="C56" s="94" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="9"/>
@@ -4588,9 +4588,9 @@
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:15" ht="21" customHeight="1">
-      <c r="A57" s="102"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="99"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="95"/>
       <c r="D57" s="9">
         <v>1</v>
       </c>
@@ -4611,9 +4611,9 @@
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="1:15" ht="21" customHeight="1">
-      <c r="A58" s="102"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="99"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="95"/>
       <c r="D58" s="9">
         <f>1+D57</f>
         <v>2</v>
@@ -4635,9 +4635,9 @@
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="1:15" ht="21" customHeight="1">
-      <c r="A59" s="102"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="99"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="95"/>
       <c r="D59" s="9">
         <f t="shared" ref="D59:D64" si="2">1+D58</f>
         <v>3</v>
@@ -4659,9 +4659,9 @@
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="1:15" ht="21" customHeight="1">
-      <c r="A60" s="102"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="99"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="95"/>
       <c r="D60" s="9">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -4683,9 +4683,9 @@
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:15" ht="21" customHeight="1">
-      <c r="A61" s="102"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="99"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="95"/>
       <c r="D61" s="9">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -4707,9 +4707,9 @@
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1">
-      <c r="A62" s="102"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="99"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="95"/>
       <c r="D62" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4731,9 +4731,9 @@
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="1:15" ht="21" customHeight="1">
-      <c r="A63" s="102"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="99"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="95"/>
       <c r="D63" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4755,9 +4755,9 @@
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="1:15" ht="21" customHeight="1">
-      <c r="A64" s="103"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="100"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="96"/>
       <c r="D64" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -4796,14 +4796,14 @@
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="1:15" ht="21" customHeight="1">
-      <c r="A66" s="104" t="s">
+      <c r="A66" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="92">
+      <c r="B66" s="103">
         <f>+B56+1</f>
         <v>8</v>
       </c>
-      <c r="C66" s="89" t="s">
+      <c r="C66" s="100" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="11"/>
@@ -4836,9 +4836,9 @@
       <c r="O66" s="20"/>
     </row>
     <row r="67" spans="1:15" ht="21" customHeight="1">
-      <c r="A67" s="105"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="90"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="101"/>
       <c r="D67" s="21">
         <v>1</v>
       </c>
@@ -4859,9 +4859,9 @@
       <c r="O67" s="20"/>
     </row>
     <row r="68" spans="1:15" ht="21" customHeight="1">
-      <c r="A68" s="105"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="90"/>
+      <c r="A68" s="84"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="101"/>
       <c r="D68" s="21">
         <f>1+D67</f>
         <v>2</v>
@@ -4883,9 +4883,9 @@
       <c r="O68" s="20"/>
     </row>
     <row r="69" spans="1:15" ht="21" customHeight="1">
-      <c r="A69" s="105"/>
-      <c r="B69" s="93"/>
-      <c r="C69" s="90"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="104"/>
+      <c r="C69" s="101"/>
       <c r="D69" s="21">
         <f t="shared" ref="D69:D80" si="3">1+D68</f>
         <v>3</v>
@@ -4907,9 +4907,9 @@
       <c r="O69" s="20"/>
     </row>
     <row r="70" spans="1:15" ht="21" customHeight="1">
-      <c r="A70" s="105"/>
-      <c r="B70" s="93"/>
-      <c r="C70" s="90"/>
+      <c r="A70" s="84"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="101"/>
       <c r="D70" s="21">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4931,9 +4931,9 @@
       <c r="O70" s="20"/>
     </row>
     <row r="71" spans="1:15" ht="21" customHeight="1">
-      <c r="A71" s="105"/>
-      <c r="B71" s="93"/>
-      <c r="C71" s="90"/>
+      <c r="A71" s="84"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="101"/>
       <c r="D71" s="21">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4955,9 +4955,9 @@
       <c r="O71" s="20"/>
     </row>
     <row r="72" spans="1:15" ht="21" customHeight="1">
-      <c r="A72" s="105"/>
-      <c r="B72" s="93"/>
-      <c r="C72" s="90"/>
+      <c r="A72" s="84"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="101"/>
       <c r="D72" s="21">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -4979,9 +4979,9 @@
       <c r="O72" s="20"/>
     </row>
     <row r="73" spans="1:15" ht="21" customHeight="1">
-      <c r="A73" s="105"/>
-      <c r="B73" s="93"/>
-      <c r="C73" s="90"/>
+      <c r="A73" s="84"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="101"/>
       <c r="D73" s="21">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5003,9 +5003,9 @@
       <c r="O73" s="20"/>
     </row>
     <row r="74" spans="1:15" ht="21" customHeight="1">
-      <c r="A74" s="105"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="90"/>
+      <c r="A74" s="84"/>
+      <c r="B74" s="104"/>
+      <c r="C74" s="101"/>
       <c r="D74" s="21">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5027,9 +5027,9 @@
       <c r="O74" s="20"/>
     </row>
     <row r="75" spans="1:15" ht="21" customHeight="1">
-      <c r="A75" s="105"/>
-      <c r="B75" s="93"/>
-      <c r="C75" s="90"/>
+      <c r="A75" s="84"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="101"/>
       <c r="D75" s="21">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -5051,9 +5051,9 @@
       <c r="O75" s="20"/>
     </row>
     <row r="76" spans="1:15" ht="21" customHeight="1">
-      <c r="A76" s="105"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="90"/>
+      <c r="A76" s="84"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="101"/>
       <c r="D76" s="21">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -5075,9 +5075,9 @@
       <c r="O76" s="20"/>
     </row>
     <row r="77" spans="1:15" ht="21" customHeight="1">
-      <c r="A77" s="105"/>
-      <c r="B77" s="93"/>
-      <c r="C77" s="90"/>
+      <c r="A77" s="84"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="101"/>
       <c r="D77" s="21">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -5099,9 +5099,9 @@
       <c r="O77" s="20"/>
     </row>
     <row r="78" spans="1:15" ht="21" customHeight="1">
-      <c r="A78" s="105"/>
-      <c r="B78" s="93"/>
-      <c r="C78" s="90"/>
+      <c r="A78" s="84"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="101"/>
       <c r="D78" s="21">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -5123,9 +5123,9 @@
       <c r="O78" s="20"/>
     </row>
     <row r="79" spans="1:15" ht="21" customHeight="1">
-      <c r="A79" s="105"/>
-      <c r="B79" s="93"/>
-      <c r="C79" s="90"/>
+      <c r="A79" s="84"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="101"/>
       <c r="D79" s="21">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -5147,9 +5147,9 @@
       <c r="O79" s="20"/>
     </row>
     <row r="80" spans="1:15" ht="21" customHeight="1">
-      <c r="A80" s="105"/>
-      <c r="B80" s="94"/>
-      <c r="C80" s="91"/>
+      <c r="A80" s="84"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="102"/>
       <c r="D80" s="21">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -5171,7 +5171,7 @@
       <c r="O80" s="20"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="105"/>
+      <c r="A81" s="84"/>
       <c r="B81" s="44"/>
       <c r="C81" s="35"/>
       <c r="D81" s="11"/>
@@ -5188,12 +5188,12 @@
       <c r="O81" s="20"/>
     </row>
     <row r="82" spans="1:15" ht="21" customHeight="1">
-      <c r="A82" s="105"/>
-      <c r="B82" s="92">
+      <c r="A82" s="84"/>
+      <c r="B82" s="103">
         <f>+B66+1</f>
         <v>9</v>
       </c>
-      <c r="C82" s="89" t="s">
+      <c r="C82" s="100" t="s">
         <v>38</v>
       </c>
       <c r="D82" s="11"/>
@@ -5226,9 +5226,9 @@
       <c r="O82" s="20"/>
     </row>
     <row r="83" spans="1:15" ht="21" customHeight="1">
-      <c r="A83" s="105"/>
-      <c r="B83" s="93"/>
-      <c r="C83" s="90"/>
+      <c r="A83" s="84"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="101"/>
       <c r="D83" s="21">
         <v>1</v>
       </c>
@@ -5249,9 +5249,9 @@
       <c r="O83" s="20"/>
     </row>
     <row r="84" spans="1:15" ht="21" customHeight="1">
-      <c r="A84" s="105"/>
-      <c r="B84" s="93"/>
-      <c r="C84" s="90"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="101"/>
       <c r="D84" s="21">
         <f>1+D83</f>
         <v>2</v>
@@ -5273,9 +5273,9 @@
       <c r="O84" s="20"/>
     </row>
     <row r="85" spans="1:15" ht="21" customHeight="1">
-      <c r="A85" s="105"/>
-      <c r="B85" s="94"/>
-      <c r="C85" s="91"/>
+      <c r="A85" s="84"/>
+      <c r="B85" s="105"/>
+      <c r="C85" s="102"/>
       <c r="D85" s="21">
         <f>1+D84</f>
         <v>3</v>
@@ -5297,7 +5297,7 @@
       <c r="O85" s="20"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="105"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="44"/>
       <c r="C86" s="35"/>
       <c r="D86" s="21"/>
@@ -5314,12 +5314,12 @@
       <c r="O86" s="20"/>
     </row>
     <row r="87" spans="1:15" ht="21" customHeight="1">
-      <c r="A87" s="105"/>
-      <c r="B87" s="92">
+      <c r="A87" s="84"/>
+      <c r="B87" s="103">
         <f>+B82+1</f>
         <v>10</v>
       </c>
-      <c r="C87" s="89" t="s">
+      <c r="C87" s="100" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="11"/>
@@ -5352,9 +5352,9 @@
       <c r="O87" s="20"/>
     </row>
     <row r="88" spans="1:15" ht="21" customHeight="1">
-      <c r="A88" s="105"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="90"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="101"/>
       <c r="D88" s="21">
         <v>1</v>
       </c>
@@ -5375,9 +5375,9 @@
       <c r="O88" s="20"/>
     </row>
     <row r="89" spans="1:15" ht="21" customHeight="1">
-      <c r="A89" s="105"/>
-      <c r="B89" s="93"/>
-      <c r="C89" s="90"/>
+      <c r="A89" s="84"/>
+      <c r="B89" s="104"/>
+      <c r="C89" s="101"/>
       <c r="D89" s="21">
         <f>1+D88</f>
         <v>2</v>
@@ -5399,9 +5399,9 @@
       <c r="O89" s="20"/>
     </row>
     <row r="90" spans="1:15" ht="21" customHeight="1">
-      <c r="A90" s="105"/>
-      <c r="B90" s="93"/>
-      <c r="C90" s="90"/>
+      <c r="A90" s="84"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="101"/>
       <c r="D90" s="21">
         <f>1+D89</f>
         <v>3</v>
@@ -5423,9 +5423,9 @@
       <c r="O90" s="20"/>
     </row>
     <row r="91" spans="1:15" ht="21" customHeight="1">
-      <c r="A91" s="105"/>
-      <c r="B91" s="94"/>
-      <c r="C91" s="91"/>
+      <c r="A91" s="84"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="102"/>
       <c r="D91" s="21">
         <f>1+D90</f>
         <v>4</v>
@@ -5447,7 +5447,7 @@
       <c r="O91" s="20"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="105"/>
+      <c r="A92" s="84"/>
       <c r="B92" s="44"/>
       <c r="C92" s="35"/>
       <c r="D92" s="11"/>
@@ -5464,12 +5464,12 @@
       <c r="O92" s="20"/>
     </row>
     <row r="93" spans="1:15" ht="21" customHeight="1">
-      <c r="A93" s="105"/>
-      <c r="B93" s="92">
+      <c r="A93" s="84"/>
+      <c r="B93" s="103">
         <f>+B87+1</f>
         <v>11</v>
       </c>
-      <c r="C93" s="95" t="s">
+      <c r="C93" s="106" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="36"/>
@@ -5502,9 +5502,9 @@
       <c r="O93" s="23"/>
     </row>
     <row r="94" spans="1:15" ht="21" customHeight="1">
-      <c r="A94" s="105"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="96"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="107"/>
       <c r="D94" s="21">
         <v>1</v>
       </c>
@@ -5525,9 +5525,9 @@
       <c r="O94" s="23"/>
     </row>
     <row r="95" spans="1:15" ht="21" customHeight="1">
-      <c r="A95" s="105"/>
-      <c r="B95" s="93"/>
-      <c r="C95" s="96"/>
+      <c r="A95" s="84"/>
+      <c r="B95" s="104"/>
+      <c r="C95" s="107"/>
       <c r="D95" s="21">
         <f>1+D94</f>
         <v>2</v>
@@ -5549,9 +5549,9 @@
       <c r="O95" s="23"/>
     </row>
     <row r="96" spans="1:15" ht="21" customHeight="1">
-      <c r="A96" s="105"/>
-      <c r="B96" s="93"/>
-      <c r="C96" s="96"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="107"/>
       <c r="D96" s="21">
         <f t="shared" ref="D96:D101" si="4">1+D95</f>
         <v>3</v>
@@ -5573,9 +5573,9 @@
       <c r="O96" s="23"/>
     </row>
     <row r="97" spans="1:15" ht="21" customHeight="1">
-      <c r="A97" s="105"/>
-      <c r="B97" s="93"/>
-      <c r="C97" s="96"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="104"/>
+      <c r="C97" s="107"/>
       <c r="D97" s="21">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -5597,9 +5597,9 @@
       <c r="O97" s="23"/>
     </row>
     <row r="98" spans="1:15" ht="21" customHeight="1">
-      <c r="A98" s="105"/>
-      <c r="B98" s="93"/>
-      <c r="C98" s="96"/>
+      <c r="A98" s="84"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="107"/>
       <c r="D98" s="21">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -5621,9 +5621,9 @@
       <c r="O98" s="23"/>
     </row>
     <row r="99" spans="1:15" ht="21" customHeight="1">
-      <c r="A99" s="105"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="96"/>
+      <c r="A99" s="84"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="107"/>
       <c r="D99" s="21">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -5645,9 +5645,9 @@
       <c r="O99" s="23"/>
     </row>
     <row r="100" spans="1:15" ht="21" customHeight="1">
-      <c r="A100" s="105"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="96"/>
+      <c r="A100" s="84"/>
+      <c r="B100" s="104"/>
+      <c r="C100" s="107"/>
       <c r="D100" s="21">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -5669,9 +5669,9 @@
       <c r="O100" s="23"/>
     </row>
     <row r="101" spans="1:15" ht="21" customHeight="1">
-      <c r="A101" s="105"/>
-      <c r="B101" s="94"/>
-      <c r="C101" s="97"/>
+      <c r="A101" s="84"/>
+      <c r="B101" s="105"/>
+      <c r="C101" s="108"/>
       <c r="D101" s="21">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -5693,7 +5693,7 @@
       <c r="O101" s="23"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="105"/>
+      <c r="A102" s="84"/>
       <c r="B102" s="44"/>
       <c r="C102" s="37"/>
       <c r="D102" s="36"/>
@@ -5710,12 +5710,12 @@
       <c r="O102" s="23"/>
     </row>
     <row r="103" spans="1:15" ht="21" customHeight="1">
-      <c r="A103" s="105"/>
-      <c r="B103" s="92">
+      <c r="A103" s="84"/>
+      <c r="B103" s="103">
         <f>+B93+1</f>
         <v>12</v>
       </c>
-      <c r="C103" s="89" t="s">
+      <c r="C103" s="100" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="11"/>
@@ -5748,9 +5748,9 @@
       <c r="O103" s="20"/>
     </row>
     <row r="104" spans="1:15" ht="21" customHeight="1">
-      <c r="A104" s="105"/>
-      <c r="B104" s="93"/>
-      <c r="C104" s="90"/>
+      <c r="A104" s="84"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="101"/>
       <c r="D104" s="21">
         <v>1</v>
       </c>
@@ -5771,9 +5771,9 @@
       <c r="O104" s="20"/>
     </row>
     <row r="105" spans="1:15" ht="21" customHeight="1">
-      <c r="A105" s="105"/>
-      <c r="B105" s="93"/>
-      <c r="C105" s="90"/>
+      <c r="A105" s="84"/>
+      <c r="B105" s="104"/>
+      <c r="C105" s="101"/>
       <c r="D105" s="21">
         <f>1+D104</f>
         <v>2</v>
@@ -5795,9 +5795,9 @@
       <c r="O105" s="20"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1">
-      <c r="A106" s="105"/>
-      <c r="B106" s="93"/>
-      <c r="C106" s="90"/>
+      <c r="A106" s="84"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="101"/>
       <c r="D106" s="21">
         <f>1+D105</f>
         <v>3</v>
@@ -5819,9 +5819,9 @@
       <c r="O106" s="20"/>
     </row>
     <row r="107" spans="1:15" ht="21" customHeight="1">
-      <c r="A107" s="105"/>
-      <c r="B107" s="93"/>
-      <c r="C107" s="90"/>
+      <c r="A107" s="84"/>
+      <c r="B107" s="104"/>
+      <c r="C107" s="101"/>
       <c r="D107" s="21">
         <f>1+D106</f>
         <v>4</v>
@@ -5843,9 +5843,9 @@
       <c r="O107" s="20"/>
     </row>
     <row r="108" spans="1:15" ht="21" customHeight="1">
-      <c r="A108" s="105"/>
-      <c r="B108" s="94"/>
-      <c r="C108" s="91"/>
+      <c r="A108" s="84"/>
+      <c r="B108" s="105"/>
+      <c r="C108" s="102"/>
       <c r="D108" s="21">
         <f>1+D107</f>
         <v>5</v>
@@ -5867,7 +5867,7 @@
       <c r="O108" s="20"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="105"/>
+      <c r="A109" s="84"/>
       <c r="B109" s="44"/>
       <c r="C109" s="35"/>
       <c r="D109" s="11"/>
@@ -5884,12 +5884,12 @@
       <c r="O109" s="20"/>
     </row>
     <row r="110" spans="1:15" ht="21" customHeight="1">
-      <c r="A110" s="105"/>
-      <c r="B110" s="92">
+      <c r="A110" s="84"/>
+      <c r="B110" s="103">
         <f>+B103+1</f>
         <v>13</v>
       </c>
-      <c r="C110" s="89" t="s">
+      <c r="C110" s="100" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="11"/>
@@ -5922,9 +5922,9 @@
       <c r="O110" s="20"/>
     </row>
     <row r="111" spans="1:15" ht="21" customHeight="1">
-      <c r="A111" s="105"/>
-      <c r="B111" s="93"/>
-      <c r="C111" s="90"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="104"/>
+      <c r="C111" s="101"/>
       <c r="D111" s="21">
         <v>1</v>
       </c>
@@ -5945,9 +5945,9 @@
       <c r="O111" s="20"/>
     </row>
     <row r="112" spans="1:15" ht="21" customHeight="1">
-      <c r="A112" s="105"/>
-      <c r="B112" s="93"/>
-      <c r="C112" s="90"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="104"/>
+      <c r="C112" s="101"/>
       <c r="D112" s="21">
         <f>1+D111</f>
         <v>2</v>
@@ -5969,9 +5969,9 @@
       <c r="O112" s="20"/>
     </row>
     <row r="113" spans="1:15" ht="21" customHeight="1">
-      <c r="A113" s="105"/>
-      <c r="B113" s="93"/>
-      <c r="C113" s="90"/>
+      <c r="A113" s="84"/>
+      <c r="B113" s="104"/>
+      <c r="C113" s="101"/>
       <c r="D113" s="21">
         <f>1+D112</f>
         <v>3</v>
@@ -5993,9 +5993,9 @@
       <c r="O113" s="20"/>
     </row>
     <row r="114" spans="1:15" ht="21" customHeight="1">
-      <c r="A114" s="105"/>
-      <c r="B114" s="94"/>
-      <c r="C114" s="91"/>
+      <c r="A114" s="84"/>
+      <c r="B114" s="105"/>
+      <c r="C114" s="102"/>
       <c r="D114" s="21">
         <f>1+D113</f>
         <v>4</v>
@@ -6017,7 +6017,7 @@
       <c r="O114" s="20"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="105"/>
+      <c r="A115" s="84"/>
       <c r="B115" s="44"/>
       <c r="C115" s="35"/>
       <c r="D115" s="11"/>
@@ -6034,12 +6034,12 @@
       <c r="O115" s="20"/>
     </row>
     <row r="116" spans="1:15" ht="21" customHeight="1">
-      <c r="A116" s="105"/>
-      <c r="B116" s="92">
+      <c r="A116" s="84"/>
+      <c r="B116" s="103">
         <f>+B110+1</f>
         <v>14</v>
       </c>
-      <c r="C116" s="95" t="s">
+      <c r="C116" s="106" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="36"/>
@@ -6072,9 +6072,9 @@
       <c r="O116" s="23"/>
     </row>
     <row r="117" spans="1:15" ht="21" customHeight="1">
-      <c r="A117" s="105"/>
-      <c r="B117" s="93"/>
-      <c r="C117" s="96"/>
+      <c r="A117" s="84"/>
+      <c r="B117" s="104"/>
+      <c r="C117" s="107"/>
       <c r="D117" s="21">
         <v>1</v>
       </c>
@@ -6095,9 +6095,9 @@
       <c r="O117" s="23"/>
     </row>
     <row r="118" spans="1:15" ht="21" customHeight="1">
-      <c r="A118" s="105"/>
-      <c r="B118" s="93"/>
-      <c r="C118" s="96"/>
+      <c r="A118" s="84"/>
+      <c r="B118" s="104"/>
+      <c r="C118" s="107"/>
       <c r="D118" s="21">
         <f>1+D117</f>
         <v>2</v>
@@ -6119,9 +6119,9 @@
       <c r="O118" s="23"/>
     </row>
     <row r="119" spans="1:15" ht="21" customHeight="1">
-      <c r="A119" s="105"/>
-      <c r="B119" s="93"/>
-      <c r="C119" s="96"/>
+      <c r="A119" s="84"/>
+      <c r="B119" s="104"/>
+      <c r="C119" s="107"/>
       <c r="D119" s="21">
         <f t="shared" ref="D119:D128" si="5">1+D118</f>
         <v>3</v>
@@ -6143,9 +6143,9 @@
       <c r="O119" s="23"/>
     </row>
     <row r="120" spans="1:15" ht="21" customHeight="1">
-      <c r="A120" s="105"/>
-      <c r="B120" s="93"/>
-      <c r="C120" s="96"/>
+      <c r="A120" s="84"/>
+      <c r="B120" s="104"/>
+      <c r="C120" s="107"/>
       <c r="D120" s="21">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -6167,9 +6167,9 @@
       <c r="O120" s="23"/>
     </row>
     <row r="121" spans="1:15" ht="21" customHeight="1">
-      <c r="A121" s="105"/>
-      <c r="B121" s="93"/>
-      <c r="C121" s="96"/>
+      <c r="A121" s="84"/>
+      <c r="B121" s="104"/>
+      <c r="C121" s="107"/>
       <c r="D121" s="21">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -6191,9 +6191,9 @@
       <c r="O121" s="23"/>
     </row>
     <row r="122" spans="1:15" ht="21" customHeight="1">
-      <c r="A122" s="105"/>
-      <c r="B122" s="93"/>
-      <c r="C122" s="96"/>
+      <c r="A122" s="84"/>
+      <c r="B122" s="104"/>
+      <c r="C122" s="107"/>
       <c r="D122" s="21">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -6215,9 +6215,9 @@
       <c r="O122" s="23"/>
     </row>
     <row r="123" spans="1:15" ht="21" customHeight="1">
-      <c r="A123" s="105"/>
-      <c r="B123" s="93"/>
-      <c r="C123" s="96"/>
+      <c r="A123" s="84"/>
+      <c r="B123" s="104"/>
+      <c r="C123" s="107"/>
       <c r="D123" s="21">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -6239,9 +6239,9 @@
       <c r="O123" s="23"/>
     </row>
     <row r="124" spans="1:15" ht="21" customHeight="1">
-      <c r="A124" s="105"/>
-      <c r="B124" s="93"/>
-      <c r="C124" s="96"/>
+      <c r="A124" s="84"/>
+      <c r="B124" s="104"/>
+      <c r="C124" s="107"/>
       <c r="D124" s="21">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -6263,9 +6263,9 @@
       <c r="O124" s="23"/>
     </row>
     <row r="125" spans="1:15" ht="21" customHeight="1">
-      <c r="A125" s="105"/>
-      <c r="B125" s="93"/>
-      <c r="C125" s="96"/>
+      <c r="A125" s="84"/>
+      <c r="B125" s="104"/>
+      <c r="C125" s="107"/>
       <c r="D125" s="21">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -6287,9 +6287,9 @@
       <c r="O125" s="23"/>
     </row>
     <row r="126" spans="1:15" ht="21" customHeight="1">
-      <c r="A126" s="105"/>
-      <c r="B126" s="93"/>
-      <c r="C126" s="96"/>
+      <c r="A126" s="84"/>
+      <c r="B126" s="104"/>
+      <c r="C126" s="107"/>
       <c r="D126" s="21">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -6311,9 +6311,9 @@
       <c r="O126" s="23"/>
     </row>
     <row r="127" spans="1:15" ht="21" customHeight="1">
-      <c r="A127" s="105"/>
-      <c r="B127" s="93"/>
-      <c r="C127" s="96"/>
+      <c r="A127" s="84"/>
+      <c r="B127" s="104"/>
+      <c r="C127" s="107"/>
       <c r="D127" s="21">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -6335,9 +6335,9 @@
       <c r="O127" s="23"/>
     </row>
     <row r="128" spans="1:15" ht="21" customHeight="1">
-      <c r="A128" s="106"/>
-      <c r="B128" s="94"/>
-      <c r="C128" s="97"/>
+      <c r="A128" s="85"/>
+      <c r="B128" s="105"/>
+      <c r="C128" s="108"/>
       <c r="D128" s="21">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -6376,14 +6376,14 @@
       <c r="O129" s="23"/>
     </row>
     <row r="130" spans="1:15" ht="21" customHeight="1">
-      <c r="A130" s="107">
+      <c r="A130" s="86">
         <v>0</v>
       </c>
-      <c r="B130" s="85">
+      <c r="B130" s="112">
         <f>+B116+1</f>
         <v>15</v>
       </c>
-      <c r="C130" s="83" t="s">
+      <c r="C130" s="109" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="13"/>
@@ -6416,9 +6416,9 @@
       <c r="O130" s="6"/>
     </row>
     <row r="131" spans="1:15" ht="21" customHeight="1">
-      <c r="A131" s="108"/>
-      <c r="B131" s="88"/>
-      <c r="C131" s="87"/>
+      <c r="A131" s="87"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="110"/>
       <c r="D131" s="13">
         <v>1</v>
       </c>
@@ -6439,9 +6439,9 @@
       <c r="O131" s="6"/>
     </row>
     <row r="132" spans="1:15" ht="21" customHeight="1">
-      <c r="A132" s="108"/>
-      <c r="B132" s="88"/>
-      <c r="C132" s="87"/>
+      <c r="A132" s="87"/>
+      <c r="B132" s="113"/>
+      <c r="C132" s="110"/>
       <c r="D132" s="13">
         <f>1+D131</f>
         <v>2</v>
@@ -6463,9 +6463,9 @@
       <c r="O132" s="6"/>
     </row>
     <row r="133" spans="1:15" ht="21" customHeight="1">
-      <c r="A133" s="108"/>
-      <c r="B133" s="88"/>
-      <c r="C133" s="87"/>
+      <c r="A133" s="87"/>
+      <c r="B133" s="113"/>
+      <c r="C133" s="110"/>
       <c r="D133" s="13">
         <f>1+D132</f>
         <v>3</v>
@@ -6487,9 +6487,9 @@
       <c r="O133" s="6"/>
     </row>
     <row r="134" spans="1:15" ht="21" customHeight="1">
-      <c r="A134" s="108"/>
-      <c r="B134" s="88"/>
-      <c r="C134" s="87"/>
+      <c r="A134" s="87"/>
+      <c r="B134" s="113"/>
+      <c r="C134" s="110"/>
       <c r="D134" s="13">
         <f>1+D133</f>
         <v>4</v>
@@ -6511,9 +6511,9 @@
       <c r="O134" s="6"/>
     </row>
     <row r="135" spans="1:15" ht="21" customHeight="1">
-      <c r="A135" s="108"/>
-      <c r="B135" s="88"/>
-      <c r="C135" s="87"/>
+      <c r="A135" s="87"/>
+      <c r="B135" s="113"/>
+      <c r="C135" s="110"/>
       <c r="D135" s="13">
         <f>1+D134</f>
         <v>5</v>
@@ -6535,9 +6535,9 @@
       <c r="O135" s="6"/>
     </row>
     <row r="136" spans="1:15" ht="21" customHeight="1">
-      <c r="A136" s="108"/>
-      <c r="B136" s="86"/>
-      <c r="C136" s="84"/>
+      <c r="A136" s="87"/>
+      <c r="B136" s="114"/>
+      <c r="C136" s="111"/>
       <c r="D136" s="13">
         <f>1+D135</f>
         <v>6</v>
@@ -6559,7 +6559,7 @@
       <c r="O136" s="6"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="108"/>
+      <c r="A137" s="87"/>
       <c r="B137" s="45"/>
       <c r="C137" s="38"/>
       <c r="D137" s="13"/>
@@ -6576,12 +6576,12 @@
       <c r="O137" s="6"/>
     </row>
     <row r="138" spans="1:15" ht="21" customHeight="1">
-      <c r="A138" s="108"/>
-      <c r="B138" s="85">
+      <c r="A138" s="87"/>
+      <c r="B138" s="112">
         <f>+B130+1</f>
         <v>16</v>
       </c>
-      <c r="C138" s="83" t="s">
+      <c r="C138" s="109" t="s">
         <v>16</v>
       </c>
       <c r="D138" s="13"/>
@@ -6614,9 +6614,9 @@
       <c r="O138" s="6"/>
     </row>
     <row r="139" spans="1:15" ht="21" customHeight="1">
-      <c r="A139" s="108"/>
-      <c r="B139" s="88"/>
-      <c r="C139" s="87"/>
+      <c r="A139" s="87"/>
+      <c r="B139" s="113"/>
+      <c r="C139" s="110"/>
       <c r="D139" s="13">
         <v>1</v>
       </c>
@@ -6637,9 +6637,9 @@
       <c r="O139" s="6"/>
     </row>
     <row r="140" spans="1:15" ht="21" customHeight="1">
-      <c r="A140" s="108"/>
-      <c r="B140" s="88"/>
-      <c r="C140" s="87"/>
+      <c r="A140" s="87"/>
+      <c r="B140" s="113"/>
+      <c r="C140" s="110"/>
       <c r="D140" s="13">
         <f>1+D139</f>
         <v>2</v>
@@ -6661,9 +6661,9 @@
       <c r="O140" s="6"/>
     </row>
     <row r="141" spans="1:15" ht="21" customHeight="1">
-      <c r="A141" s="108"/>
-      <c r="B141" s="88"/>
-      <c r="C141" s="87"/>
+      <c r="A141" s="87"/>
+      <c r="B141" s="113"/>
+      <c r="C141" s="110"/>
       <c r="D141" s="13">
         <f t="shared" ref="D141:D149" si="6">1+D140</f>
         <v>3</v>
@@ -6685,9 +6685,9 @@
       <c r="O141" s="6"/>
     </row>
     <row r="142" spans="1:15" ht="21" customHeight="1">
-      <c r="A142" s="108"/>
-      <c r="B142" s="88"/>
-      <c r="C142" s="87"/>
+      <c r="A142" s="87"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="110"/>
       <c r="D142" s="13">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -6709,9 +6709,9 @@
       <c r="O142" s="6"/>
     </row>
     <row r="143" spans="1:15" ht="21" customHeight="1">
-      <c r="A143" s="108"/>
-      <c r="B143" s="88"/>
-      <c r="C143" s="87"/>
+      <c r="A143" s="87"/>
+      <c r="B143" s="113"/>
+      <c r="C143" s="110"/>
       <c r="D143" s="13">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -6733,9 +6733,9 @@
       <c r="O143" s="6"/>
     </row>
     <row r="144" spans="1:15" ht="21" customHeight="1">
-      <c r="A144" s="108"/>
-      <c r="B144" s="88"/>
-      <c r="C144" s="87"/>
+      <c r="A144" s="87"/>
+      <c r="B144" s="113"/>
+      <c r="C144" s="110"/>
       <c r="D144" s="13">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -6757,9 +6757,9 @@
       <c r="O144" s="6"/>
     </row>
     <row r="145" spans="1:15" ht="21" customHeight="1">
-      <c r="A145" s="108"/>
-      <c r="B145" s="88"/>
-      <c r="C145" s="87"/>
+      <c r="A145" s="87"/>
+      <c r="B145" s="113"/>
+      <c r="C145" s="110"/>
       <c r="D145" s="13">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -6781,9 +6781,9 @@
       <c r="O145" s="6"/>
     </row>
     <row r="146" spans="1:15" ht="21" customHeight="1">
-      <c r="A146" s="108"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="87"/>
+      <c r="A146" s="87"/>
+      <c r="B146" s="113"/>
+      <c r="C146" s="110"/>
       <c r="D146" s="13">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -6805,9 +6805,9 @@
       <c r="O146" s="6"/>
     </row>
     <row r="147" spans="1:15" ht="21" customHeight="1">
-      <c r="A147" s="108"/>
-      <c r="B147" s="88"/>
-      <c r="C147" s="87"/>
+      <c r="A147" s="87"/>
+      <c r="B147" s="113"/>
+      <c r="C147" s="110"/>
       <c r="D147" s="13">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -6829,9 +6829,9 @@
       <c r="O147" s="6"/>
     </row>
     <row r="148" spans="1:15" ht="21" customHeight="1">
-      <c r="A148" s="108"/>
-      <c r="B148" s="88"/>
-      <c r="C148" s="87"/>
+      <c r="A148" s="87"/>
+      <c r="B148" s="113"/>
+      <c r="C148" s="110"/>
       <c r="D148" s="13">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -6853,9 +6853,9 @@
       <c r="O148" s="6"/>
     </row>
     <row r="149" spans="1:15" ht="21" customHeight="1">
-      <c r="A149" s="108"/>
-      <c r="B149" s="86"/>
-      <c r="C149" s="84"/>
+      <c r="A149" s="87"/>
+      <c r="B149" s="114"/>
+      <c r="C149" s="111"/>
       <c r="D149" s="13">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -6875,7 +6875,7 @@
       <c r="O149" s="6"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="108"/>
+      <c r="A150" s="87"/>
       <c r="B150" s="45"/>
       <c r="C150" s="38"/>
       <c r="D150" s="13"/>
@@ -6892,12 +6892,12 @@
       <c r="O150" s="6"/>
     </row>
     <row r="151" spans="1:15" ht="21" customHeight="1">
-      <c r="A151" s="108"/>
-      <c r="B151" s="85">
+      <c r="A151" s="87"/>
+      <c r="B151" s="112">
         <f>+B138+1</f>
         <v>17</v>
       </c>
-      <c r="C151" s="83" t="s">
+      <c r="C151" s="109" t="s">
         <v>29</v>
       </c>
       <c r="D151" s="13"/>
@@ -6930,9 +6930,9 @@
       <c r="O151" s="6"/>
     </row>
     <row r="152" spans="1:15" ht="21" customHeight="1">
-      <c r="A152" s="108"/>
-      <c r="B152" s="88"/>
-      <c r="C152" s="87"/>
+      <c r="A152" s="87"/>
+      <c r="B152" s="113"/>
+      <c r="C152" s="110"/>
       <c r="D152" s="13">
         <v>1</v>
       </c>
@@ -6953,9 +6953,9 @@
       <c r="O152" s="6"/>
     </row>
     <row r="153" spans="1:15" ht="21" customHeight="1">
-      <c r="A153" s="108"/>
-      <c r="B153" s="88"/>
-      <c r="C153" s="87"/>
+      <c r="A153" s="87"/>
+      <c r="B153" s="113"/>
+      <c r="C153" s="110"/>
       <c r="D153" s="13">
         <f>1+D152</f>
         <v>2</v>
@@ -6977,9 +6977,9 @@
       <c r="O153" s="6"/>
     </row>
     <row r="154" spans="1:15" ht="21" customHeight="1">
-      <c r="A154" s="108"/>
-      <c r="B154" s="88"/>
-      <c r="C154" s="87"/>
+      <c r="A154" s="87"/>
+      <c r="B154" s="113"/>
+      <c r="C154" s="110"/>
       <c r="D154" s="13">
         <f>1+D153</f>
         <v>3</v>
@@ -7001,9 +7001,9 @@
       <c r="O154" s="6"/>
     </row>
     <row r="155" spans="1:15" ht="21" customHeight="1">
-      <c r="A155" s="108"/>
-      <c r="B155" s="86"/>
-      <c r="C155" s="84"/>
+      <c r="A155" s="87"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="111"/>
       <c r="D155" s="13">
         <f>1+D154</f>
         <v>4</v>
@@ -7025,7 +7025,7 @@
       <c r="O155" s="6"/>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="108"/>
+      <c r="A156" s="87"/>
       <c r="B156" s="45"/>
       <c r="C156" s="38"/>
       <c r="D156" s="13"/>
@@ -7042,12 +7042,12 @@
       <c r="O156" s="6"/>
     </row>
     <row r="157" spans="1:15" ht="21" customHeight="1">
-      <c r="A157" s="108"/>
-      <c r="B157" s="85">
+      <c r="A157" s="87"/>
+      <c r="B157" s="112">
         <f>+B151+1</f>
         <v>18</v>
       </c>
-      <c r="C157" s="83" t="s">
+      <c r="C157" s="109" t="s">
         <v>21</v>
       </c>
       <c r="D157" s="13"/>
@@ -7080,9 +7080,9 @@
       <c r="O157" s="6"/>
     </row>
     <row r="158" spans="1:15" ht="21" customHeight="1">
-      <c r="A158" s="108"/>
-      <c r="B158" s="86"/>
-      <c r="C158" s="84"/>
+      <c r="A158" s="87"/>
+      <c r="B158" s="114"/>
+      <c r="C158" s="111"/>
       <c r="D158" s="13">
         <v>1</v>
       </c>
@@ -7103,7 +7103,7 @@
       <c r="O158" s="6"/>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="108"/>
+      <c r="A159" s="87"/>
       <c r="B159" s="45"/>
       <c r="C159" s="38"/>
       <c r="D159" s="13"/>
@@ -7120,12 +7120,12 @@
       <c r="O159" s="6"/>
     </row>
     <row r="160" spans="1:15" ht="21" customHeight="1">
-      <c r="A160" s="108"/>
-      <c r="B160" s="85">
+      <c r="A160" s="87"/>
+      <c r="B160" s="112">
         <f>+B157+1</f>
         <v>19</v>
       </c>
-      <c r="C160" s="83" t="s">
+      <c r="C160" s="109" t="s">
         <v>22</v>
       </c>
       <c r="D160" s="13"/>
@@ -7158,9 +7158,9 @@
       <c r="O160" s="6"/>
     </row>
     <row r="161" spans="1:15" ht="21" customHeight="1">
-      <c r="A161" s="108"/>
-      <c r="B161" s="88"/>
-      <c r="C161" s="87"/>
+      <c r="A161" s="87"/>
+      <c r="B161" s="113"/>
+      <c r="C161" s="110"/>
       <c r="D161" s="13">
         <v>1</v>
       </c>
@@ -7181,9 +7181,9 @@
       <c r="O161" s="6"/>
     </row>
     <row r="162" spans="1:15" ht="21" customHeight="1">
-      <c r="A162" s="108"/>
-      <c r="B162" s="88"/>
-      <c r="C162" s="87"/>
+      <c r="A162" s="87"/>
+      <c r="B162" s="113"/>
+      <c r="C162" s="110"/>
       <c r="D162" s="13">
         <f>1+D161</f>
         <v>2</v>
@@ -7205,9 +7205,9 @@
       <c r="O162" s="6"/>
     </row>
     <row r="163" spans="1:15" ht="21" customHeight="1">
-      <c r="A163" s="108"/>
-      <c r="B163" s="88"/>
-      <c r="C163" s="87"/>
+      <c r="A163" s="87"/>
+      <c r="B163" s="113"/>
+      <c r="C163" s="110"/>
       <c r="D163" s="13">
         <f t="shared" ref="D163:D168" si="7">1+D162</f>
         <v>3</v>
@@ -7229,9 +7229,9 @@
       <c r="O163" s="6"/>
     </row>
     <row r="164" spans="1:15" ht="21" customHeight="1">
-      <c r="A164" s="108"/>
-      <c r="B164" s="88"/>
-      <c r="C164" s="87"/>
+      <c r="A164" s="87"/>
+      <c r="B164" s="113"/>
+      <c r="C164" s="110"/>
       <c r="D164" s="13">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -7253,9 +7253,9 @@
       <c r="O164" s="6"/>
     </row>
     <row r="165" spans="1:15" ht="21" customHeight="1">
-      <c r="A165" s="108"/>
-      <c r="B165" s="88"/>
-      <c r="C165" s="87"/>
+      <c r="A165" s="87"/>
+      <c r="B165" s="113"/>
+      <c r="C165" s="110"/>
       <c r="D165" s="13">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -7277,9 +7277,9 @@
       <c r="O165" s="6"/>
     </row>
     <row r="166" spans="1:15" ht="21" customHeight="1">
-      <c r="A166" s="108"/>
-      <c r="B166" s="88"/>
-      <c r="C166" s="87"/>
+      <c r="A166" s="87"/>
+      <c r="B166" s="113"/>
+      <c r="C166" s="110"/>
       <c r="D166" s="13">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -7301,9 +7301,9 @@
       <c r="O166" s="6"/>
     </row>
     <row r="167" spans="1:15" ht="21" customHeight="1">
-      <c r="A167" s="108"/>
-      <c r="B167" s="88"/>
-      <c r="C167" s="87"/>
+      <c r="A167" s="87"/>
+      <c r="B167" s="113"/>
+      <c r="C167" s="110"/>
       <c r="D167" s="13">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -7325,9 +7325,9 @@
       <c r="O167" s="6"/>
     </row>
     <row r="168" spans="1:15" ht="21" customHeight="1">
-      <c r="A168" s="108"/>
-      <c r="B168" s="86"/>
-      <c r="C168" s="84"/>
+      <c r="A168" s="87"/>
+      <c r="B168" s="114"/>
+      <c r="C168" s="111"/>
       <c r="D168" s="13">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -7349,7 +7349,7 @@
       <c r="O168" s="6"/>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="108"/>
+      <c r="A169" s="87"/>
       <c r="B169" s="45"/>
       <c r="C169" s="38"/>
       <c r="D169" s="13"/>
@@ -7366,12 +7366,12 @@
       <c r="O169" s="6"/>
     </row>
     <row r="170" spans="1:15" ht="45" customHeight="1">
-      <c r="A170" s="108"/>
-      <c r="B170" s="85">
+      <c r="A170" s="87"/>
+      <c r="B170" s="112">
         <f>+B160+1</f>
         <v>20</v>
       </c>
-      <c r="C170" s="83" t="s">
+      <c r="C170" s="109" t="s">
         <v>24</v>
       </c>
       <c r="D170" s="13"/>
@@ -7404,9 +7404,9 @@
       <c r="O170" s="6"/>
     </row>
     <row r="171" spans="1:15" ht="21" customHeight="1">
-      <c r="A171" s="108"/>
-      <c r="B171" s="88"/>
-      <c r="C171" s="87"/>
+      <c r="A171" s="87"/>
+      <c r="B171" s="113"/>
+      <c r="C171" s="110"/>
       <c r="D171" s="13">
         <v>1</v>
       </c>
@@ -7427,9 +7427,9 @@
       <c r="O171" s="6"/>
     </row>
     <row r="172" spans="1:15" ht="21" customHeight="1">
-      <c r="A172" s="108"/>
-      <c r="B172" s="88"/>
-      <c r="C172" s="87"/>
+      <c r="A172" s="87"/>
+      <c r="B172" s="113"/>
+      <c r="C172" s="110"/>
       <c r="D172" s="13">
         <f>1+D171</f>
         <v>2</v>
@@ -7451,9 +7451,9 @@
       <c r="O172" s="6"/>
     </row>
     <row r="173" spans="1:15" ht="21" customHeight="1">
-      <c r="A173" s="108"/>
-      <c r="B173" s="88"/>
-      <c r="C173" s="87"/>
+      <c r="A173" s="87"/>
+      <c r="B173" s="113"/>
+      <c r="C173" s="110"/>
       <c r="D173" s="13">
         <f t="shared" ref="D173:D178" si="8">1+D172</f>
         <v>3</v>
@@ -7475,9 +7475,9 @@
       <c r="O173" s="6"/>
     </row>
     <row r="174" spans="1:15" ht="21" customHeight="1">
-      <c r="A174" s="108"/>
-      <c r="B174" s="88"/>
-      <c r="C174" s="87"/>
+      <c r="A174" s="87"/>
+      <c r="B174" s="113"/>
+      <c r="C174" s="110"/>
       <c r="D174" s="13">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -7499,9 +7499,9 @@
       <c r="O174" s="6"/>
     </row>
     <row r="175" spans="1:15" ht="21" customHeight="1">
-      <c r="A175" s="108"/>
-      <c r="B175" s="88"/>
-      <c r="C175" s="87"/>
+      <c r="A175" s="87"/>
+      <c r="B175" s="113"/>
+      <c r="C175" s="110"/>
       <c r="D175" s="13">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -7523,9 +7523,9 @@
       <c r="O175" s="6"/>
     </row>
     <row r="176" spans="1:15" ht="21" customHeight="1">
-      <c r="A176" s="108"/>
-      <c r="B176" s="88"/>
-      <c r="C176" s="87"/>
+      <c r="A176" s="87"/>
+      <c r="B176" s="113"/>
+      <c r="C176" s="110"/>
       <c r="D176" s="13">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -7547,9 +7547,9 @@
       <c r="O176" s="6"/>
     </row>
     <row r="177" spans="1:15" ht="21" customHeight="1">
-      <c r="A177" s="108"/>
-      <c r="B177" s="88"/>
-      <c r="C177" s="87"/>
+      <c r="A177" s="87"/>
+      <c r="B177" s="113"/>
+      <c r="C177" s="110"/>
       <c r="D177" s="13">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -7571,9 +7571,9 @@
       <c r="O177" s="6"/>
     </row>
     <row r="178" spans="1:15" ht="21" customHeight="1">
-      <c r="A178" s="108"/>
-      <c r="B178" s="88"/>
-      <c r="C178" s="87"/>
+      <c r="A178" s="87"/>
+      <c r="B178" s="113"/>
+      <c r="C178" s="110"/>
       <c r="D178" s="13">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -7595,9 +7595,9 @@
       <c r="O178" s="6"/>
     </row>
     <row r="179" spans="1:15" ht="21" customHeight="1">
-      <c r="A179" s="108"/>
-      <c r="B179" s="88"/>
-      <c r="C179" s="87"/>
+      <c r="A179" s="87"/>
+      <c r="B179" s="113"/>
+      <c r="C179" s="110"/>
       <c r="D179" s="13">
         <v>2</v>
       </c>
@@ -7618,9 +7618,9 @@
       <c r="O179" s="6"/>
     </row>
     <row r="180" spans="1:15" ht="21" customHeight="1">
-      <c r="A180" s="108"/>
-      <c r="B180" s="88"/>
-      <c r="C180" s="87"/>
+      <c r="A180" s="87"/>
+      <c r="B180" s="113"/>
+      <c r="C180" s="110"/>
       <c r="D180" s="13">
         <f>1+D179</f>
         <v>3</v>
@@ -7642,9 +7642,9 @@
       <c r="O180" s="6"/>
     </row>
     <row r="181" spans="1:15" ht="21" customHeight="1">
-      <c r="A181" s="108"/>
-      <c r="B181" s="88"/>
-      <c r="C181" s="87"/>
+      <c r="A181" s="87"/>
+      <c r="B181" s="113"/>
+      <c r="C181" s="110"/>
       <c r="D181" s="13">
         <f>1+D180</f>
         <v>4</v>
@@ -7666,9 +7666,9 @@
       <c r="O181" s="6"/>
     </row>
     <row r="182" spans="1:15" ht="21" customHeight="1">
-      <c r="A182" s="108"/>
-      <c r="B182" s="88"/>
-      <c r="C182" s="87"/>
+      <c r="A182" s="87"/>
+      <c r="B182" s="113"/>
+      <c r="C182" s="110"/>
       <c r="D182" s="13">
         <f>1+D181</f>
         <v>5</v>
@@ -7690,9 +7690,9 @@
       <c r="O182" s="6"/>
     </row>
     <row r="183" spans="1:15" ht="21" customHeight="1">
-      <c r="A183" s="108"/>
-      <c r="B183" s="86"/>
-      <c r="C183" s="84"/>
+      <c r="A183" s="87"/>
+      <c r="B183" s="114"/>
+      <c r="C183" s="111"/>
       <c r="D183" s="13">
         <f>1+D182</f>
         <v>6</v>
@@ -7714,7 +7714,7 @@
       <c r="O183" s="6"/>
     </row>
     <row r="184" spans="1:15">
-      <c r="A184" s="108"/>
+      <c r="A184" s="87"/>
       <c r="B184" s="45"/>
       <c r="C184" s="38"/>
       <c r="D184" s="13"/>
@@ -7731,14 +7731,14 @@
       <c r="O184" s="6"/>
     </row>
     <row r="185" spans="1:15" ht="21" customHeight="1">
-      <c r="A185" s="109" t="s">
+      <c r="A185" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B185" s="80">
+      <c r="B185" s="118">
         <f>+B170+1</f>
         <v>21</v>
       </c>
-      <c r="C185" s="77" t="s">
+      <c r="C185" s="115" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="14"/>
@@ -7771,9 +7771,9 @@
       <c r="O185" s="8"/>
     </row>
     <row r="186" spans="1:15" ht="21" customHeight="1">
-      <c r="A186" s="110"/>
-      <c r="B186" s="81"/>
-      <c r="C186" s="78"/>
+      <c r="A186" s="89"/>
+      <c r="B186" s="119"/>
+      <c r="C186" s="116"/>
       <c r="D186" s="14">
         <v>1</v>
       </c>
@@ -7794,9 +7794,9 @@
       <c r="O186" s="8"/>
     </row>
     <row r="187" spans="1:15" ht="21" customHeight="1">
-      <c r="A187" s="110"/>
-      <c r="B187" s="81"/>
-      <c r="C187" s="78"/>
+      <c r="A187" s="89"/>
+      <c r="B187" s="119"/>
+      <c r="C187" s="116"/>
       <c r="D187" s="14">
         <f>1+D186</f>
         <v>2</v>
@@ -7818,9 +7818,9 @@
       <c r="O187" s="8"/>
     </row>
     <row r="188" spans="1:15" ht="21" customHeight="1">
-      <c r="A188" s="110"/>
-      <c r="B188" s="81"/>
-      <c r="C188" s="78"/>
+      <c r="A188" s="89"/>
+      <c r="B188" s="119"/>
+      <c r="C188" s="116"/>
       <c r="D188" s="14">
         <f>1+D187</f>
         <v>3</v>
@@ -7842,9 +7842,9 @@
       <c r="O188" s="8"/>
     </row>
     <row r="189" spans="1:15" ht="21" customHeight="1">
-      <c r="A189" s="110"/>
-      <c r="B189" s="81"/>
-      <c r="C189" s="78"/>
+      <c r="A189" s="89"/>
+      <c r="B189" s="119"/>
+      <c r="C189" s="116"/>
       <c r="D189" s="14">
         <f>1+D188</f>
         <v>4</v>
@@ -7866,9 +7866,9 @@
       <c r="O189" s="8"/>
     </row>
     <row r="190" spans="1:15" ht="21" customHeight="1">
-      <c r="A190" s="110"/>
-      <c r="B190" s="82"/>
-      <c r="C190" s="79"/>
+      <c r="A190" s="89"/>
+      <c r="B190" s="120"/>
+      <c r="C190" s="117"/>
       <c r="D190" s="14">
         <f>1+D189</f>
         <v>5</v>
@@ -7890,7 +7890,7 @@
       <c r="O190" s="8"/>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="110"/>
+      <c r="A191" s="89"/>
       <c r="B191" s="46"/>
       <c r="C191" s="39"/>
       <c r="D191" s="14"/>
@@ -7907,12 +7907,12 @@
       <c r="O191" s="8"/>
     </row>
     <row r="192" spans="1:15" ht="21" customHeight="1">
-      <c r="A192" s="110"/>
-      <c r="B192" s="80">
+      <c r="A192" s="89"/>
+      <c r="B192" s="118">
         <f>+B185+1</f>
         <v>22</v>
       </c>
-      <c r="C192" s="77" t="s">
+      <c r="C192" s="115" t="s">
         <v>27</v>
       </c>
       <c r="D192" s="14"/>
@@ -7945,9 +7945,9 @@
       <c r="O192" s="8"/>
     </row>
     <row r="193" spans="1:15" ht="21" customHeight="1">
-      <c r="A193" s="110"/>
-      <c r="B193" s="82"/>
-      <c r="C193" s="79"/>
+      <c r="A193" s="89"/>
+      <c r="B193" s="120"/>
+      <c r="C193" s="117"/>
       <c r="D193" s="14">
         <v>1</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="O193" s="8"/>
     </row>
     <row r="194" spans="1:15">
-      <c r="A194" s="110"/>
+      <c r="A194" s="89"/>
       <c r="B194" s="46"/>
       <c r="C194" s="39"/>
       <c r="D194" s="14"/>
@@ -7985,12 +7985,12 @@
       <c r="O194" s="8"/>
     </row>
     <row r="195" spans="1:15" ht="21" customHeight="1">
-      <c r="A195" s="110"/>
-      <c r="B195" s="80">
+      <c r="A195" s="89"/>
+      <c r="B195" s="118">
         <f>+B192+1</f>
         <v>23</v>
       </c>
-      <c r="C195" s="77" t="s">
+      <c r="C195" s="115" t="s">
         <v>31</v>
       </c>
       <c r="D195" s="14"/>
@@ -8023,9 +8023,9 @@
       <c r="O195" s="8"/>
     </row>
     <row r="196" spans="1:15" ht="21" customHeight="1">
-      <c r="A196" s="110"/>
-      <c r="B196" s="81"/>
-      <c r="C196" s="78"/>
+      <c r="A196" s="89"/>
+      <c r="B196" s="119"/>
+      <c r="C196" s="116"/>
       <c r="D196" s="14">
         <v>1</v>
       </c>
@@ -8046,9 +8046,9 @@
       <c r="O196" s="8"/>
     </row>
     <row r="197" spans="1:15" ht="21" customHeight="1">
-      <c r="A197" s="110"/>
-      <c r="B197" s="81"/>
-      <c r="C197" s="78"/>
+      <c r="A197" s="89"/>
+      <c r="B197" s="119"/>
+      <c r="C197" s="116"/>
       <c r="D197" s="14">
         <f>1+D196</f>
         <v>2</v>
@@ -8070,9 +8070,9 @@
       <c r="O197" s="8"/>
     </row>
     <row r="198" spans="1:15" ht="21" customHeight="1">
-      <c r="A198" s="110"/>
-      <c r="B198" s="81"/>
-      <c r="C198" s="78"/>
+      <c r="A198" s="89"/>
+      <c r="B198" s="119"/>
+      <c r="C198" s="116"/>
       <c r="D198" s="14">
         <f t="shared" ref="D198:D206" si="9">1+D197</f>
         <v>3</v>
@@ -8094,9 +8094,9 @@
       <c r="O198" s="8"/>
     </row>
     <row r="199" spans="1:15" ht="21" customHeight="1">
-      <c r="A199" s="110"/>
-      <c r="B199" s="81"/>
-      <c r="C199" s="78"/>
+      <c r="A199" s="89"/>
+      <c r="B199" s="119"/>
+      <c r="C199" s="116"/>
       <c r="D199" s="14">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -8118,9 +8118,9 @@
       <c r="O199" s="8"/>
     </row>
     <row r="200" spans="1:15" ht="21" customHeight="1">
-      <c r="A200" s="110"/>
-      <c r="B200" s="81"/>
-      <c r="C200" s="78"/>
+      <c r="A200" s="89"/>
+      <c r="B200" s="119"/>
+      <c r="C200" s="116"/>
       <c r="D200" s="14">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -8140,9 +8140,9 @@
       <c r="O200" s="8"/>
     </row>
     <row r="201" spans="1:15" ht="21" customHeight="1">
-      <c r="A201" s="110"/>
-      <c r="B201" s="81"/>
-      <c r="C201" s="78"/>
+      <c r="A201" s="89"/>
+      <c r="B201" s="119"/>
+      <c r="C201" s="116"/>
       <c r="D201" s="14">
         <f t="shared" si="9"/>
         <v>6</v>
@@ -8164,9 +8164,9 @@
       <c r="O201" s="8"/>
     </row>
     <row r="202" spans="1:15" ht="21" customHeight="1">
-      <c r="A202" s="110"/>
-      <c r="B202" s="81"/>
-      <c r="C202" s="78"/>
+      <c r="A202" s="89"/>
+      <c r="B202" s="119"/>
+      <c r="C202" s="116"/>
       <c r="D202" s="14">
         <f t="shared" si="9"/>
         <v>7</v>
@@ -8188,9 +8188,9 @@
       <c r="O202" s="8"/>
     </row>
     <row r="203" spans="1:15" ht="21" customHeight="1">
-      <c r="A203" s="110"/>
-      <c r="B203" s="81"/>
-      <c r="C203" s="78"/>
+      <c r="A203" s="89"/>
+      <c r="B203" s="119"/>
+      <c r="C203" s="116"/>
       <c r="D203" s="14">
         <f t="shared" si="9"/>
         <v>8</v>
@@ -8212,9 +8212,9 @@
       <c r="O203" s="8"/>
     </row>
     <row r="204" spans="1:15" ht="21" customHeight="1">
-      <c r="A204" s="110"/>
-      <c r="B204" s="81"/>
-      <c r="C204" s="78"/>
+      <c r="A204" s="89"/>
+      <c r="B204" s="119"/>
+      <c r="C204" s="116"/>
       <c r="D204" s="14">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -8236,9 +8236,9 @@
       <c r="O204" s="8"/>
     </row>
     <row r="205" spans="1:15" ht="21" customHeight="1">
-      <c r="A205" s="110"/>
-      <c r="B205" s="81"/>
-      <c r="C205" s="78"/>
+      <c r="A205" s="89"/>
+      <c r="B205" s="119"/>
+      <c r="C205" s="116"/>
       <c r="D205" s="14">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -8260,9 +8260,9 @@
       <c r="O205" s="8"/>
     </row>
     <row r="206" spans="1:15" ht="21" customHeight="1">
-      <c r="A206" s="110"/>
-      <c r="B206" s="82"/>
-      <c r="C206" s="79"/>
+      <c r="A206" s="89"/>
+      <c r="B206" s="120"/>
+      <c r="C206" s="117"/>
       <c r="D206" s="14">
         <f t="shared" si="9"/>
         <v>11</v>
@@ -8284,7 +8284,7 @@
       <c r="O206" s="8"/>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="110"/>
+      <c r="A207" s="89"/>
       <c r="B207" s="46"/>
       <c r="C207" s="39"/>
       <c r="D207" s="14"/>
@@ -8301,12 +8301,12 @@
       <c r="O207" s="8"/>
     </row>
     <row r="208" spans="1:15" ht="21" customHeight="1">
-      <c r="A208" s="110"/>
-      <c r="B208" s="80">
+      <c r="A208" s="89"/>
+      <c r="B208" s="118">
         <f>+B195+1</f>
         <v>24</v>
       </c>
-      <c r="C208" s="77" t="s">
+      <c r="C208" s="115" t="s">
         <v>19</v>
       </c>
       <c r="D208" s="14"/>
@@ -8339,9 +8339,9 @@
       <c r="O208" s="8"/>
     </row>
     <row r="209" spans="1:15" ht="21" customHeight="1">
-      <c r="A209" s="110"/>
-      <c r="B209" s="81"/>
-      <c r="C209" s="78"/>
+      <c r="A209" s="89"/>
+      <c r="B209" s="119"/>
+      <c r="C209" s="116"/>
       <c r="D209" s="14">
         <v>1</v>
       </c>
@@ -8362,9 +8362,9 @@
       <c r="O209" s="8"/>
     </row>
     <row r="210" spans="1:15" ht="21" customHeight="1">
-      <c r="A210" s="110"/>
-      <c r="B210" s="81"/>
-      <c r="C210" s="78"/>
+      <c r="A210" s="89"/>
+      <c r="B210" s="119"/>
+      <c r="C210" s="116"/>
       <c r="D210" s="14">
         <f>1+D209</f>
         <v>2</v>
@@ -8386,9 +8386,9 @@
       <c r="O210" s="8"/>
     </row>
     <row r="211" spans="1:15" ht="21" customHeight="1">
-      <c r="A211" s="110"/>
-      <c r="B211" s="81"/>
-      <c r="C211" s="78"/>
+      <c r="A211" s="89"/>
+      <c r="B211" s="119"/>
+      <c r="C211" s="116"/>
       <c r="D211" s="14">
         <f t="shared" ref="D211:D224" si="10">1+D210</f>
         <v>3</v>
@@ -8410,9 +8410,9 @@
       <c r="O211" s="8"/>
     </row>
     <row r="212" spans="1:15" ht="21" customHeight="1">
-      <c r="A212" s="110"/>
-      <c r="B212" s="81"/>
-      <c r="C212" s="78"/>
+      <c r="A212" s="89"/>
+      <c r="B212" s="119"/>
+      <c r="C212" s="116"/>
       <c r="D212" s="14">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -8434,9 +8434,9 @@
       <c r="O212" s="8"/>
     </row>
     <row r="213" spans="1:15" ht="21" customHeight="1">
-      <c r="A213" s="110"/>
-      <c r="B213" s="81"/>
-      <c r="C213" s="78"/>
+      <c r="A213" s="89"/>
+      <c r="B213" s="119"/>
+      <c r="C213" s="116"/>
       <c r="D213" s="14">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -8458,9 +8458,9 @@
       <c r="O213" s="8"/>
     </row>
     <row r="214" spans="1:15" ht="21" customHeight="1">
-      <c r="A214" s="110"/>
-      <c r="B214" s="81"/>
-      <c r="C214" s="78"/>
+      <c r="A214" s="89"/>
+      <c r="B214" s="119"/>
+      <c r="C214" s="116"/>
       <c r="D214" s="14">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -8482,9 +8482,9 @@
       <c r="O214" s="8"/>
     </row>
     <row r="215" spans="1:15" ht="21" customHeight="1">
-      <c r="A215" s="110"/>
-      <c r="B215" s="81"/>
-      <c r="C215" s="78"/>
+      <c r="A215" s="89"/>
+      <c r="B215" s="119"/>
+      <c r="C215" s="116"/>
       <c r="D215" s="14">
         <f t="shared" si="10"/>
         <v>7</v>
@@ -8506,9 +8506,9 @@
       <c r="O215" s="8"/>
     </row>
     <row r="216" spans="1:15" ht="21" customHeight="1">
-      <c r="A216" s="110"/>
-      <c r="B216" s="81"/>
-      <c r="C216" s="78"/>
+      <c r="A216" s="89"/>
+      <c r="B216" s="119"/>
+      <c r="C216" s="116"/>
       <c r="D216" s="14">
         <f t="shared" si="10"/>
         <v>8</v>
@@ -8530,9 +8530,9 @@
       <c r="O216" s="8"/>
     </row>
     <row r="217" spans="1:15" ht="21" customHeight="1">
-      <c r="A217" s="110"/>
-      <c r="B217" s="81"/>
-      <c r="C217" s="78"/>
+      <c r="A217" s="89"/>
+      <c r="B217" s="119"/>
+      <c r="C217" s="116"/>
       <c r="D217" s="14">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -8554,9 +8554,9 @@
       <c r="O217" s="8"/>
     </row>
     <row r="218" spans="1:15" ht="21" customHeight="1">
-      <c r="A218" s="110"/>
-      <c r="B218" s="81"/>
-      <c r="C218" s="78"/>
+      <c r="A218" s="89"/>
+      <c r="B218" s="119"/>
+      <c r="C218" s="116"/>
       <c r="D218" s="14">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -8578,9 +8578,9 @@
       <c r="O218" s="8"/>
     </row>
     <row r="219" spans="1:15" ht="21" customHeight="1">
-      <c r="A219" s="110"/>
-      <c r="B219" s="81"/>
-      <c r="C219" s="78"/>
+      <c r="A219" s="89"/>
+      <c r="B219" s="119"/>
+      <c r="C219" s="116"/>
       <c r="D219" s="14">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -8602,9 +8602,9 @@
       <c r="O219" s="8"/>
     </row>
     <row r="220" spans="1:15" ht="21" customHeight="1">
-      <c r="A220" s="110"/>
-      <c r="B220" s="81"/>
-      <c r="C220" s="78"/>
+      <c r="A220" s="89"/>
+      <c r="B220" s="119"/>
+      <c r="C220" s="116"/>
       <c r="D220" s="14">
         <f t="shared" si="10"/>
         <v>12</v>
@@ -8626,9 +8626,9 @@
       <c r="O220" s="8"/>
     </row>
     <row r="221" spans="1:15" ht="21" customHeight="1">
-      <c r="A221" s="110"/>
-      <c r="B221" s="81"/>
-      <c r="C221" s="78"/>
+      <c r="A221" s="89"/>
+      <c r="B221" s="119"/>
+      <c r="C221" s="116"/>
       <c r="D221" s="14">
         <f t="shared" si="10"/>
         <v>13</v>
@@ -8650,9 +8650,9 @@
       <c r="O221" s="8"/>
     </row>
     <row r="222" spans="1:15" ht="21" customHeight="1">
-      <c r="A222" s="110"/>
-      <c r="B222" s="81"/>
-      <c r="C222" s="78"/>
+      <c r="A222" s="89"/>
+      <c r="B222" s="119"/>
+      <c r="C222" s="116"/>
       <c r="D222" s="14">
         <f t="shared" si="10"/>
         <v>14</v>
@@ -8674,9 +8674,9 @@
       <c r="O222" s="8"/>
     </row>
     <row r="223" spans="1:15" ht="21" customHeight="1">
-      <c r="A223" s="110"/>
-      <c r="B223" s="81"/>
-      <c r="C223" s="78"/>
+      <c r="A223" s="89"/>
+      <c r="B223" s="119"/>
+      <c r="C223" s="116"/>
       <c r="D223" s="14">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -8698,9 +8698,9 @@
       <c r="O223" s="8"/>
     </row>
     <row r="224" spans="1:15" ht="21" customHeight="1">
-      <c r="A224" s="110"/>
-      <c r="B224" s="82"/>
-      <c r="C224" s="79"/>
+      <c r="A224" s="89"/>
+      <c r="B224" s="120"/>
+      <c r="C224" s="117"/>
       <c r="D224" s="14">
         <f t="shared" si="10"/>
         <v>16</v>
@@ -8722,7 +8722,7 @@
       <c r="O224" s="8"/>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="110"/>
+      <c r="A225" s="89"/>
       <c r="B225" s="46"/>
       <c r="C225" s="39"/>
       <c r="D225" s="14"/>
@@ -8739,7 +8739,7 @@
       <c r="O225" s="8"/>
     </row>
     <row r="226" spans="1:15">
-      <c r="A226" s="110"/>
+      <c r="A226" s="89"/>
       <c r="B226" s="46"/>
       <c r="C226" s="39"/>
       <c r="D226" s="14"/>
@@ -8756,12 +8756,12 @@
       <c r="O226" s="8"/>
     </row>
     <row r="227" spans="1:15" ht="21" customHeight="1">
-      <c r="A227" s="110"/>
-      <c r="B227" s="80">
+      <c r="A227" s="89"/>
+      <c r="B227" s="118">
         <f>+B208+1</f>
         <v>25</v>
       </c>
-      <c r="C227" s="77" t="s">
+      <c r="C227" s="115" t="s">
         <v>28</v>
       </c>
       <c r="D227" s="14"/>
@@ -8794,9 +8794,9 @@
       <c r="O227" s="8"/>
     </row>
     <row r="228" spans="1:15" ht="21" customHeight="1">
-      <c r="A228" s="110"/>
-      <c r="B228" s="81"/>
-      <c r="C228" s="78"/>
+      <c r="A228" s="89"/>
+      <c r="B228" s="119"/>
+      <c r="C228" s="116"/>
       <c r="D228" s="14">
         <v>1</v>
       </c>
@@ -8817,9 +8817,9 @@
       <c r="O228" s="8"/>
     </row>
     <row r="229" spans="1:15" ht="21" customHeight="1">
-      <c r="A229" s="110"/>
-      <c r="B229" s="81"/>
-      <c r="C229" s="78"/>
+      <c r="A229" s="89"/>
+      <c r="B229" s="119"/>
+      <c r="C229" s="116"/>
       <c r="D229" s="14">
         <f>1+D228</f>
         <v>2</v>
@@ -8841,9 +8841,9 @@
       <c r="O229" s="8"/>
     </row>
     <row r="230" spans="1:15" ht="21" customHeight="1">
-      <c r="A230" s="110"/>
-      <c r="B230" s="81"/>
-      <c r="C230" s="78"/>
+      <c r="A230" s="89"/>
+      <c r="B230" s="119"/>
+      <c r="C230" s="116"/>
       <c r="D230" s="14">
         <f>1+D229</f>
         <v>3</v>
@@ -8865,9 +8865,9 @@
       <c r="O230" s="8"/>
     </row>
     <row r="231" spans="1:15" ht="21" customHeight="1">
-      <c r="A231" s="110"/>
-      <c r="B231" s="81"/>
-      <c r="C231" s="78"/>
+      <c r="A231" s="89"/>
+      <c r="B231" s="119"/>
+      <c r="C231" s="116"/>
       <c r="D231" s="14">
         <f>1+D230</f>
         <v>4</v>
@@ -8889,9 +8889,9 @@
       <c r="O231" s="8"/>
     </row>
     <row r="232" spans="1:15" ht="21" customHeight="1">
-      <c r="A232" s="110"/>
-      <c r="B232" s="82"/>
-      <c r="C232" s="79"/>
+      <c r="A232" s="89"/>
+      <c r="B232" s="120"/>
+      <c r="C232" s="117"/>
       <c r="D232" s="14">
         <f>1+D231</f>
         <v>5</v>
@@ -8913,7 +8913,7 @@
       <c r="O232" s="8"/>
     </row>
     <row r="233" spans="1:15">
-      <c r="A233" s="110"/>
+      <c r="A233" s="89"/>
       <c r="B233" s="46"/>
       <c r="C233" s="39"/>
       <c r="D233" s="14"/>
@@ -8930,12 +8930,12 @@
       <c r="O233" s="8"/>
     </row>
     <row r="234" spans="1:15" ht="21" customHeight="1">
-      <c r="A234" s="110"/>
-      <c r="B234" s="80">
+      <c r="A234" s="89"/>
+      <c r="B234" s="118">
         <f>+B227+1</f>
         <v>26</v>
       </c>
-      <c r="C234" s="77" t="s">
+      <c r="C234" s="115" t="s">
         <v>30</v>
       </c>
       <c r="D234" s="14"/>
@@ -8968,9 +8968,9 @@
       <c r="O234" s="8"/>
     </row>
     <row r="235" spans="1:15" ht="21" customHeight="1">
-      <c r="A235" s="110"/>
-      <c r="B235" s="81"/>
-      <c r="C235" s="78"/>
+      <c r="A235" s="89"/>
+      <c r="B235" s="119"/>
+      <c r="C235" s="116"/>
       <c r="D235" s="14">
         <v>1</v>
       </c>
@@ -8991,9 +8991,9 @@
       <c r="O235" s="8"/>
     </row>
     <row r="236" spans="1:15" ht="21" customHeight="1">
-      <c r="A236" s="110"/>
-      <c r="B236" s="81"/>
-      <c r="C236" s="78"/>
+      <c r="A236" s="89"/>
+      <c r="B236" s="119"/>
+      <c r="C236" s="116"/>
       <c r="D236" s="14">
         <f t="shared" ref="D236:D241" si="11">1+D235</f>
         <v>2</v>
@@ -9013,9 +9013,9 @@
       <c r="O236" s="8"/>
     </row>
     <row r="237" spans="1:15" ht="21" customHeight="1">
-      <c r="A237" s="110"/>
-      <c r="B237" s="81"/>
-      <c r="C237" s="78"/>
+      <c r="A237" s="89"/>
+      <c r="B237" s="119"/>
+      <c r="C237" s="116"/>
       <c r="D237" s="14">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -9035,9 +9035,9 @@
       <c r="O237" s="8"/>
     </row>
     <row r="238" spans="1:15" ht="21" customHeight="1">
-      <c r="A238" s="110"/>
-      <c r="B238" s="81"/>
-      <c r="C238" s="78"/>
+      <c r="A238" s="89"/>
+      <c r="B238" s="119"/>
+      <c r="C238" s="116"/>
       <c r="D238" s="14">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -9059,9 +9059,9 @@
       <c r="O238" s="8"/>
     </row>
     <row r="239" spans="1:15" ht="21" customHeight="1">
-      <c r="A239" s="110"/>
-      <c r="B239" s="81"/>
-      <c r="C239" s="78"/>
+      <c r="A239" s="89"/>
+      <c r="B239" s="119"/>
+      <c r="C239" s="116"/>
       <c r="D239" s="14">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -9083,9 +9083,9 @@
       <c r="O239" s="8"/>
     </row>
     <row r="240" spans="1:15" ht="21" customHeight="1">
-      <c r="A240" s="110"/>
-      <c r="B240" s="81"/>
-      <c r="C240" s="78"/>
+      <c r="A240" s="89"/>
+      <c r="B240" s="119"/>
+      <c r="C240" s="116"/>
       <c r="D240" s="14">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -9107,9 +9107,9 @@
       <c r="O240" s="8"/>
     </row>
     <row r="241" spans="1:15" ht="21" customHeight="1">
-      <c r="A241" s="110"/>
-      <c r="B241" s="82"/>
-      <c r="C241" s="79"/>
+      <c r="A241" s="89"/>
+      <c r="B241" s="120"/>
+      <c r="C241" s="117"/>
       <c r="D241" s="14">
         <f t="shared" si="11"/>
         <v>7</v>
@@ -9131,7 +9131,7 @@
       <c r="O241" s="8"/>
     </row>
     <row r="242" spans="1:15">
-      <c r="A242" s="110"/>
+      <c r="A242" s="89"/>
       <c r="B242" s="46"/>
       <c r="C242" s="39"/>
       <c r="D242" s="14"/>
@@ -9148,12 +9148,12 @@
       <c r="O242" s="8"/>
     </row>
     <row r="243" spans="1:15" ht="21" customHeight="1">
-      <c r="A243" s="110"/>
-      <c r="B243" s="80">
+      <c r="A243" s="89"/>
+      <c r="B243" s="118">
         <f>+B234+1</f>
         <v>27</v>
       </c>
-      <c r="C243" s="77" t="s">
+      <c r="C243" s="115" t="s">
         <v>26</v>
       </c>
       <c r="D243" s="14"/>
@@ -9186,9 +9186,9 @@
       <c r="O243" s="8"/>
     </row>
     <row r="244" spans="1:15" ht="21" customHeight="1">
-      <c r="A244" s="110"/>
-      <c r="B244" s="81"/>
-      <c r="C244" s="78"/>
+      <c r="A244" s="89"/>
+      <c r="B244" s="119"/>
+      <c r="C244" s="116"/>
       <c r="D244" s="14">
         <v>1</v>
       </c>
@@ -9209,9 +9209,9 @@
       <c r="O244" s="8"/>
     </row>
     <row r="245" spans="1:15" ht="21" customHeight="1">
-      <c r="A245" s="110"/>
-      <c r="B245" s="81"/>
-      <c r="C245" s="78"/>
+      <c r="A245" s="89"/>
+      <c r="B245" s="119"/>
+      <c r="C245" s="116"/>
       <c r="D245" s="14">
         <f>1+D244</f>
         <v>2</v>
@@ -9233,9 +9233,9 @@
       <c r="O245" s="8"/>
     </row>
     <row r="246" spans="1:15" ht="21" customHeight="1">
-      <c r="A246" s="110"/>
-      <c r="B246" s="82"/>
-      <c r="C246" s="79"/>
+      <c r="A246" s="89"/>
+      <c r="B246" s="120"/>
+      <c r="C246" s="117"/>
       <c r="D246" s="14">
         <f>1+D245</f>
         <v>3</v>
@@ -9257,7 +9257,7 @@
       <c r="O246" s="8"/>
     </row>
     <row r="247" spans="1:15">
-      <c r="A247" s="111"/>
+      <c r="A247" s="90"/>
       <c r="B247" s="46"/>
       <c r="C247" s="39"/>
       <c r="D247" s="14"/>
@@ -9274,14 +9274,14 @@
       <c r="O247" s="8"/>
     </row>
     <row r="248" spans="1:15" ht="21" customHeight="1">
-      <c r="A248" s="112" t="s">
+      <c r="A248" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="B248" s="74">
+      <c r="B248" s="121">
         <f>+B243+1</f>
         <v>28</v>
       </c>
-      <c r="C248" s="71" t="s">
+      <c r="C248" s="124" t="s">
         <v>32</v>
       </c>
       <c r="D248" s="15">
@@ -9316,9 +9316,9 @@
       <c r="O248" s="26"/>
     </row>
     <row r="249" spans="1:15" ht="21" customHeight="1">
-      <c r="A249" s="113"/>
-      <c r="B249" s="75"/>
-      <c r="C249" s="72"/>
+      <c r="A249" s="92"/>
+      <c r="B249" s="122"/>
+      <c r="C249" s="126"/>
       <c r="D249" s="15">
         <f>1+D248</f>
         <v>2</v>
@@ -9340,9 +9340,9 @@
       <c r="O249" s="26"/>
     </row>
     <row r="250" spans="1:15" ht="21" customHeight="1">
-      <c r="A250" s="113"/>
-      <c r="B250" s="75"/>
-      <c r="C250" s="72"/>
+      <c r="A250" s="92"/>
+      <c r="B250" s="122"/>
+      <c r="C250" s="126"/>
       <c r="D250" s="15">
         <f t="shared" ref="D250:D256" si="12">1+D249</f>
         <v>3</v>
@@ -9364,9 +9364,9 @@
       <c r="O250" s="26"/>
     </row>
     <row r="251" spans="1:15" ht="21" customHeight="1">
-      <c r="A251" s="113"/>
-      <c r="B251" s="75"/>
-      <c r="C251" s="72"/>
+      <c r="A251" s="92"/>
+      <c r="B251" s="122"/>
+      <c r="C251" s="126"/>
       <c r="D251" s="15">
         <f t="shared" si="12"/>
         <v>4</v>
@@ -9388,9 +9388,9 @@
       <c r="O251" s="26"/>
     </row>
     <row r="252" spans="1:15" ht="21" customHeight="1">
-      <c r="A252" s="113"/>
-      <c r="B252" s="75"/>
-      <c r="C252" s="72"/>
+      <c r="A252" s="92"/>
+      <c r="B252" s="122"/>
+      <c r="C252" s="126"/>
       <c r="D252" s="15">
         <f t="shared" si="12"/>
         <v>5</v>
@@ -9412,9 +9412,9 @@
       <c r="O252" s="26"/>
     </row>
     <row r="253" spans="1:15" ht="21" customHeight="1">
-      <c r="A253" s="113"/>
-      <c r="B253" s="75"/>
-      <c r="C253" s="72"/>
+      <c r="A253" s="92"/>
+      <c r="B253" s="122"/>
+      <c r="C253" s="126"/>
       <c r="D253" s="15">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -9436,9 +9436,9 @@
       <c r="O253" s="26"/>
     </row>
     <row r="254" spans="1:15" ht="21" customHeight="1">
-      <c r="A254" s="113"/>
-      <c r="B254" s="75"/>
-      <c r="C254" s="72"/>
+      <c r="A254" s="92"/>
+      <c r="B254" s="122"/>
+      <c r="C254" s="126"/>
       <c r="D254" s="15">
         <f t="shared" si="12"/>
         <v>7</v>
@@ -9460,9 +9460,9 @@
       <c r="O254" s="26"/>
     </row>
     <row r="255" spans="1:15" ht="21" customHeight="1">
-      <c r="A255" s="113"/>
-      <c r="B255" s="75"/>
-      <c r="C255" s="72"/>
+      <c r="A255" s="92"/>
+      <c r="B255" s="122"/>
+      <c r="C255" s="126"/>
       <c r="D255" s="15">
         <f t="shared" si="12"/>
         <v>8</v>
@@ -9484,9 +9484,9 @@
       <c r="O255" s="26"/>
     </row>
     <row r="256" spans="1:15" ht="21" customHeight="1">
-      <c r="A256" s="113"/>
-      <c r="B256" s="76"/>
-      <c r="C256" s="73"/>
+      <c r="A256" s="92"/>
+      <c r="B256" s="123"/>
+      <c r="C256" s="125"/>
       <c r="D256" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
@@ -9508,7 +9508,7 @@
       <c r="O256" s="26"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="113"/>
+      <c r="A257" s="92"/>
       <c r="B257" s="47"/>
       <c r="C257" s="40"/>
       <c r="D257" s="41"/>
@@ -9525,12 +9525,12 @@
       <c r="O257" s="26"/>
     </row>
     <row r="258" spans="1:15" ht="21" customHeight="1">
-      <c r="A258" s="113"/>
-      <c r="B258" s="74">
+      <c r="A258" s="92"/>
+      <c r="B258" s="121">
         <f>+B248+1</f>
         <v>29</v>
       </c>
-      <c r="C258" s="71" t="s">
+      <c r="C258" s="124" t="s">
         <v>670</v>
       </c>
       <c r="D258" s="41"/>
@@ -9563,9 +9563,9 @@
       <c r="O258" s="26"/>
     </row>
     <row r="259" spans="1:15" ht="21" customHeight="1">
-      <c r="A259" s="113"/>
-      <c r="B259" s="76"/>
-      <c r="C259" s="73"/>
+      <c r="A259" s="92"/>
+      <c r="B259" s="123"/>
+      <c r="C259" s="125"/>
       <c r="D259" s="41">
         <v>1</v>
       </c>
@@ -9586,7 +9586,7 @@
       <c r="O259" s="26"/>
     </row>
     <row r="260" spans="1:15">
-      <c r="A260" s="113"/>
+      <c r="A260" s="92"/>
       <c r="B260" s="47"/>
       <c r="C260" s="40"/>
       <c r="D260" s="41"/>
@@ -9603,12 +9603,12 @@
       <c r="O260" s="26"/>
     </row>
     <row r="261" spans="1:15" ht="21" customHeight="1">
-      <c r="A261" s="113"/>
-      <c r="B261" s="74">
+      <c r="A261" s="92"/>
+      <c r="B261" s="121">
         <f>+B258+1</f>
         <v>30</v>
       </c>
-      <c r="C261" s="71" t="s">
+      <c r="C261" s="124" t="s">
         <v>3</v>
       </c>
       <c r="D261" s="41"/>
@@ -9641,9 +9641,9 @@
       <c r="O261" s="26"/>
     </row>
     <row r="262" spans="1:15" ht="21" customHeight="1">
-      <c r="A262" s="113"/>
-      <c r="B262" s="75"/>
-      <c r="C262" s="72"/>
+      <c r="A262" s="92"/>
+      <c r="B262" s="122"/>
+      <c r="C262" s="126"/>
       <c r="D262" s="15">
         <v>1</v>
       </c>
@@ -9664,9 +9664,9 @@
       <c r="O262" s="26"/>
     </row>
     <row r="263" spans="1:15" ht="21" customHeight="1">
-      <c r="A263" s="113"/>
-      <c r="B263" s="75"/>
-      <c r="C263" s="72"/>
+      <c r="A263" s="92"/>
+      <c r="B263" s="122"/>
+      <c r="C263" s="126"/>
       <c r="D263" s="15">
         <f t="shared" ref="D263:D268" si="13">1+D262</f>
         <v>2</v>
@@ -9688,9 +9688,9 @@
       <c r="O263" s="26"/>
     </row>
     <row r="264" spans="1:15" ht="21" customHeight="1">
-      <c r="A264" s="113"/>
-      <c r="B264" s="75"/>
-      <c r="C264" s="72"/>
+      <c r="A264" s="92"/>
+      <c r="B264" s="122"/>
+      <c r="C264" s="126"/>
       <c r="D264" s="15">
         <f t="shared" si="13"/>
         <v>3</v>
@@ -9712,9 +9712,9 @@
       <c r="O264" s="26"/>
     </row>
     <row r="265" spans="1:15" ht="21" customHeight="1">
-      <c r="A265" s="113"/>
-      <c r="B265" s="75"/>
-      <c r="C265" s="72"/>
+      <c r="A265" s="92"/>
+      <c r="B265" s="122"/>
+      <c r="C265" s="126"/>
       <c r="D265" s="15">
         <f t="shared" si="13"/>
         <v>4</v>
@@ -9736,9 +9736,9 @@
       <c r="O265" s="26"/>
     </row>
     <row r="266" spans="1:15" ht="21" customHeight="1">
-      <c r="A266" s="113"/>
-      <c r="B266" s="75"/>
-      <c r="C266" s="72"/>
+      <c r="A266" s="92"/>
+      <c r="B266" s="122"/>
+      <c r="C266" s="126"/>
       <c r="D266" s="15">
         <f t="shared" si="13"/>
         <v>5</v>
@@ -9760,9 +9760,9 @@
       <c r="O266" s="26"/>
     </row>
     <row r="267" spans="1:15" ht="21" customHeight="1">
-      <c r="A267" s="113"/>
-      <c r="B267" s="75"/>
-      <c r="C267" s="72"/>
+      <c r="A267" s="92"/>
+      <c r="B267" s="122"/>
+      <c r="C267" s="126"/>
       <c r="D267" s="15">
         <f t="shared" si="13"/>
         <v>6</v>
@@ -9784,9 +9784,9 @@
       <c r="O267" s="26"/>
     </row>
     <row r="268" spans="1:15" ht="21" customHeight="1">
-      <c r="A268" s="113"/>
-      <c r="B268" s="76"/>
-      <c r="C268" s="73"/>
+      <c r="A268" s="92"/>
+      <c r="B268" s="123"/>
+      <c r="C268" s="125"/>
       <c r="D268" s="15">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -9808,7 +9808,7 @@
       <c r="O268" s="26"/>
     </row>
     <row r="269" spans="1:15">
-      <c r="A269" s="113"/>
+      <c r="A269" s="92"/>
       <c r="B269" s="47"/>
       <c r="C269" s="40"/>
       <c r="D269" s="41"/>
@@ -9825,12 +9825,12 @@
       <c r="O269" s="26"/>
     </row>
     <row r="270" spans="1:15" ht="21" customHeight="1">
-      <c r="A270" s="113"/>
-      <c r="B270" s="74">
+      <c r="A270" s="92"/>
+      <c r="B270" s="121">
         <f>+B261+1</f>
         <v>31</v>
       </c>
-      <c r="C270" s="71" t="s">
+      <c r="C270" s="124" t="s">
         <v>5</v>
       </c>
       <c r="D270" s="41"/>
@@ -9863,9 +9863,9 @@
       <c r="O270" s="26"/>
     </row>
     <row r="271" spans="1:15" ht="21" customHeight="1">
-      <c r="A271" s="113"/>
-      <c r="B271" s="75"/>
-      <c r="C271" s="72"/>
+      <c r="A271" s="92"/>
+      <c r="B271" s="122"/>
+      <c r="C271" s="126"/>
       <c r="D271" s="15">
         <v>1</v>
       </c>
@@ -9886,9 +9886,9 @@
       <c r="O271" s="26"/>
     </row>
     <row r="272" spans="1:15" ht="21" customHeight="1">
-      <c r="A272" s="113"/>
-      <c r="B272" s="75"/>
-      <c r="C272" s="72"/>
+      <c r="A272" s="92"/>
+      <c r="B272" s="122"/>
+      <c r="C272" s="126"/>
       <c r="D272" s="15">
         <f>1+D271</f>
         <v>2</v>
@@ -9910,9 +9910,9 @@
       <c r="O272" s="26"/>
     </row>
     <row r="273" spans="1:15" ht="21" customHeight="1">
-      <c r="A273" s="113"/>
-      <c r="B273" s="75"/>
-      <c r="C273" s="72"/>
+      <c r="A273" s="92"/>
+      <c r="B273" s="122"/>
+      <c r="C273" s="126"/>
       <c r="D273" s="15">
         <f>1+D272</f>
         <v>3</v>
@@ -9934,9 +9934,9 @@
       <c r="O273" s="26"/>
     </row>
     <row r="274" spans="1:15" ht="21" customHeight="1">
-      <c r="A274" s="113"/>
-      <c r="B274" s="75"/>
-      <c r="C274" s="72"/>
+      <c r="A274" s="92"/>
+      <c r="B274" s="122"/>
+      <c r="C274" s="126"/>
       <c r="D274" s="15">
         <f>1+D273</f>
         <v>4</v>
@@ -9958,9 +9958,9 @@
       <c r="O274" s="26"/>
     </row>
     <row r="275" spans="1:15" ht="21" customHeight="1">
-      <c r="A275" s="113"/>
-      <c r="B275" s="76"/>
-      <c r="C275" s="73"/>
+      <c r="A275" s="92"/>
+      <c r="B275" s="123"/>
+      <c r="C275" s="125"/>
       <c r="D275" s="15">
         <f>1+D274</f>
         <v>5</v>
@@ -9982,7 +9982,7 @@
       <c r="O275" s="26"/>
     </row>
     <row r="276" spans="1:15">
-      <c r="A276" s="113"/>
+      <c r="A276" s="92"/>
       <c r="B276" s="47"/>
       <c r="C276" s="40"/>
       <c r="D276" s="41"/>
@@ -9999,12 +9999,12 @@
       <c r="O276" s="26"/>
     </row>
     <row r="277" spans="1:15" ht="21" customHeight="1">
-      <c r="A277" s="113"/>
-      <c r="B277" s="74">
+      <c r="A277" s="92"/>
+      <c r="B277" s="121">
         <f>+B270+1</f>
         <v>32</v>
       </c>
-      <c r="C277" s="71" t="s">
+      <c r="C277" s="124" t="s">
         <v>35</v>
       </c>
       <c r="D277" s="41"/>
@@ -10037,9 +10037,9 @@
       <c r="O277" s="26"/>
     </row>
     <row r="278" spans="1:15" ht="21" customHeight="1">
-      <c r="A278" s="113"/>
-      <c r="B278" s="75"/>
-      <c r="C278" s="72"/>
+      <c r="A278" s="92"/>
+      <c r="B278" s="122"/>
+      <c r="C278" s="126"/>
       <c r="D278" s="15">
         <v>1</v>
       </c>
@@ -10060,9 +10060,9 @@
       <c r="O278" s="26"/>
     </row>
     <row r="279" spans="1:15" ht="21" customHeight="1">
-      <c r="A279" s="113"/>
-      <c r="B279" s="75"/>
-      <c r="C279" s="72"/>
+      <c r="A279" s="92"/>
+      <c r="B279" s="122"/>
+      <c r="C279" s="126"/>
       <c r="D279" s="15">
         <f>1+D278</f>
         <v>2</v>
@@ -10084,9 +10084,9 @@
       <c r="O279" s="26"/>
     </row>
     <row r="280" spans="1:15" ht="21" customHeight="1">
-      <c r="A280" s="113"/>
-      <c r="B280" s="76"/>
-      <c r="C280" s="73"/>
+      <c r="A280" s="92"/>
+      <c r="B280" s="123"/>
+      <c r="C280" s="125"/>
       <c r="D280" s="15">
         <f>1+D279</f>
         <v>3</v>
@@ -10108,7 +10108,7 @@
       <c r="O280" s="26"/>
     </row>
     <row r="281" spans="1:15">
-      <c r="A281" s="113"/>
+      <c r="A281" s="92"/>
       <c r="B281" s="47"/>
       <c r="C281" s="40"/>
       <c r="D281" s="41"/>
@@ -10125,12 +10125,12 @@
       <c r="O281" s="26"/>
     </row>
     <row r="282" spans="1:15" ht="21" customHeight="1">
-      <c r="A282" s="113"/>
-      <c r="B282" s="74">
+      <c r="A282" s="92"/>
+      <c r="B282" s="121">
         <f>+B277+1</f>
         <v>33</v>
       </c>
-      <c r="C282" s="71" t="s">
+      <c r="C282" s="124" t="s">
         <v>36</v>
       </c>
       <c r="D282" s="41"/>
@@ -10163,9 +10163,9 @@
       <c r="O282" s="26"/>
     </row>
     <row r="283" spans="1:15" ht="21" customHeight="1">
-      <c r="A283" s="113"/>
-      <c r="B283" s="75"/>
-      <c r="C283" s="72"/>
+      <c r="A283" s="92"/>
+      <c r="B283" s="122"/>
+      <c r="C283" s="126"/>
       <c r="D283" s="15">
         <v>1</v>
       </c>
@@ -10186,9 +10186,9 @@
       <c r="O283" s="27"/>
     </row>
     <row r="284" spans="1:15" ht="21" customHeight="1">
-      <c r="A284" s="113"/>
-      <c r="B284" s="75"/>
-      <c r="C284" s="72"/>
+      <c r="A284" s="92"/>
+      <c r="B284" s="122"/>
+      <c r="C284" s="126"/>
       <c r="D284" s="15">
         <f>1+D283</f>
         <v>2</v>
@@ -10210,9 +10210,9 @@
       <c r="O284" s="27"/>
     </row>
     <row r="285" spans="1:15" ht="21" customHeight="1">
-      <c r="A285" s="113"/>
-      <c r="B285" s="75"/>
-      <c r="C285" s="72"/>
+      <c r="A285" s="92"/>
+      <c r="B285" s="122"/>
+      <c r="C285" s="126"/>
       <c r="D285" s="15">
         <f t="shared" ref="D285:D294" si="14">1+D284</f>
         <v>3</v>
@@ -10234,9 +10234,9 @@
       <c r="O285" s="27"/>
     </row>
     <row r="286" spans="1:15" ht="21" customHeight="1">
-      <c r="A286" s="113"/>
-      <c r="B286" s="75"/>
-      <c r="C286" s="72"/>
+      <c r="A286" s="92"/>
+      <c r="B286" s="122"/>
+      <c r="C286" s="126"/>
       <c r="D286" s="15">
         <f t="shared" si="14"/>
         <v>4</v>
@@ -10258,9 +10258,9 @@
       <c r="O286" s="27"/>
     </row>
     <row r="287" spans="1:15" ht="21" customHeight="1">
-      <c r="A287" s="113"/>
-      <c r="B287" s="75"/>
-      <c r="C287" s="72"/>
+      <c r="A287" s="92"/>
+      <c r="B287" s="122"/>
+      <c r="C287" s="126"/>
       <c r="D287" s="15">
         <f t="shared" si="14"/>
         <v>5</v>
@@ -10282,9 +10282,9 @@
       <c r="O287" s="27"/>
     </row>
     <row r="288" spans="1:15" ht="21" customHeight="1">
-      <c r="A288" s="113"/>
-      <c r="B288" s="75"/>
-      <c r="C288" s="72"/>
+      <c r="A288" s="92"/>
+      <c r="B288" s="122"/>
+      <c r="C288" s="126"/>
       <c r="D288" s="15">
         <f t="shared" si="14"/>
         <v>6</v>
@@ -10306,9 +10306,9 @@
       <c r="O288" s="27"/>
     </row>
     <row r="289" spans="1:15" ht="21" customHeight="1">
-      <c r="A289" s="113"/>
-      <c r="B289" s="75"/>
-      <c r="C289" s="72"/>
+      <c r="A289" s="92"/>
+      <c r="B289" s="122"/>
+      <c r="C289" s="126"/>
       <c r="D289" s="15">
         <f t="shared" si="14"/>
         <v>7</v>
@@ -10330,9 +10330,9 @@
       <c r="O289" s="27"/>
     </row>
     <row r="290" spans="1:15" ht="21" customHeight="1">
-      <c r="A290" s="113"/>
-      <c r="B290" s="75"/>
-      <c r="C290" s="72"/>
+      <c r="A290" s="92"/>
+      <c r="B290" s="122"/>
+      <c r="C290" s="126"/>
       <c r="D290" s="15">
         <f t="shared" si="14"/>
         <v>8</v>
@@ -10354,9 +10354,9 @@
       <c r="O290" s="27"/>
     </row>
     <row r="291" spans="1:15" ht="21" customHeight="1">
-      <c r="A291" s="113"/>
-      <c r="B291" s="75"/>
-      <c r="C291" s="72"/>
+      <c r="A291" s="92"/>
+      <c r="B291" s="122"/>
+      <c r="C291" s="126"/>
       <c r="D291" s="15">
         <f t="shared" si="14"/>
         <v>9</v>
@@ -10378,9 +10378,9 @@
       <c r="O291" s="27"/>
     </row>
     <row r="292" spans="1:15" ht="21" customHeight="1">
-      <c r="A292" s="113"/>
-      <c r="B292" s="75"/>
-      <c r="C292" s="72"/>
+      <c r="A292" s="92"/>
+      <c r="B292" s="122"/>
+      <c r="C292" s="126"/>
       <c r="D292" s="15">
         <f t="shared" si="14"/>
         <v>10</v>
@@ -10402,9 +10402,9 @@
       <c r="O292" s="27"/>
     </row>
     <row r="293" spans="1:15" ht="21" customHeight="1">
-      <c r="A293" s="113"/>
-      <c r="B293" s="75"/>
-      <c r="C293" s="72"/>
+      <c r="A293" s="92"/>
+      <c r="B293" s="122"/>
+      <c r="C293" s="126"/>
       <c r="D293" s="15">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -10426,9 +10426,9 @@
       <c r="O293" s="27"/>
     </row>
     <row r="294" spans="1:15" ht="21" customHeight="1">
-      <c r="A294" s="114"/>
-      <c r="B294" s="76"/>
-      <c r="C294" s="73"/>
+      <c r="A294" s="93"/>
+      <c r="B294" s="123"/>
+      <c r="C294" s="125"/>
       <c r="D294" s="15">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -10452,68 +10452,6 @@
   </sheetData>
   <autoFilter ref="A1:M294" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="78">
-    <mergeCell ref="L2:L23"/>
-    <mergeCell ref="M2:M23"/>
-    <mergeCell ref="G2:G23"/>
-    <mergeCell ref="H2:H23"/>
-    <mergeCell ref="I2:I23"/>
-    <mergeCell ref="J2:J23"/>
-    <mergeCell ref="K2:K23"/>
-    <mergeCell ref="A2:A64"/>
-    <mergeCell ref="A66:A128"/>
-    <mergeCell ref="A130:A184"/>
-    <mergeCell ref="A185:A247"/>
-    <mergeCell ref="A248:A294"/>
-    <mergeCell ref="C2:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="C66:C80"/>
-    <mergeCell ref="B66:B80"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C93:C101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="C103:C108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="C116:C128"/>
-    <mergeCell ref="B116:B128"/>
-    <mergeCell ref="C130:C136"/>
-    <mergeCell ref="B130:B136"/>
-    <mergeCell ref="C138:C149"/>
-    <mergeCell ref="B138:B149"/>
-    <mergeCell ref="C151:C155"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C160:C168"/>
-    <mergeCell ref="B160:B168"/>
-    <mergeCell ref="C170:C183"/>
-    <mergeCell ref="B170:B183"/>
-    <mergeCell ref="C185:C190"/>
-    <mergeCell ref="B185:B190"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C195:C206"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B248:B256"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="C208:C224"/>
-    <mergeCell ref="B208:B224"/>
-    <mergeCell ref="C227:C232"/>
-    <mergeCell ref="B227:B232"/>
-    <mergeCell ref="C234:C241"/>
-    <mergeCell ref="B234:B241"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B2:B23"/>
     <mergeCell ref="C282:C294"/>
@@ -10530,6 +10468,68 @@
     <mergeCell ref="C243:C246"/>
     <mergeCell ref="B243:B246"/>
     <mergeCell ref="C248:C256"/>
+    <mergeCell ref="B248:B256"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C208:C224"/>
+    <mergeCell ref="B208:B224"/>
+    <mergeCell ref="C227:C232"/>
+    <mergeCell ref="B227:B232"/>
+    <mergeCell ref="C234:C241"/>
+    <mergeCell ref="B234:B241"/>
+    <mergeCell ref="C185:C190"/>
+    <mergeCell ref="B185:B190"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C195:C206"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C160:C168"/>
+    <mergeCell ref="B160:B168"/>
+    <mergeCell ref="C170:C183"/>
+    <mergeCell ref="B170:B183"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="C138:C149"/>
+    <mergeCell ref="B138:B149"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="C116:C128"/>
+    <mergeCell ref="B116:B128"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C93:C101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="C66:C80"/>
+    <mergeCell ref="B66:B80"/>
+    <mergeCell ref="C2:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="A2:A64"/>
+    <mergeCell ref="A66:A128"/>
+    <mergeCell ref="A130:A184"/>
+    <mergeCell ref="A185:A247"/>
+    <mergeCell ref="A248:A294"/>
+    <mergeCell ref="L2:L23"/>
+    <mergeCell ref="M2:M23"/>
+    <mergeCell ref="G2:G23"/>
+    <mergeCell ref="H2:H23"/>
+    <mergeCell ref="I2:I23"/>
+    <mergeCell ref="J2:J23"/>
+    <mergeCell ref="K2:K23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E113" r:id="rId1" display="https://www.icbf.gov.co/regional-guaviare/unidad-local-miraflores" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10545,7 +10545,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -10572,7 +10572,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="132" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="57">
@@ -10581,15 +10581,15 @@
       <c r="C2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="137" t="s">
         <v>677</v>
       </c>
-      <c r="E2" s="136" t="s">
+      <c r="E2" s="127" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="135"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="57">
         <f>1+B2</f>
         <v>2</v>
@@ -10597,11 +10597,11 @@
       <c r="C3" s="58" t="s">
         <v>655</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="128"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="135"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="57">
         <f t="shared" ref="B4:B34" si="0">+B3+1</f>
         <v>3</v>
@@ -10609,11 +10609,11 @@
       <c r="C4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="137"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="128"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="135"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10621,11 +10621,11 @@
       <c r="C5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="137"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="128"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="135"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10633,11 +10633,11 @@
       <c r="C6" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="128"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="135"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="57">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10645,11 +10645,11 @@
       <c r="C7" s="58" t="s">
         <v>654</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="128"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="133" t="s">
         <v>651</v>
       </c>
       <c r="B8" s="59">
@@ -10659,15 +10659,15 @@
       <c r="C8" s="60" t="s">
         <v>656</v>
       </c>
-      <c r="D8" s="132" t="s">
+      <c r="D8" s="139" t="s">
         <v>678</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="128" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="128"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="59">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10675,11 +10675,11 @@
       <c r="C9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="128"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="128"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="59">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10687,11 +10687,11 @@
       <c r="C10" s="61" t="s">
         <v>657</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="137"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="128"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
-      <c r="A11" s="128"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="59">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10699,11 +10699,11 @@
       <c r="C11" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="137"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="128"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="128"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="59">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10711,11 +10711,11 @@
       <c r="C12" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="137"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="128"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="128"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="59">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -10723,11 +10723,11 @@
       <c r="C13" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="137"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="128"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="129"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="59">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10735,11 +10735,11 @@
       <c r="C14" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="137"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="128"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="133" t="s">
         <v>652</v>
       </c>
       <c r="B15" s="59">
@@ -10749,15 +10749,15 @@
       <c r="C15" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="132" t="s">
+      <c r="D15" s="139" t="s">
         <v>679</v>
       </c>
-      <c r="E15" s="137" t="s">
+      <c r="E15" s="128" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="128"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="59">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -10765,11 +10765,11 @@
       <c r="C16" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="137"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="128"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="128"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="59">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -10777,11 +10777,11 @@
       <c r="C17" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="137"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="128"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="128"/>
+      <c r="A18" s="134"/>
       <c r="B18" s="59">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -10789,11 +10789,11 @@
       <c r="C18" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="137"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="128"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="128"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="59">
         <f>+B18+1</f>
         <v>18</v>
@@ -10801,11 +10801,11 @@
       <c r="C19" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="137"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="128"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="128"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="59">
         <f t="shared" ref="B20:B22" si="1">+B19+1</f>
         <v>19</v>
@@ -10813,11 +10813,11 @@
       <c r="C20" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="137"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="128"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="129"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="59">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -10825,11 +10825,11 @@
       <c r="C21" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="134"/>
-      <c r="E21" s="138"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="136"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="127" t="s">
+      <c r="A22" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="59">
@@ -10839,15 +10839,15 @@
       <c r="C22" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="132" t="s">
+      <c r="D22" s="139" t="s">
         <v>680</v>
       </c>
-      <c r="E22" s="139" t="s">
+      <c r="E22" s="129" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1">
-      <c r="A23" s="128"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="59">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -10855,11 +10855,11 @@
       <c r="C23" s="63" t="s">
         <v>658</v>
       </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="130"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1">
-      <c r="A24" s="128"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="59">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -10867,11 +10867,11 @@
       <c r="C24" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="130"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1">
-      <c r="A25" s="128"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="59">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -10879,11 +10879,11 @@
       <c r="C25" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="130"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1">
-      <c r="A26" s="128"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="59">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -10891,11 +10891,11 @@
       <c r="C26" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="130"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1">
-      <c r="A27" s="128"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="59">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -10903,11 +10903,11 @@
       <c r="C27" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="130"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1">
-      <c r="A28" s="129"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="59">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -10915,11 +10915,11 @@
       <c r="C28" s="63" t="s">
         <v>659</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="131"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
-      <c r="A29" s="127" t="s">
+      <c r="A29" s="133" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="59">
@@ -10929,15 +10929,15 @@
       <c r="C29" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="132" t="s">
+      <c r="D29" s="139" t="s">
         <v>681</v>
       </c>
-      <c r="E29" s="136" t="s">
+      <c r="E29" s="127" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1">
-      <c r="A30" s="128"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="59">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -10945,11 +10945,11 @@
       <c r="C30" s="64" t="s">
         <v>670</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="137"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="128"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1">
-      <c r="A31" s="128"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="59">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -10957,11 +10957,11 @@
       <c r="C31" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="137"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="128"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1">
-      <c r="A32" s="128"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="59">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -10969,11 +10969,11 @@
       <c r="C32" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="137"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="128"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1">
-      <c r="A33" s="128"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="59">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -10981,11 +10981,11 @@
       <c r="C33" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="128"/>
-      <c r="E33" s="137"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="128"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1">
-      <c r="A34" s="129"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="59">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -10993,8 +10993,8 @@
       <c r="C34" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="129"/>
-      <c r="E34" s="137"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="128"/>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" s="59"/>

--- a/PMCGR/PMCGR_2018-2019/Prog.VideoConferenciasEnero.xlsx
+++ b/PMCGR/PMCGR_2018-2019/Prog.VideoConferenciasEnero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\PMCGR\PMCGR_2018-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743EC808-5D5F-407D-85BD-FA3A25F50C10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F70B95-C02F-4D93-B55C-3E07BE4EB973}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2072,9 +2072,6 @@
     <t>Alfonso Segundo Negrete Cardenas &lt;Alfonso.Negrete@icbf.gov.co&gt;; Beatriz del Carmen Buelvas Ramos &lt;Beatriz.Buelvas@icbf.gov.co&gt;; Edy Cortes Murillo &lt;Edy.Cortes@icbf.gov.co&gt;; Ena Ledys Abad Garcia &lt;Ena.Abad@icbf.gov.co&gt;; Gloria del Socorro Lopez Bermudez &lt;Gloria.Lopez@icbf.gov.co&gt;; Gloria Ines Ramos Ortega &lt;Gloria.Ramos@icbf.gov.co&gt;; Indira Maria Rivas Toncel &lt;Indira.Rivas@icbf.gov.co&gt;; Isaias de Jesus Villanueva Mendez &lt;Isaias.Villanueva@icbf.gov.co&gt;; Jamer David Viloria Julio &lt;jamer.viloria@icbf.gov.co&gt;; Januario Daniel Villadiego Bello &lt;Januario.Villadiego@icbf.gov.co&gt;; Jhon Jairo Castro Cossio &lt;Jhon.Castro@icbf.gov.co&gt;; Juliana Lopez Garces &lt;Juliana.Lopez@icbf.gov.co&gt;; Karent Agneth Bejarano Villalba &lt;Karent.Bejarano@icbf.gov.co&gt;; Lina Beatriz Ortiz Garcia &lt;Lina.Ortiz@icbf.gov.co&gt;; Luis Diego Henao Vallejo &lt;Luis.Henao@icbf.gov.co&gt;; Luz Amparo Palacios Ramos &lt;Luz.PalaciosR@icbf.gov.co&gt;; Maria Eugenia Londono Herrera &lt;Maria.Londono@icbf.gov.co&gt;; Maribel Perez Echeverria &lt;Maribel.PerezE@icbf.gov.co&gt;; Martha Lucia Lozano Bettin &lt;Martha.LozanoB@icbf.gov.co&gt;; Mayerly Maria Maldonado Molina &lt;Mayerly.Maldonado@icbf.gov.co&gt;; Nelfi Rosa Colon Lora &lt;Nelfi.Colon@icbf.gov.co&gt;; Norima Nasmiye Mindiola Choles &lt;Norima.Mindiola@icbf.gov.co&gt;; Olga Katherine Duque Martinez &lt;Olga.Duque@icbf.gov.co&gt;; Rafael Arsenio Hernandez Babilonia &lt;Rafael.HernandezB@icbf.gov.co&gt;; Roberto Carlos Borja Montenegro &lt;Roberto.Borja@icbf.gov.co&gt;; Rosa Erminia Bedoya Salazar &lt;rosa.bedoya@icbf.gov.co&gt;; Rosa Maria Mestra Rodriguez &lt;Rosa.Mestra@icbf.gov.co&gt;; Ruth Maritza Mejia Higuera &lt;Ruth.Mejiah@icbf.gov.co&gt;; Sully Johana Lopez Jimenez &lt;sully.lopez@icbf.gov.co&gt;; Walter Enrique Diaz Dominguez &lt;Walter.Diaz@icbf.gov.co&gt;; Yeniffer Arias Cordoba &lt;Yeniffer.Arias@icbf.gov.co&gt;; Zuly Marcela Cuesta Mena &lt;Zuly.Cuesta@icbf.gov.co&gt;; Jairo Enrique Negrette Narvaez &lt;jairo.negrette@icbf.gov.co&gt;; Yuranys Del Carmen Figueroa Castellanos &lt;Yuranys.Figueroa@icbf.gov.co&gt;; Stepanova Viana Moreno &lt;Stepanova.Viana@icbf.gov.co&gt;; Enilsa Raquel Cera Mejia &lt;Enilsa.Cera@icbf.gov.co&gt;; Viannys Esther Garcia Sanmiguel &lt;Viannys.Garcia@icbf.gov.co&gt;; Jesús María Zambrano Cervantes &lt;jesus.zambrano@icbf.gov.co&gt;; Blas De Jesus Garcia Noriega &lt;Blas.Garcia@icbf.gov.co&gt;; Mayra Alejandra Segura Oyola &lt;Mayra.Segura@icbf.gov.co&gt;; Flora Leticia Bayuelo Ruiz &lt;Flora.Bayuelo@icbf.gov.co&gt;; Fanny Elena Ripoll Orozco &lt;Fanny.Ripoll@icbf.gov.co&gt;; Mayra Cervantes Muñoz &lt;Mayra.Cervantes@icbf.gov.co&gt;; Mauro Gutierrez de la Rosa &lt;Mauro.Gutierrez@icbf.gov.co&gt;; Isaias de Jesus Villanueva Mendez &lt;Isaias.Villanueva@icbf.gov.co&gt;; Piedad del Carmen Avila Baron &lt;PIEDAD.AVILA@icbf.gov.co&gt;; Elia Catalina Arquez Sampayo &lt;Elia.Arquez@icbf.gov.co&gt;; Franklin Rafael Morales Pena &lt;Franklin.Morales@icbf.gov.co&gt;; Laura Catalina Diaz Gonzalez &lt;Laura.Diaz@icbf.gov.co&gt;; Karla Melisa Fontalvo Angarita &lt;Karla.Fontalvo@icbf.gov.co&gt;; Maria de Jesus Alonso Gomez &lt;Maria.Alonso@icbf.gov.co&gt;; Cristina Isabel Sierra Medina &lt;Cristina.SierraM@icbf.gov.co&gt;; Betty Maria Escobar Orellano &lt;betty.escobar@icbf.gov.co&gt;; Sara Elena Fernandez Orozco &lt;Sara.FernandezO@icbf.gov.co&gt;; Yuranys Del Carmen Figueroa Castellanos &lt;Yuranys.Figueroa@icbf.gov.co&gt;; Lucila Barraza Amador &lt;Lucila.Barraza@icbf.gov.co&gt;; Lilia Esther Vasquez Vanegas &lt;lilia.vasquez@icbf.gov.co&gt;; Richard Castañeda Pradilla &lt;Richard.Castaneda@icbf.gov.co&gt;; Rafael Valderrama Morales &lt;Rafael.Valderrama@icbf.gov.co&gt;; Yuleinis Yuseth Martinez Nieves &lt;Yuleinis.Martinez@icbf.gov.co&gt;; Lelis Del Socorro Coronell Jimenez &lt;Lelis.Coronell@icbf.gov.co&gt;; Maria Antonia Mejia Caballero &lt;MariaA.MejiaC@icbf.gov.co&gt;; Nadia Rosa Pineda Pertuz &lt;Nadia.Pineda@icbf.gov.co&gt;; Indira Carolaine Forero Lara &lt;Indira.Forero@icbf.gov.co&gt;; Vicki Paola Leal Pedrozo &lt;Vicki.Leal@icbf.gov.co&gt;; Yeniffer Arias Cordoba &lt;Yeniffer.Arias@icbf.gov.co&gt;; Maria del Carmen Mosquera Palacios &lt;Maria.Mosquera@icbf.gov.co&gt;; Carmen Paola Arenas Caicedo &lt;Carmen.Arenas@icbf.gov.co&gt;; Luz Estella Pino Cordoba &lt;Luz.Pino@icbf.gov.co&gt;; Luisa Yenesy Moreno Blandon &lt;Luisa.Moreno@icbf.gov.co&gt;; Claudia Yinetha Cifuentes Garcia &lt;Claudia.Cifuentes@icbf.gov.co&gt;; Yudi Marina Cuesta Gonzalez &lt;Yudi.Cuesta@icbf.gov.co&gt;; Karent Agneth Bejarano Villalba &lt;Karent.Bejarano@icbf.gov.co&gt;; Milena Del Carmen Chaverra Mena &lt;Milena.Chaverra@icbf.gov.co&gt;; Edy Cortes Murillo &lt;Edy.Cortes@icbf.gov.co&gt;; Johana Valois Valois &lt;Johana.Valois@icbf.gov.co&gt;; Astrid Murillo Gonzalez &lt;Astrid.Murillo@icbf.gov.co&gt;; Herminia Puentes Hidalgo &lt;Herminia.Puentes@icbf.gov.co&gt;; Carlos Augusto Rodriguez Rojas &lt;Carlos.RodriguezR@icbf.gov.co&gt;; Sandra Patricia Pelaez Perea &lt;Sandra.Pelaez@icbf.gov.co&gt;; Ricaurte Espinoza Mena &lt;Ricaurte.Espinoza@icbf.gov.co&gt;; Carol Liseth Malfitano Cordoba &lt;Carol.Malfitano@icbf.gov.co&gt;; Carmenza Cano Buitrago &lt;Carmenza.Canon@icbf.gov.co&gt;; Ubaldo Hernan Rojas Almanza &lt;Ubaldo.Rojas@icbf.gov.co&gt;; Ena Ledys Abad Garcia &lt;Ena.Abad@icbf.gov.co&gt;; Yuliana Carolina Guerrero Florez &lt;Yuliana.Guerrero@icbf.gov.co&gt;; Dina Marcela Salgado Simancas &lt;Dina.Salgado@icbf.gov.co&gt;; Eva.Mestra@icb.gov.co; Luzmiriam Asias Rios &lt;Luzmiriam.Asias@icbf.gov.co&gt;; Luzmiriam Asias Rios &lt;Luzmiriam.Asias@icbf.gov.co&gt;; Martha Yaneth Lozano Cubillos &lt;Martha.Lozano@icbf.gov.co&gt;; Alfonso Segundo Negrete Cardenas &lt;Alfonso.Negrete@icbf.gov.co&gt;; Nasly Cecilia Molina Mendoza &lt;Nasly.Molina@icbf.gov.co&gt;; Maribel Perez Echeverria &lt;Maribel.PerezE@icbf.gov.co&gt;; Diana Estela Geney Paternina &lt;Diana.Geney@icbf.gov.co&gt;; Xiomara Teresa Brun Bula &lt;Xiomara.Brun@icbf.gov.co&gt;; Gloria Cristina Jimenez Petro &lt;Gloria.JimenezP@icbf.gov.co&gt;; Jairo Enrique Negrette Narvaez &lt;jairo.negrette@icbf.gov.co&gt;; Adriana Maria Escobar Mora &lt;Adriana.EscobarM@icbf.gov.co&gt;; Rosa Maria Mestra Rodriguez &lt;Rosa.Mestra@icbf.gov.co&gt;; Januario Daniel Villadiego Bello &lt;Januario.Villadiego@icbf.gov.co&gt;; Faiver Narvaez Bello &lt;Faiver.Narvaez@icbf.gov.co&gt;; Yicel Margarita Marquez Gomez &lt;Yicel.Marquez@icbf.gov.co&gt;; Rosa Erminia Bedoya Salazar &lt;rosa.bedoya@icbf.gov.co&gt;; Lucas Jose Duenas Palma &lt;Lucas.Duenas@icbf.gov.co&gt;; Nelfi Rosa Colon Lora &lt;Nelfi.Colon@icbf.gov.co&gt;; Francisco Jose Tordecilla Portillo &lt;Francisco.Tordecilla@icbf.gov.co&gt;; Selma Patricia Roldan Tirado &lt;Selma.Roldan@icbf.gov.co&gt;; Silvia Montoya Echeverri &lt;Silvia.Montoya@icbf.gov.co&gt;; Kelly Patricia Montero Avila &lt;KELLY.MONTERO@icbf.gov.co&gt;; Nasly Edalcy Florez Vega &lt;nasly.florez@icbf.gov.co&gt;; Monica Patricia Lemus Rojano &lt;Monica.Lemus@icbf.gov.co&gt;; Manuel Humberto Moreno Incel &lt;Manuel.Moreno@icbf.gov.co&gt;; Vilma Maria Trujillo Valencia &lt;Vilma.Trujillo@icbf.gov.co&gt;; Gloria Brito Choles &lt;Gloria.Brito@icbf.gov.co&gt;; Kendra Lohana Magdaniel Curiel &lt;Kendra.Magdaniel@icbf.gov.co&gt;; Gladys del Carmen Caraballo Hernandez &lt;Gladys.Caraballo@icbf.gov.co&gt;; Ruby Maria del Carmen Borja Calderin &lt;Ruby.Borja@icbf.gov.co&gt;; Vanessa Ramirez Uran &lt;Vanessa.Ramirez@icbf.gov.co&gt;; Ruth Maritza Mejia Higuera &lt;Ruth.Mejiah@icbf.gov.co&gt;; Oliva Alfonso Gonzalez &lt;Oliva.Gonzalez@icbf.gov.co&gt;; Felix Marrugo Molina &lt;felix.marrugo@icbf.gov.co&gt;; Isaias de Jesus Villanueva Mendez &lt;Isaias.Villanueva@icbf.gov.co&gt;; Omaira Patricia Murillo Ramirez &lt;Omaira.Murillo@icbf.gov.co&gt;; Rosa Elena Mosquera Parra &lt;Rosa.Mosquera@icbf.gov.co&gt;; Yeimis Carolina Ucros Quintero &lt;yeimis.ucros@icbf.gov.co&gt;; Norima Nasmiye Mindiola Choles &lt;Norima.Mindiola@icbf.gov.co&gt;; Jairo Enrique Negrette Narvaez &lt;jairo.negrette@icbf.gov.co&gt;; Rafael Arsenio Hernandez Babilonia &lt;Rafael.HernandezB@icbf.gov.co&gt;</t>
   </si>
   <si>
-    <t>Adriana del Rosario Ceballos Coral &lt;Adriana.Ceballos@icbf.gov.co&gt;; Ana Estela Pantoja &lt;Ana.Pantoja@icbf.gov.co&gt;; Jose Julio Gomez Ciro &lt;Jose.GomezC@icbf.gov.co&gt;; Victor Fernando Barreto Cuervo &lt;Victor.Barreto@icbf.gov.co&gt;; Adriana Elizabeth Nunez Bernal &lt;Adriana.Nunez@icbf.gov.co&gt;; Diana Marcela Calderon Escobar &lt;diana.calderone@icbf.gov.co&gt;; Diela del Carmen Hurtado Charfuelan &lt;Diela.Hurtado@icbf.gov.co&gt;; Luz Marina Bautista Parra &lt;Luz.Bautista@icbf.gov.co&gt;; Diana Yuvely Sanchez Cruz &lt;Diana.SanchezC@icbf.gov.co&gt;; Maria Leydi Perdomo Gonzalez &lt;MariaL.Perdomo@icbf.gov.co&gt;; Gloria Virginia Pascuas Rubiano &lt;Gloria.Pascuas@icbf.gov.co&gt;; Irma Constanza Almario Perdomo &lt;Irma.Almario@icbf.gov.co&gt;; Claudia Liliana Vidal Floriano &lt;Claudia.Vidal@icbf.gov.co&gt;; Yobany Zabala Toledo &lt;Yobany.Zabala@icbf.gov.co&gt;; Milena Margarita Cala Brochero &lt;Milena.Cala@icbf.gov.co&gt;; Nancy Ortiz De Andrade &lt;Nancy.Ortiz@icbf.gov.co&gt;; Carlos Javier Trujillo Meneses &lt;Carlos.Trujillo@icbf.gov.co&gt;; Sonia Cardoso Vargas &lt;Sonia.Cardoso@icbf.gov.co&gt;; Sandra Milena Celis Rosas &lt;Sandra.Celis@icbf.gov.co&gt;; Mercy Yovany Polania Garzon &lt;Mercy.Polania@icbf.gov.co&gt;; Nelcy Cardoso Calderon &lt;Nelsy.Cardoso@icbf.gov.co&gt;; Olga Lucia Cangrejo Gaitan &lt;Olga.Cangrejo@icbf.gov.co&gt;; Diana Marcela Calderon Escobar &lt;diana.calderone@icbf.gov.co&gt;; Nidia Torres Joven &lt;Nidia.torresJ@icbf.gov.co&gt;; Daniela Alejandra Peña Aguilar &lt;daniela.pena@icbf.gov.co&gt;; Sandra Patricia Triana Nasayo &lt;Sandra.Triana@icbf.gov.co&gt;; Adela Gomez Hoyos &lt;Adela.Gomez@icbf.gov.co&gt;; Dannia Erika Tovar Tovar &lt;Dannia.Tovar@icbf.gov.co&gt;; Lina Mercedes Valencia Cuellar &lt;Lina.Valencia@icbf.gov.co&gt;; Elsy Edid Macca Rojas &lt;Elsy.Macca@icbf.gov.co&gt;; Ana Patricia Torres Merino &lt;Ana.TorresM@icbf.gov.co&gt;; Mercedes Perdomo Ardila &lt;Mercedes.Perdomo@icbf.gov.co&gt;; Nelly Susana Escobar Silva &lt;Nelly.Escobar@icbf.gov.co&gt;; Maria Catalina Varela Ramirez &lt;Maria.Varela@icbf.gov.co&gt;; Magda Beatriz Losada Gualtero &lt;Magda.Losada@icbf.gov.co&gt;; Maribel Gonzalez Herran &lt;MARIBEL.GONZALEZ@icbf.gov.co&gt;; Olga Isabel Izquierdo Ochoa &lt;Olga.Izquierdo@icbf.gov.co&gt;; Pedro Alfonso Rodriguez Diaz &lt;Pedro.RodriguezD@icbf.gov.co&gt;; Sandra Paola Gonzalez Rojas &lt;Sandra.GonzalezR@icbf.gov.co&gt;; Mario Alberto Munar Cortes &lt;Mario.Munar@icbf.gov.co&gt;; Jasmyn del Socorro Diaz Tobar &lt;Jasmin.Diaz@icbf.gov.co&gt;; Oscar Javier Bolivar Chicacausa &lt;Oscar.Bolivar@icbf.gov.co&gt;; Maria De Jesus Gomez Celedon &lt;Maria.GomezC@icbf.gov.co&gt;; Ramiro Orozco Guayara &lt;Ramiro.Orozco@icbf.gov.co&gt;; Sandra Santiago Pacheco &lt;Sandra.Santiago@icbf.gov.co&gt;; Mariana Osorio Hoyos &lt;Mariana.Osorio@icbf.gov.co&gt;; Luis Guillermo Cano Zambrano &lt;Luis.Cano@icbf.gov.co&gt;; Vivian Gomez Caicedo &lt;Vivian.GomezC@icbf.gov.co&gt;; Johanna Paola Paez Torres &lt;Johanna.Paez@icbf.gov.co&gt;; Ana Maria Verjan Osorio &lt;Ana.Verjan@icbf.gov.co&gt;; Andrea Del Pilar Lopez Jimenez &lt;Andrea.Lopez@icbf.gov.co&gt;; FREDY.ORTIZ@PROCESIX.COM; Benjamin Torres Herrera &lt;Benjamin.Torres@icbf.gov.co&gt;; Sandra Montenegro Daza &lt;Sandra.Montenegro@icbf.gov.co&gt;; Magaly Arelis Martinez Roa &lt;magaly.martinez@icbf.gov.co&gt;; Diana Marcela Arias Modesto &lt;Diana.Arias@icbf.gov.co&gt;; Claudia Marcela Garcia Cubillos &lt;ClaudiaM.Garcia@icbf.gov.co&gt;; Claudia Alpina Castrillon Salazar &lt;Claudia.Castrillon@icbf.gov.co&gt;; Wendy Tatiana Fonseca Naranjo &lt;Wendy.Fonseca@icbf.gov.co&gt;; Carol Andrea Romero Castaneda &lt;Carol.Romero@icbf.gov.co&gt;; Elsy Yovanna Sanabria Garzon &lt;Elsy.Sanabria@icbf.gov.co&gt;; Andrea Del Pilar Jaramillo Aguirre &lt;Andrea.Jaramillo@icbf.gov.co&gt;; Paola Andrea Tamayo Herrera &lt;Paola.Tamayo@icbf.gov.co&gt;; Liliana Ovalle &lt;Liliana.Ovalle@icbf.gov.co&gt;; Andrea Farigua Valero &lt;Andrea.Farigua@icbf.gov.co&gt;; Adriana Elizabeth Nunez Bernal &lt;Adriana.Nunez@icbf.gov.co&gt;; Doris Yolanda Castillo Sanchez &lt;Doris.Castillo@icbf.gov.co&gt;; Yuly Patricia Murillo Camargo &lt;Yuly.Murillo@icbf.gov.co&gt;; Sandra Lucia Diaz Osorio &lt;Sandra.Diaz@icbf.gov.co&gt;; Claudia Yesnit Rodriguez Escobar &lt;Claudia.Rodriguez@icbf.gov.co&gt;; Nora Viviana Idarraga Arenas &lt;nora.idarraga@icbf.gov.co&gt;; Adriana Maria Rodriguez Martinez &lt;Adriana.Rodriguez@icbf.gov.co&gt;; Maria Del Pilar Perdomo Gutierrez &lt;Maria.Perdomo@icbf.gov.co&gt;; Ruby Stella Castilla Arrieta &lt;Ruby.Castilla@icbf.gov.co&gt;; Alba Marina Garay Avilez &lt;Alba.Garay@icbf.gov.co&gt;; Doris Del Carmen Medrano Gutierrez &lt;Doris.Medrano@icbf.gov.co&gt;; Diana Patricia Montes Acuña &lt;DianaP.Montes@icbf.gov.co&gt;; Tatiana Estela Perez Feria &lt;Tatiana.Perez@icbf.gov.co&gt;; Nelcy Yanneth Herazo Correa &lt;Nelcy.Herazo@icbf.gov.co&gt;; Vera Judith Romero Naranjo &lt;Vera.Romero@icbf.gov.co&gt;; Deivy Jhoan Tapia Payares &lt;Deivy.Tapia@icbf.gov.co&gt;; Oscar Alberto Guerra Cuello &lt;oscar.guerra@icbf.gov.co&gt;; Fabio Enrique Quintana Lucas &lt;Fabio.Quintana@icbf.gov.co&gt;; Felix Enrique Vasquez Guzman &lt;Felix.Vasquez@icbf.gov.co&gt;; Virgenida Del Carmen Torres Monterroza &lt;Virgenida.Torres@icbf.gov.co&gt;; Maria Del Rosario Diaz &lt;MariaR.Diaz@icbf.gov.co&gt;; Erika Margarita Perez Contreras &lt;Erika.Perez@icbf.gov.co&gt;; Daniel Esteban Meneses Vergara &lt;Daniel.Meneses@icbf.gov.co&gt;; Argemiro Manuel Palacio Vergara &lt;Argemiro.Palacio@icbf.gov.co&gt;; Rosa Angelica Lopez Montalvo &lt;Rosa.LopezM@icbf.gov.co&gt;; Esther Cristina Calle Guette &lt;Esther.Calle@icbf.gov.co&gt;; Mayerli Salena Saurith Zuleta &lt;Mayerli.Saurith@icbf.gov.co&gt;; Leidi Johana Arzuaga Sanchez &lt;Leidi.Arzuaga@icbf.gov.co&gt;; Angelica Maria Martinez Pitre &lt;Angelica.Martinez@icbf.gov.co&gt;; Oriana Uribe Calderon &lt;Oriana.Uribe@icbf.gov.co&gt;; Nayibe Isabel Padilla Amaris &lt;Nayibe.Padilla@icbf.gov.co&gt;; Rosiris Lacouture Castro &lt;Rosiris.Lacouture@icbf.gov.co&gt;; Aurora Lozano Rodriguez &lt;Aurora.Lozano@icbf.gov.co&gt;; Maria Emelina Rivero Gonzalez &lt;Maria.Rivero@icbf.gov.co&gt;; Esperanza Solano De Lallemand &lt;Esperanza.Solano@icbf.gov.co&gt;; Luz Marina Bautista Parra &lt;Luz.Bautista@icbf.gov.co&gt;; Maria Lourdes Maya Araque &lt;Maria.MayaA@icbf.gov.co&gt;; Diana Paola Solano Quintero &lt;diana.solano@icbf.gov.co&gt;; Mayerlys Jaraba Amaris &lt;Mayerlys.Jaraba@icbf.gov.co&gt;; Dubis Cecilia Martinez Parejo &lt;Dubis.Martinez@icbf.gov.co&gt;; Arelys Beatriz Guevara Maestre &lt;Arelis.Guevara@icbf.gov.co&gt;; Albenys del Socorro Salazar Mejia &lt;Albenys.Salazar@icbf.gov.co&gt;; Luz Marina Cubillos Soto &lt;LUZ.CUBILLOS@icbf.gov.co&gt;; Ercilia Esperanza Bru Zuleta &lt;Ercilia.Bru@icbf.gov.co&gt;; Maria Rosa Catano Bracho &lt;MARIA.CATANO@icbf.gov.co&gt;; Glenis Paola Galvis Ramos &lt;Glenis.Galvis@icbf.gov.co&gt;; Yadira Santana Narvaez &lt;Yadira.Santana@icbf.gov.co&gt;; Lubar Cadavid Sanchez &lt;Lubar.Cadavid@icbf.gov.co&gt;; Fanny Tovar &lt;Fanny.Tovar@icbf.gov.co&gt;; Juan Carlos Bonilla Davis &lt;Juan.Bonilla@icbf.gov.co&gt;; Martha Isabel Tovar Turmeque &lt;Martha.Tovart@icbf.gov.co&gt;; Diana Patricia Arboleda Ramirez &lt;Diana.Arboleda@icbf.gov.co&gt;; Felix Armando Dominguez Urueta &lt;Felix.Dominguez@icbf.gov.co&gt;; Elizabeth Castellar Avila &lt;Elizabeth.Castellar@icbf.gov.co&gt;; Adriana Echeverri Gonzalez &lt;Adriana.EcheverriG@icbf.gov.co&gt;; Diana Consuelo Silva Cardozo &lt;DIANA.SILVAC@icbf.gov.co&gt;; Grissel Jorleny Livingston Bowie &lt;Grissel.Livingston@icbf.gov.co&gt;; Martha Eugenia Huertas Bravo &lt;Martha.Huertas@icbf.gov.co&gt;; Adriana Marcela Rojas Murcia &lt;Adriana.Rojas1@icbf.gov.co&gt;; Cielo de Las Mercedes Hurtado Herrera &lt;Cielo.Hurtado@icbf.gov.co&gt;; Danny Alberto Franco Olivares &lt;Danny.Franco@icbf.gov.co&gt;; German Cabrera Gutierrez &lt;German.Cabrera@icbf.gov.co&gt;; Johanna Paola Serrato Florez &lt;Johanna.Serrato@icbf.gov.co&gt;; Edith Faucett Escalona &lt;Edith.Faucett@icbf.gov.co&gt;; Ruth Consuelo Benavidez Jativa &lt;Ruth.Benavides@icbf.gov.co&gt;; Hugo Ferneli Gonzalez Cortes &lt;Hugo.Gonzalez@icbf.gov.co&gt;; Lissette Karina Tapias Contreras &lt;Lissete.Tapias@icbf.gov.co&gt;; Alonso Ayala Enciso &lt;Alonso.Ayala@icbf.gov.co&gt;; Maria Consuelo del Pilar Arcila Buritica &lt;Maria.Arcila@icbf.gov.co&gt;; Delio Olave Buitrago &lt;Delio.Olave@icbf.gov.co&gt;; Danny Gabriel Montenegro &lt;Danny.Montenegro@icbf.gov.co&gt;; Diela del Carmen Hurtado Charfuelan &lt;Diela.Hurtado@icbf.gov.co&gt;; Hernando Manuel Bertel Zabala &lt;Hernando.Bertel@icbf.gov.co&gt;; Edgar Cobo Medina &lt;Edgar.Cobo@icbf.gov.co&gt;; Cesar Wilton Yoreda Alvear &lt;Cesar.Yoreda@icbf.gov.co&gt;; Mercedes Beatriz Araujo Ortega &lt;Mercedes.Araujo@icbf.gov.co&gt;; Rosa Felicia Daza Lopez &lt;Rosa.Daza@icbf.gov.co&gt;; Manuel Fernando Rodriguez Espinosa &lt;Manuel.Rodriguez@icbf.gov.co&gt;; Olga Cecilia Guerron Zamudio &lt;Olga.Guerron@icbf.gov.co&gt;; John Edinson Avendano Tao &lt;John.Avendano@icbf.gov.co&gt;; Martha Lucia Arevalo Caguazango &lt;MarthaL.Arevalo@icbf.gov.co&gt;; Myriam Consuelo Tobar Pena &lt;Myriamc.Tobar@icbf.gov.co&gt;; Erika Bibiana Paredes Guerrero &lt;Erika.Paredes@icbf.gov.co&gt;; Elizabeth Valencia Viveros &lt;ELIZABETH.VALENCIA@icbf.gov.co&gt;; Juana Angulo Reina &lt;Juana.Angulo@icbf.gov.co&gt;; Martha Eugenia Apraez Caicedo &lt;Martha.Apraez@icbf.gov.co&gt;; Maria Elena Lopez Reina &lt;Maria.LopezR@icbf.gov.co&gt;; Adriana del Rosario Ceballos Coral &lt;Adriana.Ceballos@icbf.gov.co&gt;; Irma Natalia Pena Reina &lt;Irma.Pena@icbf.gov.co&gt;; Eliana Marisol Yepes Jimenez &lt;Eliana.Yepes@icbf.gov.co&gt;; Andrea Milena Mora Alfonso &lt;andrea.mora@icbf.gov.co&gt;; Hector Hugo Botina Salas &lt;Hector.Botina@icbf.gov.co&gt;; Leidy Yohana Lucero Revelo &lt;Leidy.Lucero@icbf.gov.co&gt;; Jesus Armando Chamorro Benavides &lt;Jesus.Armando@icbf.gov.co&gt;; Sandra Patricia Guerrero Cajares &lt;Sandra.GuerreroG@icbf.gov.co&gt;; Cilis Antonia Viveros Obando &lt;CILIS.VIVEROS@icbf.gov.co&gt;; Marta Milena Matte Tovar &lt;Marta.Matte@icbf.gov.co&gt;; Richard Julian Argoti Paredes &lt;richard.argoti@icbf.gov.co&gt;; Rocio Del Carmen Lopez Argote &lt;Rocio.Lopez@icbf.gov.co&gt;; Maria Alejandra Caicedo Leiton &lt;Maria.Caicedo@icbf.gov.co&gt;; Dario Fernando Salas Garcia &lt;Dario.Salas@icbf.gov.co&gt;; Guillermo Andres Chavez Portilla &lt;Guillermo.Chavez@icbf.gov.co&gt;; Oscar Gabriel Villegas Bolanos &lt;oscar.villegas@icbf.gov.co&gt;; Mario Fernando Delgado Bravo &lt;Mario.Delgado@icbf.gov.co&gt;; Gloria Mabel Zambrano Meza &lt;Gloria.ZambranoM@icbf.gov.co&gt;; Diana Patricia Sarasty Narvaez &lt;Diana.Sarasty@icbf.gov.co&gt;; Yenny Amalia Vitola Montalvo &lt;Jenny.Vitola@icbf.gov.co&gt;; Martha Corrales Martinez &lt;Martha.Corrales@icbf.gov.co&gt;; Cielo del Carmen Rodriguez Garrido &lt;Cielo.Rodriguez@icbf.gov.co&gt;; Reynero Banquez Perna &lt;reynero.banquez@icbf.gov.co&gt;; Diana Patricia Sarasty Narvaez &lt;Diana.Sarasty@icbf.gov.co&gt;; Eglenia Cecilia Botello Perea &lt;Eglenia.Botero@icbf.gov.co&gt;; Luis Enrique Morales Nieves &lt;Luis.Morales@icbf.gov.co&gt;; Marilyn Romero Cabarcas &lt;Marilyn.Romero@icbf.gov.co&gt;; Victoria Eugenia Tisnes Villegas &lt;Victoria.Tisnes@icbf.gov.co&gt;; Gloria Patricia Buitrago Gonzalez &lt;Gloria.Buitrago@icbf.gov.co&gt;; Gloria Esther Gonzalez Rios &lt;Gloria.Gonzalez@icbf.gov.co&gt;; Juliana Giraldo Bernal &lt;Juliana.Giraldo@icbf.gov.co&gt;; Lina Sofia Truque Pena &lt;Lina.Truque@icbf.gov.co&gt;; Orlando Segundo Lozano Barboza &lt;Orlando.Lozano@icbf.gov.co&gt;; Yolanda del Carmen Nupan Paz &lt;Yolanda.Nupan@icbf.gov.co&gt;; Erika Juliana Viveros Riasco &lt;Erika.ViverosR@icbf.gov.co&gt;; Pablo Andres Lozano Claros &lt;Pablo.Lozano@icbf.gov.co&gt;; Jorge Luis Villegas Maguiña &lt;Jorge.Villegas@icbf.gov.co&gt;; Yaelis Elvira Mercado Pastrana &lt;Yaelis.Mercado@icbf.gov.co&gt;; Cindy Vanessa Simahan Acosta &lt;Cindy.Simahan@icbf.gov.co&gt;; Guiomar Josefa Guerrero Salgado &lt;Giomar.Guerrero@icbf.gov.co&gt;; Ana Estela Pantoja &lt;Ana.Pantoja@icbf.gov.co&gt;; Charlie Catherine Polo Perez &lt;Charlie.Polo@icbf.gov.co&gt;; Flor Angela Martinez Navarro &lt;FLOR.MARTINEZN@icbf.gov.co&gt;; Graciela Gomez Puyana &lt;Graciela.Gomez@icbf.gov.co&gt;; Johana Maria Pantoja Meneses &lt;Johana.Pantoja@icbf.gov.co&gt;; Jose Antonio Perugache Escobar &lt;Jose.Perugache@icbf.gov.co&gt;; Neila Marcela Barrera Jurado &lt;Marcela.Barrera@icbf.gov.co&gt;; Paola Andrea Narvaez Mejia &lt;Paola.Narvaez@icbf.gov.co&gt;; Sara Edilma Mejia Santacruz &lt;Sara.Mejia@icbf.gov.co&gt;; Ana Violeth Quintero Polanco &lt;Ana.Quintero@icbf.gov.co&gt;; Carol Fernanda Munoz Castro &lt;Carol.Munoz@icbf.gov.co&gt;; Daira Liliana Ruales &lt;daira.ruales@icbf.gov.co&gt;; Diana Maria Moncayo Mora &lt;Diana.Moncayo@icbf.gov.co&gt;; Luis Fernando Vega Rojas &lt;Luis.Vega@icbf.gov.co&gt;; Paola Andrea Burbano Daza &lt;Paola.Burbano@icbf.gov.co&gt;; Alma Virginia Pardo Cordoba &lt;Virginia.Pardo@icbf.gov.co&gt;; Elvia Rita Diaz Mena &lt;Elvia.DiazM@icbf.gov.co&gt;; Jose Francisco Urbina &lt;Jose.Urbina@icbf.gov.co&gt;; Luis Alberto Jurado Villareal &lt;Luis.Jurado@icbf.gov.co&gt;; Luis Dagoberto Enriquez Delgado &lt;Luis.Enriquez@icbf.gov.co&gt;; Monica Santacruz Ordonez &lt;Monica.Santacruz@icbf.gov.co&gt;; Rafael Francisco Govea Medina &lt;Rafael.Govea@icbf.gov.co&gt;; Belkis Consuelo Brito Bolivar &lt;Belkis.Brito@icbf.gov.co&gt;; Sandra Yaneth Guacaneme Manjarrez &lt;Sandra.Guacaneme@icbf.gov.co&gt;; Yarina Jaramillo Torres &lt;Yarina.Jaramillo@icbf.gov.co&gt;; Jorge Luis Carreno Cordoba &lt;Jorge.Carreno@icbf.gov.co&gt;; Karen Mainory Martinez Roa &lt;Karen.MartinezR@icbf.gov.co&gt;; Paula Fernanda Becerra Ramirez &lt;Paula.Becerra@icbf.gov.co&gt;; Dwan Nagee Hudgson Rodriguez &lt;Dwan.Hudgson@icbf.gov.co&gt;; Martha Elena Pusey &lt;Martha.Pusey@icbf.gov.co&gt;; Susanie Davis Bryan &lt;susanie.davis@icbf.gov.co&gt;; Carlos Alberto Diaz Robinson &lt;Carlos.DiazR@icbf.gov.co&gt;; Freddy Lorena Bustos Moreno &lt;Freddy.Bustos@icbf.gov.co&gt;; Kiara Pamela Perdomo Lopez &lt;Kiara.Perdomo@icbf.gov.co&gt;; Marlene De Los Angeles Martinez Sanjuan &lt;Marlene.Martinez@icbf.gov.co&gt;; Taisha Eliana Lever Hooker &lt;Taisha.Lever@icbf.gov.co&gt;; Edelmira Atara Gil &lt;Edelmira.Atara@icbf.gov.co&gt;; Claudia Patricia Mendez Rojas &lt;Claudia.Mendez@icbf.gov.co&gt;; Adriana Elizabeth Garces Gustin &lt;Adriana.Garces@icbf.gov.co&gt;; Diana Carolina Mogotocoro Benjumea &lt;Diana.Mogotocoro@icbf.gov.co&gt;; Milena Esther Mejia Mora &lt;Milena.Mejia@icbf.gov.co&gt;; Cesar Wilton Yoreda Alvear &lt;Cesar.Yoreda@icbf.gov.co&gt;; Taisha Eliana Lever Hooker &lt;Taisha.Lever@icbf.gov.co&gt;</t>
-  </si>
-  <si>
     <t>Viernes, 25 de enero 2019
 9:00 am a 10:00 am</t>
   </si>
@@ -2093,6 +2090,9 @@
   <si>
     <t>Jueves 31 de enero 2019
 9:00 am a 10:00 am</t>
+  </si>
+  <si>
+    <t>Adriana del Rosario Ceballos Coral &lt;Adriana.Ceballos@icbf.gov.co&gt;; Ana Estela Pantoja &lt;Ana.Pantoja@icbf.gov.co&gt;; Jose Julio Gomez Ciro &lt;Jose.GomezC@icbf.gov.co&gt;; Victor Fernando Barreto Cuervo &lt;Victor.Barreto@icbf.gov.co&gt;; Adriana Elizabeth Nunez Bernal &lt;Adriana.Nunez@icbf.gov.co&gt;; Diana Marcela Calderon Escobar &lt;diana.calderone@icbf.gov.co&gt;; Diela del Carmen Hurtado Charfuelan &lt;Diela.Hurtado@icbf.gov.co&gt;; Luz Marina Bautista Parra &lt;Luz.Bautista@icbf.gov.co&gt;; Diana Yuvely Sanchez Cruz &lt;Diana.SanchezC@icbf.gov.co&gt;; Maria Leydi Perdomo Gonzalez &lt;MariaL.Perdomo@icbf.gov.co&gt;; Gloria Virginia Pascuas Rubiano &lt;Gloria.Pascuas@icbf.gov.co&gt;; Irma Constanza Almario Perdomo &lt;Irma.Almario@icbf.gov.co&gt;; Claudia Liliana Vidal Floriano &lt;Claudia.Vidal@icbf.gov.co&gt;; Yobany Zabala Toledo &lt;Yobany.Zabala@icbf.gov.co&gt;; Milena Margarita Cala Brochero &lt;Milena.Cala@icbf.gov.co&gt;; Nancy Ortiz De Andrade &lt;Nancy.Ortiz@icbf.gov.co&gt;; Carlos Javier Trujillo Meneses &lt;Carlos.Trujillo@icbf.gov.co&gt;; Sonia Cardoso Vargas &lt;Sonia.Cardoso@icbf.gov.co&gt;; Sandra Milena Celis Rosas &lt;Sandra.Celis@icbf.gov.co&gt;; Mercy Yovany Polania Garzon &lt;Mercy.Polania@icbf.gov.co&gt;; Nelcy Cardoso Calderon &lt;Nelsy.Cardoso@icbf.gov.co&gt;; Olga Lucia Cangrejo Gaitan &lt;Olga.Cangrejo@icbf.gov.co&gt;; Diana Marcela Calderon Escobar &lt;diana.calderone@icbf.gov.co&gt;; Nidia Torres Joven &lt;Nidia.torresJ@icbf.gov.co&gt;; Daniela Alejandra Peña Aguilar &lt;daniela.pena@icbf.gov.co&gt;; Sandra Patricia Triana Nasayo &lt;Sandra.Triana@icbf.gov.co&gt;; Adela Gomez Hoyos &lt;Adela.Gomez@icbf.gov.co&gt;; Dannia Erika Tovar Tovar &lt;Dannia.Tovar@icbf.gov.co&gt;; Lina Mercedes Valencia Cuellar &lt;Lina.Valencia@icbf.gov.co&gt;; Elsy Edid Macca Rojas &lt;Elsy.Macca@icbf.gov.co&gt;; Ana Patricia Torres Merino &lt;Ana.TorresM@icbf.gov.co&gt;; Mercedes Perdomo Ardila &lt;Mercedes.Perdomo@icbf.gov.co&gt;; Nelly Susana Escobar Silva &lt;Nelly.Escobar@icbf.gov.co&gt;; Maria Catalina Varela Ramirez &lt;Maria.Varela@icbf.gov.co&gt;; Magda Beatriz Losada Gualtero &lt;Magda.Losada@icbf.gov.co&gt;; Maribel Gonzalez Herran &lt;MARIBEL.GONZALEZ@icbf.gov.co&gt;; Olga Isabel Izquierdo Ochoa &lt;Olga.Izquierdo@icbf.gov.co&gt;; Pedro Alfonso Rodriguez Diaz &lt;Pedro.RodriguezD@icbf.gov.co&gt;; Sandra Paola Gonzalez Rojas &lt;Sandra.GonzalezR@icbf.gov.co&gt;; Mario Alberto Munar Cortes &lt;Mario.Munar@icbf.gov.co&gt;; Jasmyn del Socorro Diaz Tobar &lt;Jasmin.Diaz@icbf.gov.co&gt;; Oscar Javier Bolivar Chicacausa &lt;Oscar.Bolivar@icbf.gov.co&gt;; Maria De Jesus Gomez Celedon &lt;Maria.GomezC@icbf.gov.co&gt;; Ramiro Orozco Guayara &lt;Ramiro.Orozco@icbf.gov.co&gt;; Sandra Santiago Pacheco &lt;Sandra.Santiago@icbf.gov.co&gt;; Mariana Osorio Hoyos &lt;Mariana.Osorio@icbf.gov.co&gt;; Luis Guillermo Cano Zambrano &lt;Luis.Cano@icbf.gov.co&gt;; Vivian Gomez Caicedo &lt;Vivian.GomezC@icbf.gov.co&gt;; Johanna Paola Paez Torres &lt;Johanna.Paez@icbf.gov.co&gt;; Ana Maria Verjan Osorio &lt;Ana.Verjan@icbf.gov.co&gt;; Andrea Del Pilar Lopez Jimenez &lt;Andrea.Lopez@icbf.gov.co&gt;; FREDY.ORTIZ@PROCESIX.COM; Benjamin Torres Herrera &lt;Benjamin.Torres@icbf.gov.co&gt;; Sandra Montenegro Daza &lt;Sandra.Montenegro@icbf.gov.co&gt;; Magaly Arelis Martinez Roa &lt;magaly.martinez@icbf.gov.co&gt;; Diana Marcela Arias Modesto &lt;Diana.Arias@icbf.gov.co&gt;; Claudia Marcela Garcia Cubillos &lt;ClaudiaM.Garcia@icbf.gov.co&gt;; Claudia Alpina Castrillon Salazar &lt;Claudia.Castrillon@icbf.gov.co&gt;; Wendy Tatiana Fonseca Naranjo &lt;Wendy.Fonseca@icbf.gov.co&gt;; Carol Andrea Romero Castaneda &lt;Carol.Romero@icbf.gov.co&gt;; Elsy Yovanna Sanabria Garzon &lt;Elsy.Sanabria@icbf.gov.co&gt;; Andrea Del Pilar Jaramillo Aguirre &lt;Andrea.Jaramillo@icbf.gov.co&gt;; Paola Andrea Tamayo Herrera &lt;Paola.Tamayo@icbf.gov.co&gt;; Liliana Ovalle &lt;Liliana.Ovalle@icbf.gov.co&gt;; Andrea Farigua Valero &lt;Andrea.Farigua@icbf.gov.co&gt;; Adriana Elizabeth Nunez Bernal &lt;Adriana.Nunez@icbf.gov.co&gt;; Doris Yolanda Castillo Sanchez &lt;Doris.Castillo@icbf.gov.co&gt;; Yuly Patricia Murillo Camargo &lt;Yuly.Murillo@icbf.gov.co&gt;; Sandra Lucia Diaz Osorio &lt;Sandra.Diaz@icbf.gov.co&gt;; Claudia Yesnit Rodriguez Escobar &lt;Claudia.Rodriguez@icbf.gov.co&gt;; Nora Viviana Idarraga Arenas &lt;nora.idarraga@icbf.gov.co&gt;; Adriana Maria Rodriguez Martinez &lt;Adriana.Rodriguez@icbf.gov.co&gt;; Maria Del Pilar Perdomo Gutierrez &lt;Maria.Perdomo@icbf.gov.co&gt;; Ruby Stella Castilla Arrieta &lt;Ruby.Castilla@icbf.gov.co&gt;; Alba Marina Garay Avilez &lt;Alba.Garay@icbf.gov.co&gt;; Doris Del Carmen Medrano Gutierrez &lt;Doris.Medrano@icbf.gov.co&gt;; Diana Patricia Montes Acuña &lt;DianaP.Montes@icbf.gov.co&gt;; Tatiana Estela Perez Feria &lt;Tatiana.Perez@icbf.gov.co&gt;; Nelcy Yanneth Herazo Correa &lt;Nelcy.Herazo@icbf.gov.co&gt;; Deivy Jhoan Tapia Payares &lt;Deivy.Tapia@icbf.gov.co&gt;; Oscar Alberto Guerra Cuello &lt;oscar.guerra@icbf.gov.co&gt;; Fabio Enrique Quintana Lucas &lt;Fabio.Quintana@icbf.gov.co&gt;; Felix Enrique Vasquez Guzman &lt;Felix.Vasquez@icbf.gov.co&gt;; Virgenida Del Carmen Torres Monterroza &lt;Virgenida.Torres@icbf.gov.co&gt;; Maria Del Rosario Diaz &lt;MariaR.Diaz@icbf.gov.co&gt;; Erika Margarita Perez Contreras &lt;Erika.Perez@icbf.gov.co&gt;; Daniel Esteban Meneses Vergara &lt;Daniel.Meneses@icbf.gov.co&gt;; Argemiro Manuel Palacio Vergara &lt;Argemiro.Palacio@icbf.gov.co&gt;; Rosa Angelica Lopez Montalvo &lt;Rosa.LopezM@icbf.gov.co&gt;; Esther Cristina Calle Guette &lt;Esther.Calle@icbf.gov.co&gt;; Mayerli Salena Saurith Zuleta &lt;Mayerli.Saurith@icbf.gov.co&gt;; Leidi Johana Arzuaga Sanchez &lt;Leidi.Arzuaga@icbf.gov.co&gt;; Angelica Maria Martinez Pitre &lt;Angelica.Martinez@icbf.gov.co&gt;; Oriana Uribe Calderon &lt;Oriana.Uribe@icbf.gov.co&gt;; Nayibe Isabel Padilla Amaris &lt;Nayibe.Padilla@icbf.gov.co&gt;; Rosiris Lacouture Castro &lt;Rosiris.Lacouture@icbf.gov.co&gt;; Aurora Lozano Rodriguez &lt;Aurora.Lozano@icbf.gov.co&gt;; Maria Emelina Rivero Gonzalez &lt;Maria.Rivero@icbf.gov.co&gt;; Esperanza Solano De Lallemand &lt;Esperanza.Solano@icbf.gov.co&gt;; Luz Marina Bautista Parra &lt;Luz.Bautista@icbf.gov.co&gt;; Maria Lourdes Maya Araque &lt;Maria.MayaA@icbf.gov.co&gt;; Diana Paola Solano Quintero &lt;diana.solano@icbf.gov.co&gt;; Mayerlys Jaraba Amaris &lt;Mayerlys.Jaraba@icbf.gov.co&gt;; Dubis Cecilia Martinez Parejo &lt;Dubis.Martinez@icbf.gov.co&gt;; Arelys Beatriz Guevara Maestre &lt;Arelis.Guevara@icbf.gov.co&gt;; Albenys del Socorro Salazar Mejia &lt;Albenys.Salazar@icbf.gov.co&gt;; Luz Marina Cubillos Soto &lt;LUZ.CUBILLOS@icbf.gov.co&gt;; Ercilia Esperanza Bru Zuleta &lt;Ercilia.Bru@icbf.gov.co&gt;; Maria Rosa Catano Bracho &lt;MARIA.CATANO@icbf.gov.co&gt;; Glenis Paola Galvis Ramos &lt;Glenis.Galvis@icbf.gov.co&gt;; Yadira Santana Narvaez &lt;Yadira.Santana@icbf.gov.co&gt;; Lubar Cadavid Sanchez &lt;Lubar.Cadavid@icbf.gov.co&gt;; Fanny Tovar &lt;Fanny.Tovar@icbf.gov.co&gt;; Juan Carlos Bonilla Davis &lt;Juan.Bonilla@icbf.gov.co&gt;; Martha Isabel Tovar Turmeque &lt;Martha.Tovart@icbf.gov.co&gt;; Diana Patricia Arboleda Ramirez &lt;Diana.Arboleda@icbf.gov.co&gt;; Felix Armando Dominguez Urueta &lt;Felix.Dominguez@icbf.gov.co&gt;; Elizabeth Castellar Avila &lt;Elizabeth.Castellar@icbf.gov.co&gt;; Adriana Echeverri Gonzalez &lt;Adriana.EcheverriG@icbf.gov.co&gt;; Diana Consuelo Silva Cardozo &lt;DIANA.SILVAC@icbf.gov.co&gt;; Grissel Jorleny Livingston Bowie &lt;Grissel.Livingston@icbf.gov.co&gt;; Martha Eugenia Huertas Bravo &lt;Martha.Huertas@icbf.gov.co&gt;; Adriana Marcela Rojas Murcia &lt;Adriana.Rojas1@icbf.gov.co&gt;; Cielo de Las Mercedes Hurtado Herrera &lt;Cielo.Hurtado@icbf.gov.co&gt;; Danny Alberto Franco Olivares &lt;Danny.Franco@icbf.gov.co&gt;; German Cabrera Gutierrez &lt;German.Cabrera@icbf.gov.co&gt;; Johanna Paola Serrato Florez &lt;Johanna.Serrato@icbf.gov.co&gt;; Edith Faucett Escalona &lt;Edith.Faucett@icbf.gov.co&gt;; Ruth Consuelo Benavidez Jativa &lt;Ruth.Benavides@icbf.gov.co&gt;; Hugo Ferneli Gonzalez Cortes &lt;Hugo.Gonzalez@icbf.gov.co&gt;; Lissette Karina Tapias Contreras &lt;Lissete.Tapias@icbf.gov.co&gt;; Alonso Ayala Enciso &lt;Alonso.Ayala@icbf.gov.co&gt;; Maria Consuelo del Pilar Arcila Buritica &lt;Maria.Arcila@icbf.gov.co&gt;; Delio Olave Buitrago &lt;Delio.Olave@icbf.gov.co&gt;; Danny Gabriel Montenegro &lt;Danny.Montenegro@icbf.gov.co&gt;; Diela del Carmen Hurtado Charfuelan &lt;Diela.Hurtado@icbf.gov.co&gt;; Hernando Manuel Bertel Zabala &lt;Hernando.Bertel@icbf.gov.co&gt;; Edgar Cobo Medina &lt;Edgar.Cobo@icbf.gov.co&gt;; Cesar Wilton Yoreda Alvear &lt;Cesar.Yoreda@icbf.gov.co&gt;; Mercedes Beatriz Araujo Ortega &lt;Mercedes.Araujo@icbf.gov.co&gt;; Rosa Felicia Daza Lopez &lt;Rosa.Daza@icbf.gov.co&gt;; Manuel Fernando Rodriguez Espinosa &lt;Manuel.Rodriguez@icbf.gov.co&gt;; Olga Cecilia Guerron Zamudio &lt;Olga.Guerron@icbf.gov.co&gt;; John Edinson Avendano Tao &lt;John.Avendano@icbf.gov.co&gt;; Martha Lucia Arevalo Caguazango &lt;MarthaL.Arevalo@icbf.gov.co&gt;; Myriam Consuelo Tobar Pena &lt;Myriamc.Tobar@icbf.gov.co&gt;; Erika Bibiana Paredes Guerrero &lt;Erika.Paredes@icbf.gov.co&gt;; Elizabeth Valencia Viveros &lt;ELIZABETH.VALENCIA@icbf.gov.co&gt;; Juana Angulo Reina &lt;Juana.Angulo@icbf.gov.co&gt;; Martha Eugenia Apraez Caicedo &lt;Martha.Apraez@icbf.gov.co&gt;; Maria Elena Lopez Reina &lt;Maria.LopezR@icbf.gov.co&gt;; Adriana del Rosario Ceballos Coral &lt;Adriana.Ceballos@icbf.gov.co&gt;; Irma Natalia Pena Reina &lt;Irma.Pena@icbf.gov.co&gt;; Eliana Marisol Yepes Jimenez &lt;Eliana.Yepes@icbf.gov.co&gt;; Andrea Milena Mora Alfonso &lt;andrea.mora@icbf.gov.co&gt;; Hector Hugo Botina Salas &lt;Hector.Botina@icbf.gov.co&gt;; Leidy Yohana Lucero Revelo &lt;Leidy.Lucero@icbf.gov.co&gt;; Jesus Armando Chamorro Benavides &lt;Jesus.Armando@icbf.gov.co&gt;; Sandra Patricia Guerrero Cajares &lt;Sandra.GuerreroG@icbf.gov.co&gt;; Cilis Antonia Viveros Obando &lt;CILIS.VIVEROS@icbf.gov.co&gt;; Marta Milena Matte Tovar &lt;Marta.Matte@icbf.gov.co&gt;; Richard Julian Argoti Paredes &lt;richard.argoti@icbf.gov.co&gt;; Rocio Del Carmen Lopez Argote &lt;Rocio.Lopez@icbf.gov.co&gt;; Maria Alejandra Caicedo Leiton &lt;Maria.Caicedo@icbf.gov.co&gt;; Dario Fernando Salas Garcia &lt;Dario.Salas@icbf.gov.co&gt;; Guillermo Andres Chavez Portilla &lt;Guillermo.Chavez@icbf.gov.co&gt;; Oscar Gabriel Villegas Bolanos &lt;oscar.villegas@icbf.gov.co&gt;; Mario Fernando Delgado Bravo &lt;Mario.Delgado@icbf.gov.co&gt;; Gloria Mabel Zambrano Meza &lt;Gloria.ZambranoM@icbf.gov.co&gt;; Diana Patricia Sarasty Narvaez &lt;Diana.Sarasty@icbf.gov.co&gt;; Yenny Amalia Vitola Montalvo &lt;Jenny.Vitola@icbf.gov.co&gt;; Martha Corrales Martinez &lt;Martha.Corrales@icbf.gov.co&gt;; Cielo del Carmen Rodriguez Garrido &lt;Cielo.Rodriguez@icbf.gov.co&gt;; Reynero Banquez Perna &lt;reynero.banquez@icbf.gov.co&gt;; Diana Patricia Sarasty Narvaez &lt;Diana.Sarasty@icbf.gov.co&gt;; Eglenia Cecilia Botello Perea &lt;Eglenia.Botero@icbf.gov.co&gt;; Luis Enrique Morales Nieves &lt;Luis.Morales@icbf.gov.co&gt;; Marilyn Romero Cabarcas &lt;Marilyn.Romero@icbf.gov.co&gt;; Victoria Eugenia Tisnes Villegas &lt;Victoria.Tisnes@icbf.gov.co&gt;; Gloria Patricia Buitrago Gonzalez &lt;Gloria.Buitrago@icbf.gov.co&gt;; Gloria Esther Gonzalez Rios &lt;Gloria.Gonzalez@icbf.gov.co&gt;; Juliana Giraldo Bernal &lt;Juliana.Giraldo@icbf.gov.co&gt;; Lina Sofia Truque Pena &lt;Lina.Truque@icbf.gov.co&gt;; Orlando Segundo Lozano Barboza &lt;Orlando.Lozano@icbf.gov.co&gt;; Yolanda del Carmen Nupan Paz &lt;Yolanda.Nupan@icbf.gov.co&gt;; Erika Juliana Viveros Riasco &lt;Erika.ViverosR@icbf.gov.co&gt;; Pablo Andres Lozano Claros &lt;Pablo.Lozano@icbf.gov.co&gt;; Jorge Luis Villegas Maguiña &lt;Jorge.Villegas@icbf.gov.co&gt;; Yaelis Elvira Mercado Pastrana &lt;Yaelis.Mercado@icbf.gov.co&gt;; Cindy Vanessa Simahan Acosta &lt;Cindy.Simahan@icbf.gov.co&gt;; Guiomar Josefa Guerrero Salgado &lt;Giomar.Guerrero@icbf.gov.co&gt;; Ana Estela Pantoja &lt;Ana.Pantoja@icbf.gov.co&gt;; Charlie Catherine Polo Perez &lt;Charlie.Polo@icbf.gov.co&gt;; Flor Angela Martinez Navarro &lt;FLOR.MARTINEZN@icbf.gov.co&gt;; Graciela Gomez Puyana &lt;Graciela.Gomez@icbf.gov.co&gt;; Johana Maria Pantoja Meneses &lt;Johana.Pantoja@icbf.gov.co&gt;; Jose Antonio Perugache Escobar &lt;Jose.Perugache@icbf.gov.co&gt;; Neila Marcela Barrera Jurado &lt;Marcela.Barrera@icbf.gov.co&gt;; Paola Andrea Narvaez Mejia &lt;Paola.Narvaez@icbf.gov.co&gt;; Sara Edilma Mejia Santacruz &lt;Sara.Mejia@icbf.gov.co&gt;; Ana Violeth Quintero Polanco &lt;Ana.Quintero@icbf.gov.co&gt;; Carol Fernanda Munoz Castro &lt;Carol.Munoz@icbf.gov.co&gt;; Daira Liliana Ruales &lt;daira.ruales@icbf.gov.co&gt;; Diana Maria Moncayo Mora &lt;Diana.Moncayo@icbf.gov.co&gt;; Luis Fernando Vega Rojas &lt;Luis.Vega@icbf.gov.co&gt;; Paola Andrea Burbano Daza &lt;Paola.Burbano@icbf.gov.co&gt;; Alma Virginia Pardo Cordoba &lt;Virginia.Pardo@icbf.gov.co&gt;; Elvia Rita Diaz Mena &lt;Elvia.DiazM@icbf.gov.co&gt;; Jose Francisco Urbina &lt;Jose.Urbina@icbf.gov.co&gt;; Luis Alberto Jurado Villareal &lt;Luis.Jurado@icbf.gov.co&gt;; Luis Dagoberto Enriquez Delgado &lt;Luis.Enriquez@icbf.gov.co&gt;; Monica Santacruz Ordonez &lt;Monica.Santacruz@icbf.gov.co&gt;; Rafael Francisco Govea Medina &lt;Rafael.Govea@icbf.gov.co&gt;; Belkis Consuelo Brito Bolivar &lt;Belkis.Brito@icbf.gov.co&gt;; Sandra Yaneth Guacaneme Manjarrez &lt;Sandra.Guacaneme@icbf.gov.co&gt;; Yarina Jaramillo Torres &lt;Yarina.Jaramillo@icbf.gov.co&gt;; Jorge Luis Carreno Cordoba &lt;Jorge.Carreno@icbf.gov.co&gt;; Karen Mainory Martinez Roa &lt;Karen.MartinezR@icbf.gov.co&gt;; Paula Fernanda Becerra Ramirez &lt;Paula.Becerra@icbf.gov.co&gt;; Dwan Nagee Hudgson Rodriguez &lt;Dwan.Hudgson@icbf.gov.co&gt;; Martha Elena Pusey &lt;Martha.Pusey@icbf.gov.co&gt;; Susanie Davis Bryan &lt;susanie.davis@icbf.gov.co&gt;; Carlos Alberto Diaz Robinson &lt;Carlos.DiazR@icbf.gov.co&gt;; Freddy Lorena Bustos Moreno &lt;Freddy.Bustos@icbf.gov.co&gt;; Kiara Pamela Perdomo Lopez &lt;Kiara.Perdomo@icbf.gov.co&gt;; Marlene De Los Angeles Martinez Sanjuan &lt;Marlene.Martinez@icbf.gov.co&gt;; Taisha Eliana Lever Hooker &lt;Taisha.Lever@icbf.gov.co&gt;; Edelmira Atara Gil &lt;Edelmira.Atara@icbf.gov.co&gt;; Claudia Patricia Mendez Rojas &lt;Claudia.Mendez@icbf.gov.co&gt;; Adriana Elizabeth Garces Gustin &lt;Adriana.Garces@icbf.gov.co&gt;; Diana Carolina Mogotocoro Benjumea &lt;Diana.Mogotocoro@icbf.gov.co&gt;; Milena Esther Mejia Mora &lt;Milena.Mejia@icbf.gov.co&gt;; Cesar Wilton Yoreda Alvear &lt;Cesar.Yoreda@icbf.gov.co&gt;; Taisha Eliana Lever Hooker &lt;Taisha.Lever@icbf.gov.co&gt;</t>
   </si>
 </sst>
 </file>
@@ -2605,6 +2605,147 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2640,147 +2781,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3220,37 +3220,37 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97">
+      <c r="B2" s="68">
         <v>1</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="98" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="115" t="s">
         <v>665</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="118" t="s">
         <v>39</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -3259,9 +3259,9 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1">
-      <c r="A3" s="81"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="95"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="9">
         <v>1</v>
       </c>
@@ -3271,20 +3271,20 @@
       <c r="F3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="72"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="119"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="95"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D23" si="0">+D3+1</f>
         <v>2</v>
@@ -3295,20 +3295,20 @@
       <c r="F4" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="72"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="119"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="95"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3319,20 +3319,20 @@
       <c r="F5" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="72"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="119"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="95"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="99"/>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3343,20 +3343,20 @@
       <c r="F6" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="72"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="119"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="95"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3367,20 +3367,20 @@
       <c r="F7" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="72"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="119"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="21" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="95"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3391,20 +3391,20 @@
       <c r="F8" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="72"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="119"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="95"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3415,20 +3415,20 @@
       <c r="F9" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="72"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="119"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="95"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3439,20 +3439,20 @@
       <c r="F10" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="72"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="119"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1">
-      <c r="A11" s="81"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="95"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3463,20 +3463,20 @@
       <c r="F11" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="72"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="119"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1">
-      <c r="A12" s="81"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="95"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3487,20 +3487,20 @@
       <c r="F12" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="72"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="119"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="21" customHeight="1">
-      <c r="A13" s="81"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="95"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3511,20 +3511,20 @@
       <c r="F13" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="72"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="119"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="21" customHeight="1">
-      <c r="A14" s="81"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="95"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3535,20 +3535,20 @@
       <c r="F14" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="72"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="119"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="21" customHeight="1">
-      <c r="A15" s="81"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="95"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3559,20 +3559,20 @@
       <c r="F15" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="72"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="119"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1">
-      <c r="A16" s="81"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="95"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="99"/>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3583,20 +3583,20 @@
       <c r="F16" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="72"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="119"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" ht="21" customHeight="1">
-      <c r="A17" s="81"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="95"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3607,20 +3607,20 @@
       <c r="F17" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="72"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="119"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" ht="21" customHeight="1">
-      <c r="A18" s="81"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="95"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3631,20 +3631,20 @@
       <c r="F18" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="72"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="119"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1">
-      <c r="A19" s="81"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="95"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3655,20 +3655,20 @@
       <c r="F19" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="72"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="119"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" ht="21" customHeight="1">
-      <c r="A20" s="81"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="95"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3677,20 +3677,20 @@
         <v>243</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="72"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="119"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15" ht="21" customHeight="1">
-      <c r="A21" s="81"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="95"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3699,20 +3699,20 @@
         <v>244</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="72"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="119"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="21" customHeight="1">
-      <c r="A22" s="81"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="95"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3721,20 +3721,20 @@
         <v>245</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="72"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="119"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="21" customHeight="1">
-      <c r="A23" s="81"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="96"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3743,23 +3743,23 @@
         <v>242</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="73"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="120"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="21" customHeight="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="97">
+      <c r="A24" s="102"/>
+      <c r="B24" s="68">
         <f>+B2+1</f>
         <v>2</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="98" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="10"/>
@@ -3792,9 +3792,9 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15" ht="21" customHeight="1">
-      <c r="A25" s="81"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="96"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="10">
         <v>1</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="81"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="43"/>
       <c r="C26" s="34"/>
       <c r="D26" s="10"/>
@@ -3832,12 +3832,12 @@
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15" ht="21" customHeight="1">
-      <c r="A27" s="81"/>
-      <c r="B27" s="97">
+      <c r="A27" s="102"/>
+      <c r="B27" s="68">
         <f>+B24+1</f>
         <v>3</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="98" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="10"/>
@@ -3870,9 +3870,9 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" ht="21" customHeight="1">
-      <c r="A28" s="81"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="95"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="99"/>
       <c r="D28" s="9">
         <v>1</v>
       </c>
@@ -3893,9 +3893,9 @@
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15" ht="21" customHeight="1">
-      <c r="A29" s="81"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="95"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="9">
         <v>2</v>
       </c>
@@ -3916,9 +3916,9 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" ht="21" customHeight="1">
-      <c r="A30" s="81"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="96"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="9">
         <v>3</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15" ht="21" customHeight="1">
-      <c r="A31" s="81"/>
+      <c r="A31" s="102"/>
       <c r="B31" s="43"/>
       <c r="C31" s="32"/>
       <c r="D31" s="9"/>
@@ -3956,12 +3956,12 @@
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" ht="21" customHeight="1">
-      <c r="A32" s="81"/>
-      <c r="B32" s="97">
+      <c r="A32" s="102"/>
+      <c r="B32" s="68">
         <f>+B27+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="98" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="9"/>
@@ -3994,9 +3994,9 @@
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="1:15" ht="21" customHeight="1">
-      <c r="A33" s="81"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="95"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="99"/>
       <c r="D33" s="9">
         <v>1</v>
       </c>
@@ -4017,9 +4017,9 @@
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" ht="21" customHeight="1">
-      <c r="A34" s="81"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="95"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="99"/>
       <c r="D34" s="9">
         <f t="shared" ref="D34:D39" si="1">1+D33</f>
         <v>2</v>
@@ -4041,9 +4041,9 @@
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" ht="21" customHeight="1">
-      <c r="A35" s="81"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="95"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="99"/>
       <c r="D35" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4065,9 +4065,9 @@
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" ht="21" customHeight="1">
-      <c r="A36" s="81"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="95"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="99"/>
       <c r="D36" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4089,9 +4089,9 @@
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" ht="21" customHeight="1">
-      <c r="A37" s="81"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="95"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="99"/>
       <c r="D37" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4113,9 +4113,9 @@
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:15" ht="21" customHeight="1">
-      <c r="A38" s="81"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="95"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="99"/>
       <c r="D38" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4137,9 +4137,9 @@
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" ht="21" customHeight="1">
-      <c r="A39" s="81"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="96"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="100"/>
       <c r="D39" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4161,7 +4161,7 @@
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="81"/>
+      <c r="A40" s="102"/>
       <c r="B40" s="43"/>
       <c r="C40" s="34"/>
       <c r="D40" s="9"/>
@@ -4178,12 +4178,12 @@
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:15" ht="21" customHeight="1">
-      <c r="A41" s="81"/>
-      <c r="B41" s="97">
+      <c r="A41" s="102"/>
+      <c r="B41" s="68">
         <f>+B32+1</f>
         <v>5</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="98" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="9"/>
@@ -4216,9 +4216,9 @@
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="1:15" ht="21" customHeight="1">
-      <c r="A42" s="81"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="95"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="9">
         <v>1</v>
       </c>
@@ -4239,9 +4239,9 @@
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="1:15" ht="21" customHeight="1">
-      <c r="A43" s="81"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="95"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="9">
         <f>1+D42</f>
         <v>2</v>
@@ -4263,9 +4263,9 @@
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="1:15" ht="21" customHeight="1">
-      <c r="A44" s="81"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="95"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="9">
         <f>1+D43</f>
         <v>3</v>
@@ -4287,9 +4287,9 @@
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="1:15" ht="21" customHeight="1">
-      <c r="A45" s="81"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="95"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="99"/>
       <c r="D45" s="9">
         <f>1+D44</f>
         <v>4</v>
@@ -4311,9 +4311,9 @@
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="1:15" ht="21" customHeight="1">
-      <c r="A46" s="81"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="96"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="100"/>
       <c r="D46" s="9">
         <f>1+D45</f>
         <v>5</v>
@@ -4335,7 +4335,7 @@
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="1:15" ht="21" customHeight="1">
-      <c r="A47" s="81"/>
+      <c r="A47" s="102"/>
       <c r="B47" s="43"/>
       <c r="C47" s="32"/>
       <c r="D47" s="9"/>
@@ -4352,12 +4352,12 @@
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:15" ht="21" customHeight="1">
-      <c r="A48" s="81"/>
-      <c r="B48" s="97">
+      <c r="A48" s="102"/>
+      <c r="B48" s="68">
         <f>+B41+1</f>
         <v>6</v>
       </c>
-      <c r="C48" s="94" t="s">
+      <c r="C48" s="98" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="9"/>
@@ -4390,9 +4390,9 @@
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:15" ht="21" customHeight="1">
-      <c r="A49" s="81"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="95"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="9">
         <v>1</v>
       </c>
@@ -4413,9 +4413,9 @@
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="1:15" ht="21" customHeight="1">
-      <c r="A50" s="81"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="95"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="99"/>
       <c r="D50" s="9">
         <f>1+D49</f>
         <v>2</v>
@@ -4437,9 +4437,9 @@
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="1:15" ht="21" customHeight="1">
-      <c r="A51" s="81"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="95"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="99"/>
       <c r="D51" s="9">
         <f>1+D50</f>
         <v>3</v>
@@ -4461,9 +4461,9 @@
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="1:15" ht="21" customHeight="1">
-      <c r="A52" s="81"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="95"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="99"/>
       <c r="D52" s="9">
         <f>1+D51</f>
         <v>4</v>
@@ -4485,9 +4485,9 @@
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="1:15" ht="21" customHeight="1">
-      <c r="A53" s="81"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="95"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="99"/>
       <c r="D53" s="9">
         <f>1+D52</f>
         <v>5</v>
@@ -4509,9 +4509,9 @@
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="1:15" ht="21" customHeight="1">
-      <c r="A54" s="81"/>
-      <c r="B54" s="99"/>
-      <c r="C54" s="96"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="9">
         <f>1+D53</f>
         <v>6</v>
@@ -4533,7 +4533,7 @@
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="81"/>
+      <c r="A55" s="102"/>
       <c r="B55" s="43"/>
       <c r="C55" s="34"/>
       <c r="D55" s="9"/>
@@ -4550,12 +4550,12 @@
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="1:15" ht="21" customHeight="1">
-      <c r="A56" s="81"/>
-      <c r="B56" s="97">
+      <c r="A56" s="102"/>
+      <c r="B56" s="68">
         <f>+B48+1</f>
         <v>7</v>
       </c>
-      <c r="C56" s="94" t="s">
+      <c r="C56" s="98" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="9"/>
@@ -4588,9 +4588,9 @@
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:15" ht="21" customHeight="1">
-      <c r="A57" s="81"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="95"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="99"/>
       <c r="D57" s="9">
         <v>1</v>
       </c>
@@ -4611,9 +4611,9 @@
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="1:15" ht="21" customHeight="1">
-      <c r="A58" s="81"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="95"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="99"/>
       <c r="D58" s="9">
         <f>1+D57</f>
         <v>2</v>
@@ -4635,9 +4635,9 @@
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="1:15" ht="21" customHeight="1">
-      <c r="A59" s="81"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="95"/>
+      <c r="A59" s="102"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="9">
         <f t="shared" ref="D59:D64" si="2">1+D58</f>
         <v>3</v>
@@ -4659,9 +4659,9 @@
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="1:15" ht="21" customHeight="1">
-      <c r="A60" s="81"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="95"/>
+      <c r="A60" s="102"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="99"/>
       <c r="D60" s="9">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -4683,9 +4683,9 @@
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="1:15" ht="21" customHeight="1">
-      <c r="A61" s="81"/>
-      <c r="B61" s="98"/>
-      <c r="C61" s="95"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="99"/>
       <c r="D61" s="9">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -4707,9 +4707,9 @@
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1">
-      <c r="A62" s="81"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="95"/>
+      <c r="A62" s="102"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="99"/>
       <c r="D62" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4731,9 +4731,9 @@
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="1:15" ht="21" customHeight="1">
-      <c r="A63" s="81"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="95"/>
+      <c r="A63" s="102"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="99"/>
       <c r="D63" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4755,9 +4755,9 @@
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="1:15" ht="21" customHeight="1">
-      <c r="A64" s="82"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="96"/>
+      <c r="A64" s="103"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="100"/>
       <c r="D64" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -4796,14 +4796,14 @@
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="1:15" ht="21" customHeight="1">
-      <c r="A66" s="83" t="s">
+      <c r="A66" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="103">
+      <c r="B66" s="92">
         <f>+B56+1</f>
         <v>8</v>
       </c>
-      <c r="C66" s="100" t="s">
+      <c r="C66" s="89" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="11"/>
@@ -4836,9 +4836,9 @@
       <c r="O66" s="20"/>
     </row>
     <row r="67" spans="1:15" ht="21" customHeight="1">
-      <c r="A67" s="84"/>
-      <c r="B67" s="104"/>
-      <c r="C67" s="101"/>
+      <c r="A67" s="105"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="90"/>
       <c r="D67" s="21">
         <v>1</v>
       </c>
@@ -4859,9 +4859,9 @@
       <c r="O67" s="20"/>
     </row>
     <row r="68" spans="1:15" ht="21" customHeight="1">
-      <c r="A68" s="84"/>
-      <c r="B68" s="104"/>
-      <c r="C68" s="101"/>
+      <c r="A68" s="105"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="90"/>
       <c r="D68" s="21">
         <f>1+D67</f>
         <v>2</v>
@@ -4883,9 +4883,9 @@
       <c r="O68" s="20"/>
     </row>
     <row r="69" spans="1:15" ht="21" customHeight="1">
-      <c r="A69" s="84"/>
-      <c r="B69" s="104"/>
-      <c r="C69" s="101"/>
+      <c r="A69" s="105"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="21">
         <f t="shared" ref="D69:D80" si="3">1+D68</f>
         <v>3</v>
@@ -4907,9 +4907,9 @@
       <c r="O69" s="20"/>
     </row>
     <row r="70" spans="1:15" ht="21" customHeight="1">
-      <c r="A70" s="84"/>
-      <c r="B70" s="104"/>
-      <c r="C70" s="101"/>
+      <c r="A70" s="105"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="21">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4931,9 +4931,9 @@
       <c r="O70" s="20"/>
     </row>
     <row r="71" spans="1:15" ht="21" customHeight="1">
-      <c r="A71" s="84"/>
-      <c r="B71" s="104"/>
-      <c r="C71" s="101"/>
+      <c r="A71" s="105"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="21">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4955,9 +4955,9 @@
       <c r="O71" s="20"/>
     </row>
     <row r="72" spans="1:15" ht="21" customHeight="1">
-      <c r="A72" s="84"/>
-      <c r="B72" s="104"/>
-      <c r="C72" s="101"/>
+      <c r="A72" s="105"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="21">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -4979,9 +4979,9 @@
       <c r="O72" s="20"/>
     </row>
     <row r="73" spans="1:15" ht="21" customHeight="1">
-      <c r="A73" s="84"/>
-      <c r="B73" s="104"/>
-      <c r="C73" s="101"/>
+      <c r="A73" s="105"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="90"/>
       <c r="D73" s="21">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5003,9 +5003,9 @@
       <c r="O73" s="20"/>
     </row>
     <row r="74" spans="1:15" ht="21" customHeight="1">
-      <c r="A74" s="84"/>
-      <c r="B74" s="104"/>
-      <c r="C74" s="101"/>
+      <c r="A74" s="105"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="90"/>
       <c r="D74" s="21">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5027,9 +5027,9 @@
       <c r="O74" s="20"/>
     </row>
     <row r="75" spans="1:15" ht="21" customHeight="1">
-      <c r="A75" s="84"/>
-      <c r="B75" s="104"/>
-      <c r="C75" s="101"/>
+      <c r="A75" s="105"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="21">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -5051,9 +5051,9 @@
       <c r="O75" s="20"/>
     </row>
     <row r="76" spans="1:15" ht="21" customHeight="1">
-      <c r="A76" s="84"/>
-      <c r="B76" s="104"/>
-      <c r="C76" s="101"/>
+      <c r="A76" s="105"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="21">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -5075,9 +5075,9 @@
       <c r="O76" s="20"/>
     </row>
     <row r="77" spans="1:15" ht="21" customHeight="1">
-      <c r="A77" s="84"/>
-      <c r="B77" s="104"/>
-      <c r="C77" s="101"/>
+      <c r="A77" s="105"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="21">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -5099,9 +5099,9 @@
       <c r="O77" s="20"/>
     </row>
     <row r="78" spans="1:15" ht="21" customHeight="1">
-      <c r="A78" s="84"/>
-      <c r="B78" s="104"/>
-      <c r="C78" s="101"/>
+      <c r="A78" s="105"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="21">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -5123,9 +5123,9 @@
       <c r="O78" s="20"/>
     </row>
     <row r="79" spans="1:15" ht="21" customHeight="1">
-      <c r="A79" s="84"/>
-      <c r="B79" s="104"/>
-      <c r="C79" s="101"/>
+      <c r="A79" s="105"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="90"/>
       <c r="D79" s="21">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -5147,9 +5147,9 @@
       <c r="O79" s="20"/>
     </row>
     <row r="80" spans="1:15" ht="21" customHeight="1">
-      <c r="A80" s="84"/>
-      <c r="B80" s="105"/>
-      <c r="C80" s="102"/>
+      <c r="A80" s="105"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="91"/>
       <c r="D80" s="21">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -5171,7 +5171,7 @@
       <c r="O80" s="20"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="84"/>
+      <c r="A81" s="105"/>
       <c r="B81" s="44"/>
       <c r="C81" s="35"/>
       <c r="D81" s="11"/>
@@ -5188,12 +5188,12 @@
       <c r="O81" s="20"/>
     </row>
     <row r="82" spans="1:15" ht="21" customHeight="1">
-      <c r="A82" s="84"/>
-      <c r="B82" s="103">
+      <c r="A82" s="105"/>
+      <c r="B82" s="92">
         <f>+B66+1</f>
         <v>9</v>
       </c>
-      <c r="C82" s="100" t="s">
+      <c r="C82" s="89" t="s">
         <v>38</v>
       </c>
       <c r="D82" s="11"/>
@@ -5226,9 +5226,9 @@
       <c r="O82" s="20"/>
     </row>
     <row r="83" spans="1:15" ht="21" customHeight="1">
-      <c r="A83" s="84"/>
-      <c r="B83" s="104"/>
-      <c r="C83" s="101"/>
+      <c r="A83" s="105"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="90"/>
       <c r="D83" s="21">
         <v>1</v>
       </c>
@@ -5249,9 +5249,9 @@
       <c r="O83" s="20"/>
     </row>
     <row r="84" spans="1:15" ht="21" customHeight="1">
-      <c r="A84" s="84"/>
-      <c r="B84" s="104"/>
-      <c r="C84" s="101"/>
+      <c r="A84" s="105"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="90"/>
       <c r="D84" s="21">
         <f>1+D83</f>
         <v>2</v>
@@ -5273,9 +5273,9 @@
       <c r="O84" s="20"/>
     </row>
     <row r="85" spans="1:15" ht="21" customHeight="1">
-      <c r="A85" s="84"/>
-      <c r="B85" s="105"/>
-      <c r="C85" s="102"/>
+      <c r="A85" s="105"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="91"/>
       <c r="D85" s="21">
         <f>1+D84</f>
         <v>3</v>
@@ -5297,7 +5297,7 @@
       <c r="O85" s="20"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="84"/>
+      <c r="A86" s="105"/>
       <c r="B86" s="44"/>
       <c r="C86" s="35"/>
       <c r="D86" s="21"/>
@@ -5314,12 +5314,12 @@
       <c r="O86" s="20"/>
     </row>
     <row r="87" spans="1:15" ht="21" customHeight="1">
-      <c r="A87" s="84"/>
-      <c r="B87" s="103">
+      <c r="A87" s="105"/>
+      <c r="B87" s="92">
         <f>+B82+1</f>
         <v>10</v>
       </c>
-      <c r="C87" s="100" t="s">
+      <c r="C87" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="11"/>
@@ -5352,9 +5352,9 @@
       <c r="O87" s="20"/>
     </row>
     <row r="88" spans="1:15" ht="21" customHeight="1">
-      <c r="A88" s="84"/>
-      <c r="B88" s="104"/>
-      <c r="C88" s="101"/>
+      <c r="A88" s="105"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="90"/>
       <c r="D88" s="21">
         <v>1</v>
       </c>
@@ -5375,9 +5375,9 @@
       <c r="O88" s="20"/>
     </row>
     <row r="89" spans="1:15" ht="21" customHeight="1">
-      <c r="A89" s="84"/>
-      <c r="B89" s="104"/>
-      <c r="C89" s="101"/>
+      <c r="A89" s="105"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="90"/>
       <c r="D89" s="21">
         <f>1+D88</f>
         <v>2</v>
@@ -5399,9 +5399,9 @@
       <c r="O89" s="20"/>
     </row>
     <row r="90" spans="1:15" ht="21" customHeight="1">
-      <c r="A90" s="84"/>
-      <c r="B90" s="104"/>
-      <c r="C90" s="101"/>
+      <c r="A90" s="105"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="90"/>
       <c r="D90" s="21">
         <f>1+D89</f>
         <v>3</v>
@@ -5423,9 +5423,9 @@
       <c r="O90" s="20"/>
     </row>
     <row r="91" spans="1:15" ht="21" customHeight="1">
-      <c r="A91" s="84"/>
-      <c r="B91" s="105"/>
-      <c r="C91" s="102"/>
+      <c r="A91" s="105"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="91"/>
       <c r="D91" s="21">
         <f>1+D90</f>
         <v>4</v>
@@ -5447,7 +5447,7 @@
       <c r="O91" s="20"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="84"/>
+      <c r="A92" s="105"/>
       <c r="B92" s="44"/>
       <c r="C92" s="35"/>
       <c r="D92" s="11"/>
@@ -5464,12 +5464,12 @@
       <c r="O92" s="20"/>
     </row>
     <row r="93" spans="1:15" ht="21" customHeight="1">
-      <c r="A93" s="84"/>
-      <c r="B93" s="103">
+      <c r="A93" s="105"/>
+      <c r="B93" s="92">
         <f>+B87+1</f>
         <v>11</v>
       </c>
-      <c r="C93" s="106" t="s">
+      <c r="C93" s="95" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="36"/>
@@ -5502,9 +5502,9 @@
       <c r="O93" s="23"/>
     </row>
     <row r="94" spans="1:15" ht="21" customHeight="1">
-      <c r="A94" s="84"/>
-      <c r="B94" s="104"/>
-      <c r="C94" s="107"/>
+      <c r="A94" s="105"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="96"/>
       <c r="D94" s="21">
         <v>1</v>
       </c>
@@ -5525,9 +5525,9 @@
       <c r="O94" s="23"/>
     </row>
     <row r="95" spans="1:15" ht="21" customHeight="1">
-      <c r="A95" s="84"/>
-      <c r="B95" s="104"/>
-      <c r="C95" s="107"/>
+      <c r="A95" s="105"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="96"/>
       <c r="D95" s="21">
         <f>1+D94</f>
         <v>2</v>
@@ -5549,9 +5549,9 @@
       <c r="O95" s="23"/>
     </row>
     <row r="96" spans="1:15" ht="21" customHeight="1">
-      <c r="A96" s="84"/>
-      <c r="B96" s="104"/>
-      <c r="C96" s="107"/>
+      <c r="A96" s="105"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="96"/>
       <c r="D96" s="21">
         <f t="shared" ref="D96:D101" si="4">1+D95</f>
         <v>3</v>
@@ -5573,9 +5573,9 @@
       <c r="O96" s="23"/>
     </row>
     <row r="97" spans="1:15" ht="21" customHeight="1">
-      <c r="A97" s="84"/>
-      <c r="B97" s="104"/>
-      <c r="C97" s="107"/>
+      <c r="A97" s="105"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="96"/>
       <c r="D97" s="21">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -5597,9 +5597,9 @@
       <c r="O97" s="23"/>
     </row>
     <row r="98" spans="1:15" ht="21" customHeight="1">
-      <c r="A98" s="84"/>
-      <c r="B98" s="104"/>
-      <c r="C98" s="107"/>
+      <c r="A98" s="105"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="96"/>
       <c r="D98" s="21">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -5621,9 +5621,9 @@
       <c r="O98" s="23"/>
     </row>
     <row r="99" spans="1:15" ht="21" customHeight="1">
-      <c r="A99" s="84"/>
-      <c r="B99" s="104"/>
-      <c r="C99" s="107"/>
+      <c r="A99" s="105"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="96"/>
       <c r="D99" s="21">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -5645,9 +5645,9 @@
       <c r="O99" s="23"/>
     </row>
     <row r="100" spans="1:15" ht="21" customHeight="1">
-      <c r="A100" s="84"/>
-      <c r="B100" s="104"/>
-      <c r="C100" s="107"/>
+      <c r="A100" s="105"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="96"/>
       <c r="D100" s="21">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -5669,9 +5669,9 @@
       <c r="O100" s="23"/>
     </row>
     <row r="101" spans="1:15" ht="21" customHeight="1">
-      <c r="A101" s="84"/>
-      <c r="B101" s="105"/>
-      <c r="C101" s="108"/>
+      <c r="A101" s="105"/>
+      <c r="B101" s="94"/>
+      <c r="C101" s="97"/>
       <c r="D101" s="21">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -5693,7 +5693,7 @@
       <c r="O101" s="23"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="84"/>
+      <c r="A102" s="105"/>
       <c r="B102" s="44"/>
       <c r="C102" s="37"/>
       <c r="D102" s="36"/>
@@ -5710,12 +5710,12 @@
       <c r="O102" s="23"/>
     </row>
     <row r="103" spans="1:15" ht="21" customHeight="1">
-      <c r="A103" s="84"/>
-      <c r="B103" s="103">
+      <c r="A103" s="105"/>
+      <c r="B103" s="92">
         <f>+B93+1</f>
         <v>12</v>
       </c>
-      <c r="C103" s="100" t="s">
+      <c r="C103" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="11"/>
@@ -5748,9 +5748,9 @@
       <c r="O103" s="20"/>
     </row>
     <row r="104" spans="1:15" ht="21" customHeight="1">
-      <c r="A104" s="84"/>
-      <c r="B104" s="104"/>
-      <c r="C104" s="101"/>
+      <c r="A104" s="105"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="90"/>
       <c r="D104" s="21">
         <v>1</v>
       </c>
@@ -5771,9 +5771,9 @@
       <c r="O104" s="20"/>
     </row>
     <row r="105" spans="1:15" ht="21" customHeight="1">
-      <c r="A105" s="84"/>
-      <c r="B105" s="104"/>
-      <c r="C105" s="101"/>
+      <c r="A105" s="105"/>
+      <c r="B105" s="93"/>
+      <c r="C105" s="90"/>
       <c r="D105" s="21">
         <f>1+D104</f>
         <v>2</v>
@@ -5795,9 +5795,9 @@
       <c r="O105" s="20"/>
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1">
-      <c r="A106" s="84"/>
-      <c r="B106" s="104"/>
-      <c r="C106" s="101"/>
+      <c r="A106" s="105"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="90"/>
       <c r="D106" s="21">
         <f>1+D105</f>
         <v>3</v>
@@ -5819,9 +5819,9 @@
       <c r="O106" s="20"/>
     </row>
     <row r="107" spans="1:15" ht="21" customHeight="1">
-      <c r="A107" s="84"/>
-      <c r="B107" s="104"/>
-      <c r="C107" s="101"/>
+      <c r="A107" s="105"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="90"/>
       <c r="D107" s="21">
         <f>1+D106</f>
         <v>4</v>
@@ -5843,9 +5843,9 @@
       <c r="O107" s="20"/>
     </row>
     <row r="108" spans="1:15" ht="21" customHeight="1">
-      <c r="A108" s="84"/>
-      <c r="B108" s="105"/>
-      <c r="C108" s="102"/>
+      <c r="A108" s="105"/>
+      <c r="B108" s="94"/>
+      <c r="C108" s="91"/>
       <c r="D108" s="21">
         <f>1+D107</f>
         <v>5</v>
@@ -5867,7 +5867,7 @@
       <c r="O108" s="20"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="84"/>
+      <c r="A109" s="105"/>
       <c r="B109" s="44"/>
       <c r="C109" s="35"/>
       <c r="D109" s="11"/>
@@ -5884,12 +5884,12 @@
       <c r="O109" s="20"/>
     </row>
     <row r="110" spans="1:15" ht="21" customHeight="1">
-      <c r="A110" s="84"/>
-      <c r="B110" s="103">
+      <c r="A110" s="105"/>
+      <c r="B110" s="92">
         <f>+B103+1</f>
         <v>13</v>
       </c>
-      <c r="C110" s="100" t="s">
+      <c r="C110" s="89" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="11"/>
@@ -5922,9 +5922,9 @@
       <c r="O110" s="20"/>
     </row>
     <row r="111" spans="1:15" ht="21" customHeight="1">
-      <c r="A111" s="84"/>
-      <c r="B111" s="104"/>
-      <c r="C111" s="101"/>
+      <c r="A111" s="105"/>
+      <c r="B111" s="93"/>
+      <c r="C111" s="90"/>
       <c r="D111" s="21">
         <v>1</v>
       </c>
@@ -5945,9 +5945,9 @@
       <c r="O111" s="20"/>
     </row>
     <row r="112" spans="1:15" ht="21" customHeight="1">
-      <c r="A112" s="84"/>
-      <c r="B112" s="104"/>
-      <c r="C112" s="101"/>
+      <c r="A112" s="105"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="90"/>
       <c r="D112" s="21">
         <f>1+D111</f>
         <v>2</v>
@@ -5969,9 +5969,9 @@
       <c r="O112" s="20"/>
     </row>
     <row r="113" spans="1:15" ht="21" customHeight="1">
-      <c r="A113" s="84"/>
-      <c r="B113" s="104"/>
-      <c r="C113" s="101"/>
+      <c r="A113" s="105"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="90"/>
       <c r="D113" s="21">
         <f>1+D112</f>
         <v>3</v>
@@ -5993,9 +5993,9 @@
       <c r="O113" s="20"/>
     </row>
     <row r="114" spans="1:15" ht="21" customHeight="1">
-      <c r="A114" s="84"/>
-      <c r="B114" s="105"/>
-      <c r="C114" s="102"/>
+      <c r="A114" s="105"/>
+      <c r="B114" s="94"/>
+      <c r="C114" s="91"/>
       <c r="D114" s="21">
         <f>1+D113</f>
         <v>4</v>
@@ -6017,7 +6017,7 @@
       <c r="O114" s="20"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="84"/>
+      <c r="A115" s="105"/>
       <c r="B115" s="44"/>
       <c r="C115" s="35"/>
       <c r="D115" s="11"/>
@@ -6034,12 +6034,12 @@
       <c r="O115" s="20"/>
     </row>
     <row r="116" spans="1:15" ht="21" customHeight="1">
-      <c r="A116" s="84"/>
-      <c r="B116" s="103">
+      <c r="A116" s="105"/>
+      <c r="B116" s="92">
         <f>+B110+1</f>
         <v>14</v>
       </c>
-      <c r="C116" s="106" t="s">
+      <c r="C116" s="95" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="36"/>
@@ -6072,9 +6072,9 @@
       <c r="O116" s="23"/>
     </row>
     <row r="117" spans="1:15" ht="21" customHeight="1">
-      <c r="A117" s="84"/>
-      <c r="B117" s="104"/>
-      <c r="C117" s="107"/>
+      <c r="A117" s="105"/>
+      <c r="B117" s="93"/>
+      <c r="C117" s="96"/>
       <c r="D117" s="21">
         <v>1</v>
       </c>
@@ -6095,9 +6095,9 @@
       <c r="O117" s="23"/>
     </row>
     <row r="118" spans="1:15" ht="21" customHeight="1">
-      <c r="A118" s="84"/>
-      <c r="B118" s="104"/>
-      <c r="C118" s="107"/>
+      <c r="A118" s="105"/>
+      <c r="B118" s="93"/>
+      <c r="C118" s="96"/>
       <c r="D118" s="21">
         <f>1+D117</f>
         <v>2</v>
@@ -6119,9 +6119,9 @@
       <c r="O118" s="23"/>
     </row>
     <row r="119" spans="1:15" ht="21" customHeight="1">
-      <c r="A119" s="84"/>
-      <c r="B119" s="104"/>
-      <c r="C119" s="107"/>
+      <c r="A119" s="105"/>
+      <c r="B119" s="93"/>
+      <c r="C119" s="96"/>
       <c r="D119" s="21">
         <f t="shared" ref="D119:D128" si="5">1+D118</f>
         <v>3</v>
@@ -6143,9 +6143,9 @@
       <c r="O119" s="23"/>
     </row>
     <row r="120" spans="1:15" ht="21" customHeight="1">
-      <c r="A120" s="84"/>
-      <c r="B120" s="104"/>
-      <c r="C120" s="107"/>
+      <c r="A120" s="105"/>
+      <c r="B120" s="93"/>
+      <c r="C120" s="96"/>
       <c r="D120" s="21">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -6167,9 +6167,9 @@
       <c r="O120" s="23"/>
     </row>
     <row r="121" spans="1:15" ht="21" customHeight="1">
-      <c r="A121" s="84"/>
-      <c r="B121" s="104"/>
-      <c r="C121" s="107"/>
+      <c r="A121" s="105"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="96"/>
       <c r="D121" s="21">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -6191,9 +6191,9 @@
       <c r="O121" s="23"/>
     </row>
     <row r="122" spans="1:15" ht="21" customHeight="1">
-      <c r="A122" s="84"/>
-      <c r="B122" s="104"/>
-      <c r="C122" s="107"/>
+      <c r="A122" s="105"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="96"/>
       <c r="D122" s="21">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -6215,9 +6215,9 @@
       <c r="O122" s="23"/>
     </row>
     <row r="123" spans="1:15" ht="21" customHeight="1">
-      <c r="A123" s="84"/>
-      <c r="B123" s="104"/>
-      <c r="C123" s="107"/>
+      <c r="A123" s="105"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="96"/>
       <c r="D123" s="21">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -6239,9 +6239,9 @@
       <c r="O123" s="23"/>
     </row>
     <row r="124" spans="1:15" ht="21" customHeight="1">
-      <c r="A124" s="84"/>
-      <c r="B124" s="104"/>
-      <c r="C124" s="107"/>
+      <c r="A124" s="105"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="96"/>
       <c r="D124" s="21">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -6263,9 +6263,9 @@
       <c r="O124" s="23"/>
     </row>
     <row r="125" spans="1:15" ht="21" customHeight="1">
-      <c r="A125" s="84"/>
-      <c r="B125" s="104"/>
-      <c r="C125" s="107"/>
+      <c r="A125" s="105"/>
+      <c r="B125" s="93"/>
+      <c r="C125" s="96"/>
       <c r="D125" s="21">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -6287,9 +6287,9 @@
       <c r="O125" s="23"/>
     </row>
     <row r="126" spans="1:15" ht="21" customHeight="1">
-      <c r="A126" s="84"/>
-      <c r="B126" s="104"/>
-      <c r="C126" s="107"/>
+      <c r="A126" s="105"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="96"/>
       <c r="D126" s="21">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -6311,9 +6311,9 @@
       <c r="O126" s="23"/>
     </row>
     <row r="127" spans="1:15" ht="21" customHeight="1">
-      <c r="A127" s="84"/>
-      <c r="B127" s="104"/>
-      <c r="C127" s="107"/>
+      <c r="A127" s="105"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="96"/>
       <c r="D127" s="21">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -6335,9 +6335,9 @@
       <c r="O127" s="23"/>
     </row>
     <row r="128" spans="1:15" ht="21" customHeight="1">
-      <c r="A128" s="85"/>
-      <c r="B128" s="105"/>
-      <c r="C128" s="108"/>
+      <c r="A128" s="106"/>
+      <c r="B128" s="94"/>
+      <c r="C128" s="97"/>
       <c r="D128" s="21">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -6376,14 +6376,14 @@
       <c r="O129" s="23"/>
     </row>
     <row r="130" spans="1:15" ht="21" customHeight="1">
-      <c r="A130" s="86">
+      <c r="A130" s="107">
         <v>0</v>
       </c>
-      <c r="B130" s="112">
+      <c r="B130" s="85">
         <f>+B116+1</f>
         <v>15</v>
       </c>
-      <c r="C130" s="109" t="s">
+      <c r="C130" s="83" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="13"/>
@@ -6416,9 +6416,9 @@
       <c r="O130" s="6"/>
     </row>
     <row r="131" spans="1:15" ht="21" customHeight="1">
-      <c r="A131" s="87"/>
-      <c r="B131" s="113"/>
-      <c r="C131" s="110"/>
+      <c r="A131" s="108"/>
+      <c r="B131" s="88"/>
+      <c r="C131" s="87"/>
       <c r="D131" s="13">
         <v>1</v>
       </c>
@@ -6439,9 +6439,9 @@
       <c r="O131" s="6"/>
     </row>
     <row r="132" spans="1:15" ht="21" customHeight="1">
-      <c r="A132" s="87"/>
-      <c r="B132" s="113"/>
-      <c r="C132" s="110"/>
+      <c r="A132" s="108"/>
+      <c r="B132" s="88"/>
+      <c r="C132" s="87"/>
       <c r="D132" s="13">
         <f>1+D131</f>
         <v>2</v>
@@ -6463,9 +6463,9 @@
       <c r="O132" s="6"/>
     </row>
     <row r="133" spans="1:15" ht="21" customHeight="1">
-      <c r="A133" s="87"/>
-      <c r="B133" s="113"/>
-      <c r="C133" s="110"/>
+      <c r="A133" s="108"/>
+      <c r="B133" s="88"/>
+      <c r="C133" s="87"/>
       <c r="D133" s="13">
         <f>1+D132</f>
         <v>3</v>
@@ -6487,9 +6487,9 @@
       <c r="O133" s="6"/>
     </row>
     <row r="134" spans="1:15" ht="21" customHeight="1">
-      <c r="A134" s="87"/>
-      <c r="B134" s="113"/>
-      <c r="C134" s="110"/>
+      <c r="A134" s="108"/>
+      <c r="B134" s="88"/>
+      <c r="C134" s="87"/>
       <c r="D134" s="13">
         <f>1+D133</f>
         <v>4</v>
@@ -6511,9 +6511,9 @@
       <c r="O134" s="6"/>
     </row>
     <row r="135" spans="1:15" ht="21" customHeight="1">
-      <c r="A135" s="87"/>
-      <c r="B135" s="113"/>
-      <c r="C135" s="110"/>
+      <c r="A135" s="108"/>
+      <c r="B135" s="88"/>
+      <c r="C135" s="87"/>
       <c r="D135" s="13">
         <f>1+D134</f>
         <v>5</v>
@@ -6535,9 +6535,9 @@
       <c r="O135" s="6"/>
     </row>
     <row r="136" spans="1:15" ht="21" customHeight="1">
-      <c r="A136" s="87"/>
-      <c r="B136" s="114"/>
-      <c r="C136" s="111"/>
+      <c r="A136" s="108"/>
+      <c r="B136" s="86"/>
+      <c r="C136" s="84"/>
       <c r="D136" s="13">
         <f>1+D135</f>
         <v>6</v>
@@ -6559,7 +6559,7 @@
       <c r="O136" s="6"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="87"/>
+      <c r="A137" s="108"/>
       <c r="B137" s="45"/>
       <c r="C137" s="38"/>
       <c r="D137" s="13"/>
@@ -6576,12 +6576,12 @@
       <c r="O137" s="6"/>
     </row>
     <row r="138" spans="1:15" ht="21" customHeight="1">
-      <c r="A138" s="87"/>
-      <c r="B138" s="112">
+      <c r="A138" s="108"/>
+      <c r="B138" s="85">
         <f>+B130+1</f>
         <v>16</v>
       </c>
-      <c r="C138" s="109" t="s">
+      <c r="C138" s="83" t="s">
         <v>16</v>
       </c>
       <c r="D138" s="13"/>
@@ -6614,9 +6614,9 @@
       <c r="O138" s="6"/>
     </row>
     <row r="139" spans="1:15" ht="21" customHeight="1">
-      <c r="A139" s="87"/>
-      <c r="B139" s="113"/>
-      <c r="C139" s="110"/>
+      <c r="A139" s="108"/>
+      <c r="B139" s="88"/>
+      <c r="C139" s="87"/>
       <c r="D139" s="13">
         <v>1</v>
       </c>
@@ -6637,9 +6637,9 @@
       <c r="O139" s="6"/>
     </row>
     <row r="140" spans="1:15" ht="21" customHeight="1">
-      <c r="A140" s="87"/>
-      <c r="B140" s="113"/>
-      <c r="C140" s="110"/>
+      <c r="A140" s="108"/>
+      <c r="B140" s="88"/>
+      <c r="C140" s="87"/>
       <c r="D140" s="13">
         <f>1+D139</f>
         <v>2</v>
@@ -6661,9 +6661,9 @@
       <c r="O140" s="6"/>
     </row>
     <row r="141" spans="1:15" ht="21" customHeight="1">
-      <c r="A141" s="87"/>
-      <c r="B141" s="113"/>
-      <c r="C141" s="110"/>
+      <c r="A141" s="108"/>
+      <c r="B141" s="88"/>
+      <c r="C141" s="87"/>
       <c r="D141" s="13">
         <f t="shared" ref="D141:D149" si="6">1+D140</f>
         <v>3</v>
@@ -6685,9 +6685,9 @@
       <c r="O141" s="6"/>
     </row>
     <row r="142" spans="1:15" ht="21" customHeight="1">
-      <c r="A142" s="87"/>
-      <c r="B142" s="113"/>
-      <c r="C142" s="110"/>
+      <c r="A142" s="108"/>
+      <c r="B142" s="88"/>
+      <c r="C142" s="87"/>
       <c r="D142" s="13">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -6709,9 +6709,9 @@
       <c r="O142" s="6"/>
     </row>
     <row r="143" spans="1:15" ht="21" customHeight="1">
-      <c r="A143" s="87"/>
-      <c r="B143" s="113"/>
-      <c r="C143" s="110"/>
+      <c r="A143" s="108"/>
+      <c r="B143" s="88"/>
+      <c r="C143" s="87"/>
       <c r="D143" s="13">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -6733,9 +6733,9 @@
       <c r="O143" s="6"/>
     </row>
     <row r="144" spans="1:15" ht="21" customHeight="1">
-      <c r="A144" s="87"/>
-      <c r="B144" s="113"/>
-      <c r="C144" s="110"/>
+      <c r="A144" s="108"/>
+      <c r="B144" s="88"/>
+      <c r="C144" s="87"/>
       <c r="D144" s="13">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -6757,9 +6757,9 @@
       <c r="O144" s="6"/>
     </row>
     <row r="145" spans="1:15" ht="21" customHeight="1">
-      <c r="A145" s="87"/>
-      <c r="B145" s="113"/>
-      <c r="C145" s="110"/>
+      <c r="A145" s="108"/>
+      <c r="B145" s="88"/>
+      <c r="C145" s="87"/>
       <c r="D145" s="13">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -6781,9 +6781,9 @@
       <c r="O145" s="6"/>
     </row>
     <row r="146" spans="1:15" ht="21" customHeight="1">
-      <c r="A146" s="87"/>
-      <c r="B146" s="113"/>
-      <c r="C146" s="110"/>
+      <c r="A146" s="108"/>
+      <c r="B146" s="88"/>
+      <c r="C146" s="87"/>
       <c r="D146" s="13">
         <f t="shared" si="6"/>
         <v>8</v>
@@ -6805,9 +6805,9 @@
       <c r="O146" s="6"/>
     </row>
     <row r="147" spans="1:15" ht="21" customHeight="1">
-      <c r="A147" s="87"/>
-      <c r="B147" s="113"/>
-      <c r="C147" s="110"/>
+      <c r="A147" s="108"/>
+      <c r="B147" s="88"/>
+      <c r="C147" s="87"/>
       <c r="D147" s="13">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -6829,9 +6829,9 @@
       <c r="O147" s="6"/>
     </row>
     <row r="148" spans="1:15" ht="21" customHeight="1">
-      <c r="A148" s="87"/>
-      <c r="B148" s="113"/>
-      <c r="C148" s="110"/>
+      <c r="A148" s="108"/>
+      <c r="B148" s="88"/>
+      <c r="C148" s="87"/>
       <c r="D148" s="13">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -6853,9 +6853,9 @@
       <c r="O148" s="6"/>
     </row>
     <row r="149" spans="1:15" ht="21" customHeight="1">
-      <c r="A149" s="87"/>
-      <c r="B149" s="114"/>
-      <c r="C149" s="111"/>
+      <c r="A149" s="108"/>
+      <c r="B149" s="86"/>
+      <c r="C149" s="84"/>
       <c r="D149" s="13">
         <f t="shared" si="6"/>
         <v>11</v>
@@ -6875,7 +6875,7 @@
       <c r="O149" s="6"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="87"/>
+      <c r="A150" s="108"/>
       <c r="B150" s="45"/>
       <c r="C150" s="38"/>
       <c r="D150" s="13"/>
@@ -6892,12 +6892,12 @@
       <c r="O150" s="6"/>
     </row>
     <row r="151" spans="1:15" ht="21" customHeight="1">
-      <c r="A151" s="87"/>
-      <c r="B151" s="112">
+      <c r="A151" s="108"/>
+      <c r="B151" s="85">
         <f>+B138+1</f>
         <v>17</v>
       </c>
-      <c r="C151" s="109" t="s">
+      <c r="C151" s="83" t="s">
         <v>29</v>
       </c>
       <c r="D151" s="13"/>
@@ -6930,9 +6930,9 @@
       <c r="O151" s="6"/>
     </row>
     <row r="152" spans="1:15" ht="21" customHeight="1">
-      <c r="A152" s="87"/>
-      <c r="B152" s="113"/>
-      <c r="C152" s="110"/>
+      <c r="A152" s="108"/>
+      <c r="B152" s="88"/>
+      <c r="C152" s="87"/>
       <c r="D152" s="13">
         <v>1</v>
       </c>
@@ -6953,9 +6953,9 @@
       <c r="O152" s="6"/>
     </row>
     <row r="153" spans="1:15" ht="21" customHeight="1">
-      <c r="A153" s="87"/>
-      <c r="B153" s="113"/>
-      <c r="C153" s="110"/>
+      <c r="A153" s="108"/>
+      <c r="B153" s="88"/>
+      <c r="C153" s="87"/>
       <c r="D153" s="13">
         <f>1+D152</f>
         <v>2</v>
@@ -6977,9 +6977,9 @@
       <c r="O153" s="6"/>
     </row>
     <row r="154" spans="1:15" ht="21" customHeight="1">
-      <c r="A154" s="87"/>
-      <c r="B154" s="113"/>
-      <c r="C154" s="110"/>
+      <c r="A154" s="108"/>
+      <c r="B154" s="88"/>
+      <c r="C154" s="87"/>
       <c r="D154" s="13">
         <f>1+D153</f>
         <v>3</v>
@@ -7001,9 +7001,9 @@
       <c r="O154" s="6"/>
     </row>
     <row r="155" spans="1:15" ht="21" customHeight="1">
-      <c r="A155" s="87"/>
-      <c r="B155" s="114"/>
-      <c r="C155" s="111"/>
+      <c r="A155" s="108"/>
+      <c r="B155" s="86"/>
+      <c r="C155" s="84"/>
       <c r="D155" s="13">
         <f>1+D154</f>
         <v>4</v>
@@ -7025,7 +7025,7 @@
       <c r="O155" s="6"/>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="87"/>
+      <c r="A156" s="108"/>
       <c r="B156" s="45"/>
       <c r="C156" s="38"/>
       <c r="D156" s="13"/>
@@ -7042,12 +7042,12 @@
       <c r="O156" s="6"/>
     </row>
     <row r="157" spans="1:15" ht="21" customHeight="1">
-      <c r="A157" s="87"/>
-      <c r="B157" s="112">
+      <c r="A157" s="108"/>
+      <c r="B157" s="85">
         <f>+B151+1</f>
         <v>18</v>
       </c>
-      <c r="C157" s="109" t="s">
+      <c r="C157" s="83" t="s">
         <v>21</v>
       </c>
       <c r="D157" s="13"/>
@@ -7080,9 +7080,9 @@
       <c r="O157" s="6"/>
     </row>
     <row r="158" spans="1:15" ht="21" customHeight="1">
-      <c r="A158" s="87"/>
-      <c r="B158" s="114"/>
-      <c r="C158" s="111"/>
+      <c r="A158" s="108"/>
+      <c r="B158" s="86"/>
+      <c r="C158" s="84"/>
       <c r="D158" s="13">
         <v>1</v>
       </c>
@@ -7103,7 +7103,7 @@
       <c r="O158" s="6"/>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="87"/>
+      <c r="A159" s="108"/>
       <c r="B159" s="45"/>
       <c r="C159" s="38"/>
       <c r="D159" s="13"/>
@@ -7120,12 +7120,12 @@
       <c r="O159" s="6"/>
     </row>
     <row r="160" spans="1:15" ht="21" customHeight="1">
-      <c r="A160" s="87"/>
-      <c r="B160" s="112">
+      <c r="A160" s="108"/>
+      <c r="B160" s="85">
         <f>+B157+1</f>
         <v>19</v>
       </c>
-      <c r="C160" s="109" t="s">
+      <c r="C160" s="83" t="s">
         <v>22</v>
       </c>
       <c r="D160" s="13"/>
@@ -7158,9 +7158,9 @@
       <c r="O160" s="6"/>
     </row>
     <row r="161" spans="1:15" ht="21" customHeight="1">
-      <c r="A161" s="87"/>
-      <c r="B161" s="113"/>
-      <c r="C161" s="110"/>
+      <c r="A161" s="108"/>
+      <c r="B161" s="88"/>
+      <c r="C161" s="87"/>
       <c r="D161" s="13">
         <v>1</v>
       </c>
@@ -7181,9 +7181,9 @@
       <c r="O161" s="6"/>
     </row>
     <row r="162" spans="1:15" ht="21" customHeight="1">
-      <c r="A162" s="87"/>
-      <c r="B162" s="113"/>
-      <c r="C162" s="110"/>
+      <c r="A162" s="108"/>
+      <c r="B162" s="88"/>
+      <c r="C162" s="87"/>
       <c r="D162" s="13">
         <f>1+D161</f>
         <v>2</v>
@@ -7205,9 +7205,9 @@
       <c r="O162" s="6"/>
     </row>
     <row r="163" spans="1:15" ht="21" customHeight="1">
-      <c r="A163" s="87"/>
-      <c r="B163" s="113"/>
-      <c r="C163" s="110"/>
+      <c r="A163" s="108"/>
+      <c r="B163" s="88"/>
+      <c r="C163" s="87"/>
       <c r="D163" s="13">
         <f t="shared" ref="D163:D168" si="7">1+D162</f>
         <v>3</v>
@@ -7229,9 +7229,9 @@
       <c r="O163" s="6"/>
     </row>
     <row r="164" spans="1:15" ht="21" customHeight="1">
-      <c r="A164" s="87"/>
-      <c r="B164" s="113"/>
-      <c r="C164" s="110"/>
+      <c r="A164" s="108"/>
+      <c r="B164" s="88"/>
+      <c r="C164" s="87"/>
       <c r="D164" s="13">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -7253,9 +7253,9 @@
       <c r="O164" s="6"/>
     </row>
     <row r="165" spans="1:15" ht="21" customHeight="1">
-      <c r="A165" s="87"/>
-      <c r="B165" s="113"/>
-      <c r="C165" s="110"/>
+      <c r="A165" s="108"/>
+      <c r="B165" s="88"/>
+      <c r="C165" s="87"/>
       <c r="D165" s="13">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -7277,9 +7277,9 @@
       <c r="O165" s="6"/>
     </row>
     <row r="166" spans="1:15" ht="21" customHeight="1">
-      <c r="A166" s="87"/>
-      <c r="B166" s="113"/>
-      <c r="C166" s="110"/>
+      <c r="A166" s="108"/>
+      <c r="B166" s="88"/>
+      <c r="C166" s="87"/>
       <c r="D166" s="13">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -7301,9 +7301,9 @@
       <c r="O166" s="6"/>
     </row>
     <row r="167" spans="1:15" ht="21" customHeight="1">
-      <c r="A167" s="87"/>
-      <c r="B167" s="113"/>
-      <c r="C167" s="110"/>
+      <c r="A167" s="108"/>
+      <c r="B167" s="88"/>
+      <c r="C167" s="87"/>
       <c r="D167" s="13">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -7325,9 +7325,9 @@
       <c r="O167" s="6"/>
     </row>
     <row r="168" spans="1:15" ht="21" customHeight="1">
-      <c r="A168" s="87"/>
-      <c r="B168" s="114"/>
-      <c r="C168" s="111"/>
+      <c r="A168" s="108"/>
+      <c r="B168" s="86"/>
+      <c r="C168" s="84"/>
       <c r="D168" s="13">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -7349,7 +7349,7 @@
       <c r="O168" s="6"/>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="87"/>
+      <c r="A169" s="108"/>
       <c r="B169" s="45"/>
       <c r="C169" s="38"/>
       <c r="D169" s="13"/>
@@ -7366,12 +7366,12 @@
       <c r="O169" s="6"/>
     </row>
     <row r="170" spans="1:15" ht="45" customHeight="1">
-      <c r="A170" s="87"/>
-      <c r="B170" s="112">
+      <c r="A170" s="108"/>
+      <c r="B170" s="85">
         <f>+B160+1</f>
         <v>20</v>
       </c>
-      <c r="C170" s="109" t="s">
+      <c r="C170" s="83" t="s">
         <v>24</v>
       </c>
       <c r="D170" s="13"/>
@@ -7404,9 +7404,9 @@
       <c r="O170" s="6"/>
     </row>
     <row r="171" spans="1:15" ht="21" customHeight="1">
-      <c r="A171" s="87"/>
-      <c r="B171" s="113"/>
-      <c r="C171" s="110"/>
+      <c r="A171" s="108"/>
+      <c r="B171" s="88"/>
+      <c r="C171" s="87"/>
       <c r="D171" s="13">
         <v>1</v>
       </c>
@@ -7427,9 +7427,9 @@
       <c r="O171" s="6"/>
     </row>
     <row r="172" spans="1:15" ht="21" customHeight="1">
-      <c r="A172" s="87"/>
-      <c r="B172" s="113"/>
-      <c r="C172" s="110"/>
+      <c r="A172" s="108"/>
+      <c r="B172" s="88"/>
+      <c r="C172" s="87"/>
       <c r="D172" s="13">
         <f>1+D171</f>
         <v>2</v>
@@ -7451,9 +7451,9 @@
       <c r="O172" s="6"/>
     </row>
     <row r="173" spans="1:15" ht="21" customHeight="1">
-      <c r="A173" s="87"/>
-      <c r="B173" s="113"/>
-      <c r="C173" s="110"/>
+      <c r="A173" s="108"/>
+      <c r="B173" s="88"/>
+      <c r="C173" s="87"/>
       <c r="D173" s="13">
         <f t="shared" ref="D173:D178" si="8">1+D172</f>
         <v>3</v>
@@ -7475,9 +7475,9 @@
       <c r="O173" s="6"/>
     </row>
     <row r="174" spans="1:15" ht="21" customHeight="1">
-      <c r="A174" s="87"/>
-      <c r="B174" s="113"/>
-      <c r="C174" s="110"/>
+      <c r="A174" s="108"/>
+      <c r="B174" s="88"/>
+      <c r="C174" s="87"/>
       <c r="D174" s="13">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -7499,9 +7499,9 @@
       <c r="O174" s="6"/>
     </row>
     <row r="175" spans="1:15" ht="21" customHeight="1">
-      <c r="A175" s="87"/>
-      <c r="B175" s="113"/>
-      <c r="C175" s="110"/>
+      <c r="A175" s="108"/>
+      <c r="B175" s="88"/>
+      <c r="C175" s="87"/>
       <c r="D175" s="13">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -7523,9 +7523,9 @@
       <c r="O175" s="6"/>
     </row>
     <row r="176" spans="1:15" ht="21" customHeight="1">
-      <c r="A176" s="87"/>
-      <c r="B176" s="113"/>
-      <c r="C176" s="110"/>
+      <c r="A176" s="108"/>
+      <c r="B176" s="88"/>
+      <c r="C176" s="87"/>
       <c r="D176" s="13">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -7547,9 +7547,9 @@
       <c r="O176" s="6"/>
     </row>
     <row r="177" spans="1:15" ht="21" customHeight="1">
-      <c r="A177" s="87"/>
-      <c r="B177" s="113"/>
-      <c r="C177" s="110"/>
+      <c r="A177" s="108"/>
+      <c r="B177" s="88"/>
+      <c r="C177" s="87"/>
       <c r="D177" s="13">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -7571,9 +7571,9 @@
       <c r="O177" s="6"/>
     </row>
     <row r="178" spans="1:15" ht="21" customHeight="1">
-      <c r="A178" s="87"/>
-      <c r="B178" s="113"/>
-      <c r="C178" s="110"/>
+      <c r="A178" s="108"/>
+      <c r="B178" s="88"/>
+      <c r="C178" s="87"/>
       <c r="D178" s="13">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -7595,9 +7595,9 @@
       <c r="O178" s="6"/>
     </row>
     <row r="179" spans="1:15" ht="21" customHeight="1">
-      <c r="A179" s="87"/>
-      <c r="B179" s="113"/>
-      <c r="C179" s="110"/>
+      <c r="A179" s="108"/>
+      <c r="B179" s="88"/>
+      <c r="C179" s="87"/>
       <c r="D179" s="13">
         <v>2</v>
       </c>
@@ -7618,9 +7618,9 @@
       <c r="O179" s="6"/>
     </row>
     <row r="180" spans="1:15" ht="21" customHeight="1">
-      <c r="A180" s="87"/>
-      <c r="B180" s="113"/>
-      <c r="C180" s="110"/>
+      <c r="A180" s="108"/>
+      <c r="B180" s="88"/>
+      <c r="C180" s="87"/>
       <c r="D180" s="13">
         <f>1+D179</f>
         <v>3</v>
@@ -7642,9 +7642,9 @@
       <c r="O180" s="6"/>
     </row>
     <row r="181" spans="1:15" ht="21" customHeight="1">
-      <c r="A181" s="87"/>
-      <c r="B181" s="113"/>
-      <c r="C181" s="110"/>
+      <c r="A181" s="108"/>
+      <c r="B181" s="88"/>
+      <c r="C181" s="87"/>
       <c r="D181" s="13">
         <f>1+D180</f>
         <v>4</v>
@@ -7666,9 +7666,9 @@
       <c r="O181" s="6"/>
     </row>
     <row r="182" spans="1:15" ht="21" customHeight="1">
-      <c r="A182" s="87"/>
-      <c r="B182" s="113"/>
-      <c r="C182" s="110"/>
+      <c r="A182" s="108"/>
+      <c r="B182" s="88"/>
+      <c r="C182" s="87"/>
       <c r="D182" s="13">
         <f>1+D181</f>
         <v>5</v>
@@ -7690,9 +7690,9 @@
       <c r="O182" s="6"/>
     </row>
     <row r="183" spans="1:15" ht="21" customHeight="1">
-      <c r="A183" s="87"/>
-      <c r="B183" s="114"/>
-      <c r="C183" s="111"/>
+      <c r="A183" s="108"/>
+      <c r="B183" s="86"/>
+      <c r="C183" s="84"/>
       <c r="D183" s="13">
         <f>1+D182</f>
         <v>6</v>
@@ -7714,7 +7714,7 @@
       <c r="O183" s="6"/>
     </row>
     <row r="184" spans="1:15">
-      <c r="A184" s="87"/>
+      <c r="A184" s="108"/>
       <c r="B184" s="45"/>
       <c r="C184" s="38"/>
       <c r="D184" s="13"/>
@@ -7731,14 +7731,14 @@
       <c r="O184" s="6"/>
     </row>
     <row r="185" spans="1:15" ht="21" customHeight="1">
-      <c r="A185" s="88" t="s">
+      <c r="A185" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B185" s="118">
+      <c r="B185" s="80">
         <f>+B170+1</f>
         <v>21</v>
       </c>
-      <c r="C185" s="115" t="s">
+      <c r="C185" s="77" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="14"/>
@@ -7771,9 +7771,9 @@
       <c r="O185" s="8"/>
     </row>
     <row r="186" spans="1:15" ht="21" customHeight="1">
-      <c r="A186" s="89"/>
-      <c r="B186" s="119"/>
-      <c r="C186" s="116"/>
+      <c r="A186" s="110"/>
+      <c r="B186" s="81"/>
+      <c r="C186" s="78"/>
       <c r="D186" s="14">
         <v>1</v>
       </c>
@@ -7794,9 +7794,9 @@
       <c r="O186" s="8"/>
     </row>
     <row r="187" spans="1:15" ht="21" customHeight="1">
-      <c r="A187" s="89"/>
-      <c r="B187" s="119"/>
-      <c r="C187" s="116"/>
+      <c r="A187" s="110"/>
+      <c r="B187" s="81"/>
+      <c r="C187" s="78"/>
       <c r="D187" s="14">
         <f>1+D186</f>
         <v>2</v>
@@ -7818,9 +7818,9 @@
       <c r="O187" s="8"/>
     </row>
     <row r="188" spans="1:15" ht="21" customHeight="1">
-      <c r="A188" s="89"/>
-      <c r="B188" s="119"/>
-      <c r="C188" s="116"/>
+      <c r="A188" s="110"/>
+      <c r="B188" s="81"/>
+      <c r="C188" s="78"/>
       <c r="D188" s="14">
         <f>1+D187</f>
         <v>3</v>
@@ -7842,9 +7842,9 @@
       <c r="O188" s="8"/>
     </row>
     <row r="189" spans="1:15" ht="21" customHeight="1">
-      <c r="A189" s="89"/>
-      <c r="B189" s="119"/>
-      <c r="C189" s="116"/>
+      <c r="A189" s="110"/>
+      <c r="B189" s="81"/>
+      <c r="C189" s="78"/>
       <c r="D189" s="14">
         <f>1+D188</f>
         <v>4</v>
@@ -7866,9 +7866,9 @@
       <c r="O189" s="8"/>
     </row>
     <row r="190" spans="1:15" ht="21" customHeight="1">
-      <c r="A190" s="89"/>
-      <c r="B190" s="120"/>
-      <c r="C190" s="117"/>
+      <c r="A190" s="110"/>
+      <c r="B190" s="82"/>
+      <c r="C190" s="79"/>
       <c r="D190" s="14">
         <f>1+D189</f>
         <v>5</v>
@@ -7890,7 +7890,7 @@
       <c r="O190" s="8"/>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="89"/>
+      <c r="A191" s="110"/>
       <c r="B191" s="46"/>
       <c r="C191" s="39"/>
       <c r="D191" s="14"/>
@@ -7907,12 +7907,12 @@
       <c r="O191" s="8"/>
     </row>
     <row r="192" spans="1:15" ht="21" customHeight="1">
-      <c r="A192" s="89"/>
-      <c r="B192" s="118">
+      <c r="A192" s="110"/>
+      <c r="B192" s="80">
         <f>+B185+1</f>
         <v>22</v>
       </c>
-      <c r="C192" s="115" t="s">
+      <c r="C192" s="77" t="s">
         <v>27</v>
       </c>
       <c r="D192" s="14"/>
@@ -7945,9 +7945,9 @@
       <c r="O192" s="8"/>
     </row>
     <row r="193" spans="1:15" ht="21" customHeight="1">
-      <c r="A193" s="89"/>
-      <c r="B193" s="120"/>
-      <c r="C193" s="117"/>
+      <c r="A193" s="110"/>
+      <c r="B193" s="82"/>
+      <c r="C193" s="79"/>
       <c r="D193" s="14">
         <v>1</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="O193" s="8"/>
     </row>
     <row r="194" spans="1:15">
-      <c r="A194" s="89"/>
+      <c r="A194" s="110"/>
       <c r="B194" s="46"/>
       <c r="C194" s="39"/>
       <c r="D194" s="14"/>
@@ -7985,12 +7985,12 @@
       <c r="O194" s="8"/>
     </row>
     <row r="195" spans="1:15" ht="21" customHeight="1">
-      <c r="A195" s="89"/>
-      <c r="B195" s="118">
+      <c r="A195" s="110"/>
+      <c r="B195" s="80">
         <f>+B192+1</f>
         <v>23</v>
       </c>
-      <c r="C195" s="115" t="s">
+      <c r="C195" s="77" t="s">
         <v>31</v>
       </c>
       <c r="D195" s="14"/>
@@ -8023,9 +8023,9 @@
       <c r="O195" s="8"/>
     </row>
     <row r="196" spans="1:15" ht="21" customHeight="1">
-      <c r="A196" s="89"/>
-      <c r="B196" s="119"/>
-      <c r="C196" s="116"/>
+      <c r="A196" s="110"/>
+      <c r="B196" s="81"/>
+      <c r="C196" s="78"/>
       <c r="D196" s="14">
         <v>1</v>
       </c>
@@ -8046,9 +8046,9 @@
       <c r="O196" s="8"/>
     </row>
     <row r="197" spans="1:15" ht="21" customHeight="1">
-      <c r="A197" s="89"/>
-      <c r="B197" s="119"/>
-      <c r="C197" s="116"/>
+      <c r="A197" s="110"/>
+      <c r="B197" s="81"/>
+      <c r="C197" s="78"/>
       <c r="D197" s="14">
         <f>1+D196</f>
         <v>2</v>
@@ -8070,9 +8070,9 @@
       <c r="O197" s="8"/>
     </row>
     <row r="198" spans="1:15" ht="21" customHeight="1">
-      <c r="A198" s="89"/>
-      <c r="B198" s="119"/>
-      <c r="C198" s="116"/>
+      <c r="A198" s="110"/>
+      <c r="B198" s="81"/>
+      <c r="C198" s="78"/>
       <c r="D198" s="14">
         <f t="shared" ref="D198:D206" si="9">1+D197</f>
         <v>3</v>
@@ -8094,9 +8094,9 @@
       <c r="O198" s="8"/>
     </row>
     <row r="199" spans="1:15" ht="21" customHeight="1">
-      <c r="A199" s="89"/>
-      <c r="B199" s="119"/>
-      <c r="C199" s="116"/>
+      <c r="A199" s="110"/>
+      <c r="B199" s="81"/>
+      <c r="C199" s="78"/>
       <c r="D199" s="14">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -8118,9 +8118,9 @@
       <c r="O199" s="8"/>
     </row>
     <row r="200" spans="1:15" ht="21" customHeight="1">
-      <c r="A200" s="89"/>
-      <c r="B200" s="119"/>
-      <c r="C200" s="116"/>
+      <c r="A200" s="110"/>
+      <c r="B200" s="81"/>
+      <c r="C200" s="78"/>
       <c r="D200" s="14">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -8140,9 +8140,9 @@
       <c r="O200" s="8"/>
     </row>
     <row r="201" spans="1:15" ht="21" customHeight="1">
-      <c r="A201" s="89"/>
-      <c r="B201" s="119"/>
-      <c r="C201" s="116"/>
+      <c r="A201" s="110"/>
+      <c r="B201" s="81"/>
+      <c r="C201" s="78"/>
       <c r="D201" s="14">
         <f t="shared" si="9"/>
         <v>6</v>
@@ -8164,9 +8164,9 @@
       <c r="O201" s="8"/>
     </row>
     <row r="202" spans="1:15" ht="21" customHeight="1">
-      <c r="A202" s="89"/>
-      <c r="B202" s="119"/>
-      <c r="C202" s="116"/>
+      <c r="A202" s="110"/>
+      <c r="B202" s="81"/>
+      <c r="C202" s="78"/>
       <c r="D202" s="14">
         <f t="shared" si="9"/>
         <v>7</v>
@@ -8188,9 +8188,9 @@
       <c r="O202" s="8"/>
     </row>
     <row r="203" spans="1:15" ht="21" customHeight="1">
-      <c r="A203" s="89"/>
-      <c r="B203" s="119"/>
-      <c r="C203" s="116"/>
+      <c r="A203" s="110"/>
+      <c r="B203" s="81"/>
+      <c r="C203" s="78"/>
       <c r="D203" s="14">
         <f t="shared" si="9"/>
         <v>8</v>
@@ -8212,9 +8212,9 @@
       <c r="O203" s="8"/>
     </row>
     <row r="204" spans="1:15" ht="21" customHeight="1">
-      <c r="A204" s="89"/>
-      <c r="B204" s="119"/>
-      <c r="C204" s="116"/>
+      <c r="A204" s="110"/>
+      <c r="B204" s="81"/>
+      <c r="C204" s="78"/>
       <c r="D204" s="14">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -8236,9 +8236,9 @@
       <c r="O204" s="8"/>
     </row>
     <row r="205" spans="1:15" ht="21" customHeight="1">
-      <c r="A205" s="89"/>
-      <c r="B205" s="119"/>
-      <c r="C205" s="116"/>
+      <c r="A205" s="110"/>
+      <c r="B205" s="81"/>
+      <c r="C205" s="78"/>
       <c r="D205" s="14">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -8260,9 +8260,9 @@
       <c r="O205" s="8"/>
     </row>
     <row r="206" spans="1:15" ht="21" customHeight="1">
-      <c r="A206" s="89"/>
-      <c r="B206" s="120"/>
-      <c r="C206" s="117"/>
+      <c r="A206" s="110"/>
+      <c r="B206" s="82"/>
+      <c r="C206" s="79"/>
       <c r="D206" s="14">
         <f t="shared" si="9"/>
         <v>11</v>
@@ -8284,7 +8284,7 @@
       <c r="O206" s="8"/>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="89"/>
+      <c r="A207" s="110"/>
       <c r="B207" s="46"/>
       <c r="C207" s="39"/>
       <c r="D207" s="14"/>
@@ -8301,12 +8301,12 @@
       <c r="O207" s="8"/>
     </row>
     <row r="208" spans="1:15" ht="21" customHeight="1">
-      <c r="A208" s="89"/>
-      <c r="B208" s="118">
+      <c r="A208" s="110"/>
+      <c r="B208" s="80">
         <f>+B195+1</f>
         <v>24</v>
       </c>
-      <c r="C208" s="115" t="s">
+      <c r="C208" s="77" t="s">
         <v>19</v>
       </c>
       <c r="D208" s="14"/>
@@ -8339,9 +8339,9 @@
       <c r="O208" s="8"/>
     </row>
     <row r="209" spans="1:15" ht="21" customHeight="1">
-      <c r="A209" s="89"/>
-      <c r="B209" s="119"/>
-      <c r="C209" s="116"/>
+      <c r="A209" s="110"/>
+      <c r="B209" s="81"/>
+      <c r="C209" s="78"/>
       <c r="D209" s="14">
         <v>1</v>
       </c>
@@ -8362,9 +8362,9 @@
       <c r="O209" s="8"/>
     </row>
     <row r="210" spans="1:15" ht="21" customHeight="1">
-      <c r="A210" s="89"/>
-      <c r="B210" s="119"/>
-      <c r="C210" s="116"/>
+      <c r="A210" s="110"/>
+      <c r="B210" s="81"/>
+      <c r="C210" s="78"/>
       <c r="D210" s="14">
         <f>1+D209</f>
         <v>2</v>
@@ -8386,9 +8386,9 @@
       <c r="O210" s="8"/>
     </row>
     <row r="211" spans="1:15" ht="21" customHeight="1">
-      <c r="A211" s="89"/>
-      <c r="B211" s="119"/>
-      <c r="C211" s="116"/>
+      <c r="A211" s="110"/>
+      <c r="B211" s="81"/>
+      <c r="C211" s="78"/>
       <c r="D211" s="14">
         <f t="shared" ref="D211:D224" si="10">1+D210</f>
         <v>3</v>
@@ -8410,9 +8410,9 @@
       <c r="O211" s="8"/>
     </row>
     <row r="212" spans="1:15" ht="21" customHeight="1">
-      <c r="A212" s="89"/>
-      <c r="B212" s="119"/>
-      <c r="C212" s="116"/>
+      <c r="A212" s="110"/>
+      <c r="B212" s="81"/>
+      <c r="C212" s="78"/>
       <c r="D212" s="14">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -8434,9 +8434,9 @@
       <c r="O212" s="8"/>
     </row>
     <row r="213" spans="1:15" ht="21" customHeight="1">
-      <c r="A213" s="89"/>
-      <c r="B213" s="119"/>
-      <c r="C213" s="116"/>
+      <c r="A213" s="110"/>
+      <c r="B213" s="81"/>
+      <c r="C213" s="78"/>
       <c r="D213" s="14">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -8458,9 +8458,9 @@
       <c r="O213" s="8"/>
     </row>
     <row r="214" spans="1:15" ht="21" customHeight="1">
-      <c r="A214" s="89"/>
-      <c r="B214" s="119"/>
-      <c r="C214" s="116"/>
+      <c r="A214" s="110"/>
+      <c r="B214" s="81"/>
+      <c r="C214" s="78"/>
       <c r="D214" s="14">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -8482,9 +8482,9 @@
       <c r="O214" s="8"/>
     </row>
     <row r="215" spans="1:15" ht="21" customHeight="1">
-      <c r="A215" s="89"/>
-      <c r="B215" s="119"/>
-      <c r="C215" s="116"/>
+      <c r="A215" s="110"/>
+      <c r="B215" s="81"/>
+      <c r="C215" s="78"/>
       <c r="D215" s="14">
         <f t="shared" si="10"/>
         <v>7</v>
@@ -8506,9 +8506,9 @@
       <c r="O215" s="8"/>
     </row>
     <row r="216" spans="1:15" ht="21" customHeight="1">
-      <c r="A216" s="89"/>
-      <c r="B216" s="119"/>
-      <c r="C216" s="116"/>
+      <c r="A216" s="110"/>
+      <c r="B216" s="81"/>
+      <c r="C216" s="78"/>
       <c r="D216" s="14">
         <f t="shared" si="10"/>
         <v>8</v>
@@ -8530,9 +8530,9 @@
       <c r="O216" s="8"/>
     </row>
     <row r="217" spans="1:15" ht="21" customHeight="1">
-      <c r="A217" s="89"/>
-      <c r="B217" s="119"/>
-      <c r="C217" s="116"/>
+      <c r="A217" s="110"/>
+      <c r="B217" s="81"/>
+      <c r="C217" s="78"/>
       <c r="D217" s="14">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -8554,9 +8554,9 @@
       <c r="O217" s="8"/>
     </row>
     <row r="218" spans="1:15" ht="21" customHeight="1">
-      <c r="A218" s="89"/>
-      <c r="B218" s="119"/>
-      <c r="C218" s="116"/>
+      <c r="A218" s="110"/>
+      <c r="B218" s="81"/>
+      <c r="C218" s="78"/>
       <c r="D218" s="14">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -8578,9 +8578,9 @@
       <c r="O218" s="8"/>
     </row>
     <row r="219" spans="1:15" ht="21" customHeight="1">
-      <c r="A219" s="89"/>
-      <c r="B219" s="119"/>
-      <c r="C219" s="116"/>
+      <c r="A219" s="110"/>
+      <c r="B219" s="81"/>
+      <c r="C219" s="78"/>
       <c r="D219" s="14">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -8602,9 +8602,9 @@
       <c r="O219" s="8"/>
     </row>
     <row r="220" spans="1:15" ht="21" customHeight="1">
-      <c r="A220" s="89"/>
-      <c r="B220" s="119"/>
-      <c r="C220" s="116"/>
+      <c r="A220" s="110"/>
+      <c r="B220" s="81"/>
+      <c r="C220" s="78"/>
       <c r="D220" s="14">
         <f t="shared" si="10"/>
         <v>12</v>
@@ -8626,9 +8626,9 @@
       <c r="O220" s="8"/>
     </row>
     <row r="221" spans="1:15" ht="21" customHeight="1">
-      <c r="A221" s="89"/>
-      <c r="B221" s="119"/>
-      <c r="C221" s="116"/>
+      <c r="A221" s="110"/>
+      <c r="B221" s="81"/>
+      <c r="C221" s="78"/>
       <c r="D221" s="14">
         <f t="shared" si="10"/>
         <v>13</v>
@@ -8650,9 +8650,9 @@
       <c r="O221" s="8"/>
     </row>
     <row r="222" spans="1:15" ht="21" customHeight="1">
-      <c r="A222" s="89"/>
-      <c r="B222" s="119"/>
-      <c r="C222" s="116"/>
+      <c r="A222" s="110"/>
+      <c r="B222" s="81"/>
+      <c r="C222" s="78"/>
       <c r="D222" s="14">
         <f t="shared" si="10"/>
         <v>14</v>
@@ -8674,9 +8674,9 @@
       <c r="O222" s="8"/>
     </row>
     <row r="223" spans="1:15" ht="21" customHeight="1">
-      <c r="A223" s="89"/>
-      <c r="B223" s="119"/>
-      <c r="C223" s="116"/>
+      <c r="A223" s="110"/>
+      <c r="B223" s="81"/>
+      <c r="C223" s="78"/>
       <c r="D223" s="14">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -8698,9 +8698,9 @@
       <c r="O223" s="8"/>
     </row>
     <row r="224" spans="1:15" ht="21" customHeight="1">
-      <c r="A224" s="89"/>
-      <c r="B224" s="120"/>
-      <c r="C224" s="117"/>
+      <c r="A224" s="110"/>
+      <c r="B224" s="82"/>
+      <c r="C224" s="79"/>
       <c r="D224" s="14">
         <f t="shared" si="10"/>
         <v>16</v>
@@ -8722,7 +8722,7 @@
       <c r="O224" s="8"/>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="89"/>
+      <c r="A225" s="110"/>
       <c r="B225" s="46"/>
       <c r="C225" s="39"/>
       <c r="D225" s="14"/>
@@ -8739,7 +8739,7 @@
       <c r="O225" s="8"/>
     </row>
     <row r="226" spans="1:15">
-      <c r="A226" s="89"/>
+      <c r="A226" s="110"/>
       <c r="B226" s="46"/>
       <c r="C226" s="39"/>
       <c r="D226" s="14"/>
@@ -8756,12 +8756,12 @@
       <c r="O226" s="8"/>
     </row>
     <row r="227" spans="1:15" ht="21" customHeight="1">
-      <c r="A227" s="89"/>
-      <c r="B227" s="118">
+      <c r="A227" s="110"/>
+      <c r="B227" s="80">
         <f>+B208+1</f>
         <v>25</v>
       </c>
-      <c r="C227" s="115" t="s">
+      <c r="C227" s="77" t="s">
         <v>28</v>
       </c>
       <c r="D227" s="14"/>
@@ -8794,9 +8794,9 @@
       <c r="O227" s="8"/>
     </row>
     <row r="228" spans="1:15" ht="21" customHeight="1">
-      <c r="A228" s="89"/>
-      <c r="B228" s="119"/>
-      <c r="C228" s="116"/>
+      <c r="A228" s="110"/>
+      <c r="B228" s="81"/>
+      <c r="C228" s="78"/>
       <c r="D228" s="14">
         <v>1</v>
       </c>
@@ -8817,9 +8817,9 @@
       <c r="O228" s="8"/>
     </row>
     <row r="229" spans="1:15" ht="21" customHeight="1">
-      <c r="A229" s="89"/>
-      <c r="B229" s="119"/>
-      <c r="C229" s="116"/>
+      <c r="A229" s="110"/>
+      <c r="B229" s="81"/>
+      <c r="C229" s="78"/>
       <c r="D229" s="14">
         <f>1+D228</f>
         <v>2</v>
@@ -8841,9 +8841,9 @@
       <c r="O229" s="8"/>
     </row>
     <row r="230" spans="1:15" ht="21" customHeight="1">
-      <c r="A230" s="89"/>
-      <c r="B230" s="119"/>
-      <c r="C230" s="116"/>
+      <c r="A230" s="110"/>
+      <c r="B230" s="81"/>
+      <c r="C230" s="78"/>
       <c r="D230" s="14">
         <f>1+D229</f>
         <v>3</v>
@@ -8865,9 +8865,9 @@
       <c r="O230" s="8"/>
     </row>
     <row r="231" spans="1:15" ht="21" customHeight="1">
-      <c r="A231" s="89"/>
-      <c r="B231" s="119"/>
-      <c r="C231" s="116"/>
+      <c r="A231" s="110"/>
+      <c r="B231" s="81"/>
+      <c r="C231" s="78"/>
       <c r="D231" s="14">
         <f>1+D230</f>
         <v>4</v>
@@ -8889,9 +8889,9 @@
       <c r="O231" s="8"/>
     </row>
     <row r="232" spans="1:15" ht="21" customHeight="1">
-      <c r="A232" s="89"/>
-      <c r="B232" s="120"/>
-      <c r="C232" s="117"/>
+      <c r="A232" s="110"/>
+      <c r="B232" s="82"/>
+      <c r="C232" s="79"/>
       <c r="D232" s="14">
         <f>1+D231</f>
         <v>5</v>
@@ -8913,7 +8913,7 @@
       <c r="O232" s="8"/>
     </row>
     <row r="233" spans="1:15">
-      <c r="A233" s="89"/>
+      <c r="A233" s="110"/>
       <c r="B233" s="46"/>
       <c r="C233" s="39"/>
       <c r="D233" s="14"/>
@@ -8930,12 +8930,12 @@
       <c r="O233" s="8"/>
     </row>
     <row r="234" spans="1:15" ht="21" customHeight="1">
-      <c r="A234" s="89"/>
-      <c r="B234" s="118">
+      <c r="A234" s="110"/>
+      <c r="B234" s="80">
         <f>+B227+1</f>
         <v>26</v>
       </c>
-      <c r="C234" s="115" t="s">
+      <c r="C234" s="77" t="s">
         <v>30</v>
       </c>
       <c r="D234" s="14"/>
@@ -8968,9 +8968,9 @@
       <c r="O234" s="8"/>
     </row>
     <row r="235" spans="1:15" ht="21" customHeight="1">
-      <c r="A235" s="89"/>
-      <c r="B235" s="119"/>
-      <c r="C235" s="116"/>
+      <c r="A235" s="110"/>
+      <c r="B235" s="81"/>
+      <c r="C235" s="78"/>
       <c r="D235" s="14">
         <v>1</v>
       </c>
@@ -8991,9 +8991,9 @@
       <c r="O235" s="8"/>
     </row>
     <row r="236" spans="1:15" ht="21" customHeight="1">
-      <c r="A236" s="89"/>
-      <c r="B236" s="119"/>
-      <c r="C236" s="116"/>
+      <c r="A236" s="110"/>
+      <c r="B236" s="81"/>
+      <c r="C236" s="78"/>
       <c r="D236" s="14">
         <f t="shared" ref="D236:D241" si="11">1+D235</f>
         <v>2</v>
@@ -9013,9 +9013,9 @@
       <c r="O236" s="8"/>
     </row>
     <row r="237" spans="1:15" ht="21" customHeight="1">
-      <c r="A237" s="89"/>
-      <c r="B237" s="119"/>
-      <c r="C237" s="116"/>
+      <c r="A237" s="110"/>
+      <c r="B237" s="81"/>
+      <c r="C237" s="78"/>
       <c r="D237" s="14">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -9035,9 +9035,9 @@
       <c r="O237" s="8"/>
     </row>
     <row r="238" spans="1:15" ht="21" customHeight="1">
-      <c r="A238" s="89"/>
-      <c r="B238" s="119"/>
-      <c r="C238" s="116"/>
+      <c r="A238" s="110"/>
+      <c r="B238" s="81"/>
+      <c r="C238" s="78"/>
       <c r="D238" s="14">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -9059,9 +9059,9 @@
       <c r="O238" s="8"/>
     </row>
     <row r="239" spans="1:15" ht="21" customHeight="1">
-      <c r="A239" s="89"/>
-      <c r="B239" s="119"/>
-      <c r="C239" s="116"/>
+      <c r="A239" s="110"/>
+      <c r="B239" s="81"/>
+      <c r="C239" s="78"/>
       <c r="D239" s="14">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -9083,9 +9083,9 @@
       <c r="O239" s="8"/>
     </row>
     <row r="240" spans="1:15" ht="21" customHeight="1">
-      <c r="A240" s="89"/>
-      <c r="B240" s="119"/>
-      <c r="C240" s="116"/>
+      <c r="A240" s="110"/>
+      <c r="B240" s="81"/>
+      <c r="C240" s="78"/>
       <c r="D240" s="14">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -9107,9 +9107,9 @@
       <c r="O240" s="8"/>
     </row>
     <row r="241" spans="1:15" ht="21" customHeight="1">
-      <c r="A241" s="89"/>
-      <c r="B241" s="120"/>
-      <c r="C241" s="117"/>
+      <c r="A241" s="110"/>
+      <c r="B241" s="82"/>
+      <c r="C241" s="79"/>
       <c r="D241" s="14">
         <f t="shared" si="11"/>
         <v>7</v>
@@ -9131,7 +9131,7 @@
       <c r="O241" s="8"/>
     </row>
     <row r="242" spans="1:15">
-      <c r="A242" s="89"/>
+      <c r="A242" s="110"/>
       <c r="B242" s="46"/>
       <c r="C242" s="39"/>
       <c r="D242" s="14"/>
@@ -9148,12 +9148,12 @@
       <c r="O242" s="8"/>
     </row>
     <row r="243" spans="1:15" ht="21" customHeight="1">
-      <c r="A243" s="89"/>
-      <c r="B243" s="118">
+      <c r="A243" s="110"/>
+      <c r="B243" s="80">
         <f>+B234+1</f>
         <v>27</v>
       </c>
-      <c r="C243" s="115" t="s">
+      <c r="C243" s="77" t="s">
         <v>26</v>
       </c>
       <c r="D243" s="14"/>
@@ -9186,9 +9186,9 @@
       <c r="O243" s="8"/>
     </row>
     <row r="244" spans="1:15" ht="21" customHeight="1">
-      <c r="A244" s="89"/>
-      <c r="B244" s="119"/>
-      <c r="C244" s="116"/>
+      <c r="A244" s="110"/>
+      <c r="B244" s="81"/>
+      <c r="C244" s="78"/>
       <c r="D244" s="14">
         <v>1</v>
       </c>
@@ -9209,9 +9209,9 @@
       <c r="O244" s="8"/>
     </row>
     <row r="245" spans="1:15" ht="21" customHeight="1">
-      <c r="A245" s="89"/>
-      <c r="B245" s="119"/>
-      <c r="C245" s="116"/>
+      <c r="A245" s="110"/>
+      <c r="B245" s="81"/>
+      <c r="C245" s="78"/>
       <c r="D245" s="14">
         <f>1+D244</f>
         <v>2</v>
@@ -9233,9 +9233,9 @@
       <c r="O245" s="8"/>
     </row>
     <row r="246" spans="1:15" ht="21" customHeight="1">
-      <c r="A246" s="89"/>
-      <c r="B246" s="120"/>
-      <c r="C246" s="117"/>
+      <c r="A246" s="110"/>
+      <c r="B246" s="82"/>
+      <c r="C246" s="79"/>
       <c r="D246" s="14">
         <f>1+D245</f>
         <v>3</v>
@@ -9257,7 +9257,7 @@
       <c r="O246" s="8"/>
     </row>
     <row r="247" spans="1:15">
-      <c r="A247" s="90"/>
+      <c r="A247" s="111"/>
       <c r="B247" s="46"/>
       <c r="C247" s="39"/>
       <c r="D247" s="14"/>
@@ -9274,14 +9274,14 @@
       <c r="O247" s="8"/>
     </row>
     <row r="248" spans="1:15" ht="21" customHeight="1">
-      <c r="A248" s="91" t="s">
+      <c r="A248" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="B248" s="121">
+      <c r="B248" s="74">
         <f>+B243+1</f>
         <v>28</v>
       </c>
-      <c r="C248" s="124" t="s">
+      <c r="C248" s="71" t="s">
         <v>32</v>
       </c>
       <c r="D248" s="15">
@@ -9316,9 +9316,9 @@
       <c r="O248" s="26"/>
     </row>
     <row r="249" spans="1:15" ht="21" customHeight="1">
-      <c r="A249" s="92"/>
-      <c r="B249" s="122"/>
-      <c r="C249" s="126"/>
+      <c r="A249" s="113"/>
+      <c r="B249" s="75"/>
+      <c r="C249" s="72"/>
       <c r="D249" s="15">
         <f>1+D248</f>
         <v>2</v>
@@ -9340,9 +9340,9 @@
       <c r="O249" s="26"/>
     </row>
     <row r="250" spans="1:15" ht="21" customHeight="1">
-      <c r="A250" s="92"/>
-      <c r="B250" s="122"/>
-      <c r="C250" s="126"/>
+      <c r="A250" s="113"/>
+      <c r="B250" s="75"/>
+      <c r="C250" s="72"/>
       <c r="D250" s="15">
         <f t="shared" ref="D250:D256" si="12">1+D249</f>
         <v>3</v>
@@ -9364,9 +9364,9 @@
       <c r="O250" s="26"/>
     </row>
     <row r="251" spans="1:15" ht="21" customHeight="1">
-      <c r="A251" s="92"/>
-      <c r="B251" s="122"/>
-      <c r="C251" s="126"/>
+      <c r="A251" s="113"/>
+      <c r="B251" s="75"/>
+      <c r="C251" s="72"/>
       <c r="D251" s="15">
         <f t="shared" si="12"/>
         <v>4</v>
@@ -9388,9 +9388,9 @@
       <c r="O251" s="26"/>
     </row>
     <row r="252" spans="1:15" ht="21" customHeight="1">
-      <c r="A252" s="92"/>
-      <c r="B252" s="122"/>
-      <c r="C252" s="126"/>
+      <c r="A252" s="113"/>
+      <c r="B252" s="75"/>
+      <c r="C252" s="72"/>
       <c r="D252" s="15">
         <f t="shared" si="12"/>
         <v>5</v>
@@ -9412,9 +9412,9 @@
       <c r="O252" s="26"/>
     </row>
     <row r="253" spans="1:15" ht="21" customHeight="1">
-      <c r="A253" s="92"/>
-      <c r="B253" s="122"/>
-      <c r="C253" s="126"/>
+      <c r="A253" s="113"/>
+      <c r="B253" s="75"/>
+      <c r="C253" s="72"/>
       <c r="D253" s="15">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -9436,9 +9436,9 @@
       <c r="O253" s="26"/>
     </row>
     <row r="254" spans="1:15" ht="21" customHeight="1">
-      <c r="A254" s="92"/>
-      <c r="B254" s="122"/>
-      <c r="C254" s="126"/>
+      <c r="A254" s="113"/>
+      <c r="B254" s="75"/>
+      <c r="C254" s="72"/>
       <c r="D254" s="15">
         <f t="shared" si="12"/>
         <v>7</v>
@@ -9460,9 +9460,9 @@
       <c r="O254" s="26"/>
     </row>
     <row r="255" spans="1:15" ht="21" customHeight="1">
-      <c r="A255" s="92"/>
-      <c r="B255" s="122"/>
-      <c r="C255" s="126"/>
+      <c r="A255" s="113"/>
+      <c r="B255" s="75"/>
+      <c r="C255" s="72"/>
       <c r="D255" s="15">
         <f t="shared" si="12"/>
         <v>8</v>
@@ -9484,9 +9484,9 @@
       <c r="O255" s="26"/>
     </row>
     <row r="256" spans="1:15" ht="21" customHeight="1">
-      <c r="A256" s="92"/>
-      <c r="B256" s="123"/>
-      <c r="C256" s="125"/>
+      <c r="A256" s="113"/>
+      <c r="B256" s="76"/>
+      <c r="C256" s="73"/>
       <c r="D256" s="15">
         <f t="shared" si="12"/>
         <v>9</v>
@@ -9508,7 +9508,7 @@
       <c r="O256" s="26"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="92"/>
+      <c r="A257" s="113"/>
       <c r="B257" s="47"/>
       <c r="C257" s="40"/>
       <c r="D257" s="41"/>
@@ -9525,12 +9525,12 @@
       <c r="O257" s="26"/>
     </row>
     <row r="258" spans="1:15" ht="21" customHeight="1">
-      <c r="A258" s="92"/>
-      <c r="B258" s="121">
+      <c r="A258" s="113"/>
+      <c r="B258" s="74">
         <f>+B248+1</f>
         <v>29</v>
       </c>
-      <c r="C258" s="124" t="s">
+      <c r="C258" s="71" t="s">
         <v>670</v>
       </c>
       <c r="D258" s="41"/>
@@ -9563,9 +9563,9 @@
       <c r="O258" s="26"/>
     </row>
     <row r="259" spans="1:15" ht="21" customHeight="1">
-      <c r="A259" s="92"/>
-      <c r="B259" s="123"/>
-      <c r="C259" s="125"/>
+      <c r="A259" s="113"/>
+      <c r="B259" s="76"/>
+      <c r="C259" s="73"/>
       <c r="D259" s="41">
         <v>1</v>
       </c>
@@ -9586,7 +9586,7 @@
       <c r="O259" s="26"/>
     </row>
     <row r="260" spans="1:15">
-      <c r="A260" s="92"/>
+      <c r="A260" s="113"/>
       <c r="B260" s="47"/>
       <c r="C260" s="40"/>
       <c r="D260" s="41"/>
@@ -9603,12 +9603,12 @@
       <c r="O260" s="26"/>
     </row>
     <row r="261" spans="1:15" ht="21" customHeight="1">
-      <c r="A261" s="92"/>
-      <c r="B261" s="121">
+      <c r="A261" s="113"/>
+      <c r="B261" s="74">
         <f>+B258+1</f>
         <v>30</v>
       </c>
-      <c r="C261" s="124" t="s">
+      <c r="C261" s="71" t="s">
         <v>3</v>
       </c>
       <c r="D261" s="41"/>
@@ -9641,9 +9641,9 @@
       <c r="O261" s="26"/>
     </row>
     <row r="262" spans="1:15" ht="21" customHeight="1">
-      <c r="A262" s="92"/>
-      <c r="B262" s="122"/>
-      <c r="C262" s="126"/>
+      <c r="A262" s="113"/>
+      <c r="B262" s="75"/>
+      <c r="C262" s="72"/>
       <c r="D262" s="15">
         <v>1</v>
       </c>
@@ -9664,9 +9664,9 @@
       <c r="O262" s="26"/>
     </row>
     <row r="263" spans="1:15" ht="21" customHeight="1">
-      <c r="A263" s="92"/>
-      <c r="B263" s="122"/>
-      <c r="C263" s="126"/>
+      <c r="A263" s="113"/>
+      <c r="B263" s="75"/>
+      <c r="C263" s="72"/>
       <c r="D263" s="15">
         <f t="shared" ref="D263:D268" si="13">1+D262</f>
         <v>2</v>
@@ -9688,9 +9688,9 @@
       <c r="O263" s="26"/>
     </row>
     <row r="264" spans="1:15" ht="21" customHeight="1">
-      <c r="A264" s="92"/>
-      <c r="B264" s="122"/>
-      <c r="C264" s="126"/>
+      <c r="A264" s="113"/>
+      <c r="B264" s="75"/>
+      <c r="C264" s="72"/>
       <c r="D264" s="15">
         <f t="shared" si="13"/>
         <v>3</v>
@@ -9712,9 +9712,9 @@
       <c r="O264" s="26"/>
     </row>
     <row r="265" spans="1:15" ht="21" customHeight="1">
-      <c r="A265" s="92"/>
-      <c r="B265" s="122"/>
-      <c r="C265" s="126"/>
+      <c r="A265" s="113"/>
+      <c r="B265" s="75"/>
+      <c r="C265" s="72"/>
       <c r="D265" s="15">
         <f t="shared" si="13"/>
         <v>4</v>
@@ -9736,9 +9736,9 @@
       <c r="O265" s="26"/>
     </row>
     <row r="266" spans="1:15" ht="21" customHeight="1">
-      <c r="A266" s="92"/>
-      <c r="B266" s="122"/>
-      <c r="C266" s="126"/>
+      <c r="A266" s="113"/>
+      <c r="B266" s="75"/>
+      <c r="C266" s="72"/>
       <c r="D266" s="15">
         <f t="shared" si="13"/>
         <v>5</v>
@@ -9760,9 +9760,9 @@
       <c r="O266" s="26"/>
     </row>
     <row r="267" spans="1:15" ht="21" customHeight="1">
-      <c r="A267" s="92"/>
-      <c r="B267" s="122"/>
-      <c r="C267" s="126"/>
+      <c r="A267" s="113"/>
+      <c r="B267" s="75"/>
+      <c r="C267" s="72"/>
       <c r="D267" s="15">
         <f t="shared" si="13"/>
         <v>6</v>
@@ -9784,9 +9784,9 @@
       <c r="O267" s="26"/>
     </row>
     <row r="268" spans="1:15" ht="21" customHeight="1">
-      <c r="A268" s="92"/>
-      <c r="B268" s="123"/>
-      <c r="C268" s="125"/>
+      <c r="A268" s="113"/>
+      <c r="B268" s="76"/>
+      <c r="C268" s="73"/>
       <c r="D268" s="15">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -9808,7 +9808,7 @@
       <c r="O268" s="26"/>
     </row>
     <row r="269" spans="1:15">
-      <c r="A269" s="92"/>
+      <c r="A269" s="113"/>
       <c r="B269" s="47"/>
       <c r="C269" s="40"/>
       <c r="D269" s="41"/>
@@ -9825,12 +9825,12 @@
       <c r="O269" s="26"/>
     </row>
     <row r="270" spans="1:15" ht="21" customHeight="1">
-      <c r="A270" s="92"/>
-      <c r="B270" s="121">
+      <c r="A270" s="113"/>
+      <c r="B270" s="74">
         <f>+B261+1</f>
         <v>31</v>
       </c>
-      <c r="C270" s="124" t="s">
+      <c r="C270" s="71" t="s">
         <v>5</v>
       </c>
       <c r="D270" s="41"/>
@@ -9863,9 +9863,9 @@
       <c r="O270" s="26"/>
     </row>
     <row r="271" spans="1:15" ht="21" customHeight="1">
-      <c r="A271" s="92"/>
-      <c r="B271" s="122"/>
-      <c r="C271" s="126"/>
+      <c r="A271" s="113"/>
+      <c r="B271" s="75"/>
+      <c r="C271" s="72"/>
       <c r="D271" s="15">
         <v>1</v>
       </c>
@@ -9886,9 +9886,9 @@
       <c r="O271" s="26"/>
     </row>
     <row r="272" spans="1:15" ht="21" customHeight="1">
-      <c r="A272" s="92"/>
-      <c r="B272" s="122"/>
-      <c r="C272" s="126"/>
+      <c r="A272" s="113"/>
+      <c r="B272" s="75"/>
+      <c r="C272" s="72"/>
       <c r="D272" s="15">
         <f>1+D271</f>
         <v>2</v>
@@ -9910,9 +9910,9 @@
       <c r="O272" s="26"/>
     </row>
     <row r="273" spans="1:15" ht="21" customHeight="1">
-      <c r="A273" s="92"/>
-      <c r="B273" s="122"/>
-      <c r="C273" s="126"/>
+      <c r="A273" s="113"/>
+      <c r="B273" s="75"/>
+      <c r="C273" s="72"/>
       <c r="D273" s="15">
         <f>1+D272</f>
         <v>3</v>
@@ -9934,9 +9934,9 @@
       <c r="O273" s="26"/>
     </row>
     <row r="274" spans="1:15" ht="21" customHeight="1">
-      <c r="A274" s="92"/>
-      <c r="B274" s="122"/>
-      <c r="C274" s="126"/>
+      <c r="A274" s="113"/>
+      <c r="B274" s="75"/>
+      <c r="C274" s="72"/>
       <c r="D274" s="15">
         <f>1+D273</f>
         <v>4</v>
@@ -9958,9 +9958,9 @@
       <c r="O274" s="26"/>
     </row>
     <row r="275" spans="1:15" ht="21" customHeight="1">
-      <c r="A275" s="92"/>
-      <c r="B275" s="123"/>
-      <c r="C275" s="125"/>
+      <c r="A275" s="113"/>
+      <c r="B275" s="76"/>
+      <c r="C275" s="73"/>
       <c r="D275" s="15">
         <f>1+D274</f>
         <v>5</v>
@@ -9982,7 +9982,7 @@
       <c r="O275" s="26"/>
     </row>
     <row r="276" spans="1:15">
-      <c r="A276" s="92"/>
+      <c r="A276" s="113"/>
       <c r="B276" s="47"/>
       <c r="C276" s="40"/>
       <c r="D276" s="41"/>
@@ -9999,12 +9999,12 @@
       <c r="O276" s="26"/>
     </row>
     <row r="277" spans="1:15" ht="21" customHeight="1">
-      <c r="A277" s="92"/>
-      <c r="B277" s="121">
+      <c r="A277" s="113"/>
+      <c r="B277" s="74">
         <f>+B270+1</f>
         <v>32</v>
       </c>
-      <c r="C277" s="124" t="s">
+      <c r="C277" s="71" t="s">
         <v>35</v>
       </c>
       <c r="D277" s="41"/>
@@ -10037,9 +10037,9 @@
       <c r="O277" s="26"/>
     </row>
     <row r="278" spans="1:15" ht="21" customHeight="1">
-      <c r="A278" s="92"/>
-      <c r="B278" s="122"/>
-      <c r="C278" s="126"/>
+      <c r="A278" s="113"/>
+      <c r="B278" s="75"/>
+      <c r="C278" s="72"/>
       <c r="D278" s="15">
         <v>1</v>
       </c>
@@ -10060,9 +10060,9 @@
       <c r="O278" s="26"/>
     </row>
     <row r="279" spans="1:15" ht="21" customHeight="1">
-      <c r="A279" s="92"/>
-      <c r="B279" s="122"/>
-      <c r="C279" s="126"/>
+      <c r="A279" s="113"/>
+      <c r="B279" s="75"/>
+      <c r="C279" s="72"/>
       <c r="D279" s="15">
         <f>1+D278</f>
         <v>2</v>
@@ -10084,9 +10084,9 @@
       <c r="O279" s="26"/>
     </row>
     <row r="280" spans="1:15" ht="21" customHeight="1">
-      <c r="A280" s="92"/>
-      <c r="B280" s="123"/>
-      <c r="C280" s="125"/>
+      <c r="A280" s="113"/>
+      <c r="B280" s="76"/>
+      <c r="C280" s="73"/>
       <c r="D280" s="15">
         <f>1+D279</f>
         <v>3</v>
@@ -10108,7 +10108,7 @@
       <c r="O280" s="26"/>
     </row>
     <row r="281" spans="1:15">
-      <c r="A281" s="92"/>
+      <c r="A281" s="113"/>
       <c r="B281" s="47"/>
       <c r="C281" s="40"/>
       <c r="D281" s="41"/>
@@ -10125,12 +10125,12 @@
       <c r="O281" s="26"/>
     </row>
     <row r="282" spans="1:15" ht="21" customHeight="1">
-      <c r="A282" s="92"/>
-      <c r="B282" s="121">
+      <c r="A282" s="113"/>
+      <c r="B282" s="74">
         <f>+B277+1</f>
         <v>33</v>
       </c>
-      <c r="C282" s="124" t="s">
+      <c r="C282" s="71" t="s">
         <v>36</v>
       </c>
       <c r="D282" s="41"/>
@@ -10163,9 +10163,9 @@
       <c r="O282" s="26"/>
     </row>
     <row r="283" spans="1:15" ht="21" customHeight="1">
-      <c r="A283" s="92"/>
-      <c r="B283" s="122"/>
-      <c r="C283" s="126"/>
+      <c r="A283" s="113"/>
+      <c r="B283" s="75"/>
+      <c r="C283" s="72"/>
       <c r="D283" s="15">
         <v>1</v>
       </c>
@@ -10186,9 +10186,9 @@
       <c r="O283" s="27"/>
     </row>
     <row r="284" spans="1:15" ht="21" customHeight="1">
-      <c r="A284" s="92"/>
-      <c r="B284" s="122"/>
-      <c r="C284" s="126"/>
+      <c r="A284" s="113"/>
+      <c r="B284" s="75"/>
+      <c r="C284" s="72"/>
       <c r="D284" s="15">
         <f>1+D283</f>
         <v>2</v>
@@ -10210,9 +10210,9 @@
       <c r="O284" s="27"/>
     </row>
     <row r="285" spans="1:15" ht="21" customHeight="1">
-      <c r="A285" s="92"/>
-      <c r="B285" s="122"/>
-      <c r="C285" s="126"/>
+      <c r="A285" s="113"/>
+      <c r="B285" s="75"/>
+      <c r="C285" s="72"/>
       <c r="D285" s="15">
         <f t="shared" ref="D285:D294" si="14">1+D284</f>
         <v>3</v>
@@ -10234,9 +10234,9 @@
       <c r="O285" s="27"/>
     </row>
     <row r="286" spans="1:15" ht="21" customHeight="1">
-      <c r="A286" s="92"/>
-      <c r="B286" s="122"/>
-      <c r="C286" s="126"/>
+      <c r="A286" s="113"/>
+      <c r="B286" s="75"/>
+      <c r="C286" s="72"/>
       <c r="D286" s="15">
         <f t="shared" si="14"/>
         <v>4</v>
@@ -10258,9 +10258,9 @@
       <c r="O286" s="27"/>
     </row>
     <row r="287" spans="1:15" ht="21" customHeight="1">
-      <c r="A287" s="92"/>
-      <c r="B287" s="122"/>
-      <c r="C287" s="126"/>
+      <c r="A287" s="113"/>
+      <c r="B287" s="75"/>
+      <c r="C287" s="72"/>
       <c r="D287" s="15">
         <f t="shared" si="14"/>
         <v>5</v>
@@ -10282,9 +10282,9 @@
       <c r="O287" s="27"/>
     </row>
     <row r="288" spans="1:15" ht="21" customHeight="1">
-      <c r="A288" s="92"/>
-      <c r="B288" s="122"/>
-      <c r="C288" s="126"/>
+      <c r="A288" s="113"/>
+      <c r="B288" s="75"/>
+      <c r="C288" s="72"/>
       <c r="D288" s="15">
         <f t="shared" si="14"/>
         <v>6</v>
@@ -10306,9 +10306,9 @@
       <c r="O288" s="27"/>
     </row>
     <row r="289" spans="1:15" ht="21" customHeight="1">
-      <c r="A289" s="92"/>
-      <c r="B289" s="122"/>
-      <c r="C289" s="126"/>
+      <c r="A289" s="113"/>
+      <c r="B289" s="75"/>
+      <c r="C289" s="72"/>
       <c r="D289" s="15">
         <f t="shared" si="14"/>
         <v>7</v>
@@ -10330,9 +10330,9 @@
       <c r="O289" s="27"/>
     </row>
     <row r="290" spans="1:15" ht="21" customHeight="1">
-      <c r="A290" s="92"/>
-      <c r="B290" s="122"/>
-      <c r="C290" s="126"/>
+      <c r="A290" s="113"/>
+      <c r="B290" s="75"/>
+      <c r="C290" s="72"/>
       <c r="D290" s="15">
         <f t="shared" si="14"/>
         <v>8</v>
@@ -10354,9 +10354,9 @@
       <c r="O290" s="27"/>
     </row>
     <row r="291" spans="1:15" ht="21" customHeight="1">
-      <c r="A291" s="92"/>
-      <c r="B291" s="122"/>
-      <c r="C291" s="126"/>
+      <c r="A291" s="113"/>
+      <c r="B291" s="75"/>
+      <c r="C291" s="72"/>
       <c r="D291" s="15">
         <f t="shared" si="14"/>
         <v>9</v>
@@ -10378,9 +10378,9 @@
       <c r="O291" s="27"/>
     </row>
     <row r="292" spans="1:15" ht="21" customHeight="1">
-      <c r="A292" s="92"/>
-      <c r="B292" s="122"/>
-      <c r="C292" s="126"/>
+      <c r="A292" s="113"/>
+      <c r="B292" s="75"/>
+      <c r="C292" s="72"/>
       <c r="D292" s="15">
         <f t="shared" si="14"/>
         <v>10</v>
@@ -10402,9 +10402,9 @@
       <c r="O292" s="27"/>
     </row>
     <row r="293" spans="1:15" ht="21" customHeight="1">
-      <c r="A293" s="92"/>
-      <c r="B293" s="122"/>
-      <c r="C293" s="126"/>
+      <c r="A293" s="113"/>
+      <c r="B293" s="75"/>
+      <c r="C293" s="72"/>
       <c r="D293" s="15">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -10426,9 +10426,9 @@
       <c r="O293" s="27"/>
     </row>
     <row r="294" spans="1:15" ht="21" customHeight="1">
-      <c r="A294" s="93"/>
-      <c r="B294" s="123"/>
-      <c r="C294" s="125"/>
+      <c r="A294" s="114"/>
+      <c r="B294" s="76"/>
+      <c r="C294" s="73"/>
       <c r="D294" s="15">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -10452,6 +10452,68 @@
   </sheetData>
   <autoFilter ref="A1:M294" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="78">
+    <mergeCell ref="L2:L23"/>
+    <mergeCell ref="M2:M23"/>
+    <mergeCell ref="G2:G23"/>
+    <mergeCell ref="H2:H23"/>
+    <mergeCell ref="I2:I23"/>
+    <mergeCell ref="J2:J23"/>
+    <mergeCell ref="K2:K23"/>
+    <mergeCell ref="A2:A64"/>
+    <mergeCell ref="A66:A128"/>
+    <mergeCell ref="A130:A184"/>
+    <mergeCell ref="A185:A247"/>
+    <mergeCell ref="A248:A294"/>
+    <mergeCell ref="C2:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="C66:C80"/>
+    <mergeCell ref="B66:B80"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C93:C101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="C116:C128"/>
+    <mergeCell ref="B116:B128"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="C138:C149"/>
+    <mergeCell ref="B138:B149"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C160:C168"/>
+    <mergeCell ref="B160:B168"/>
+    <mergeCell ref="C170:C183"/>
+    <mergeCell ref="B170:B183"/>
+    <mergeCell ref="C185:C190"/>
+    <mergeCell ref="B185:B190"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C195:C206"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B248:B256"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C208:C224"/>
+    <mergeCell ref="B208:B224"/>
+    <mergeCell ref="C227:C232"/>
+    <mergeCell ref="B227:B232"/>
+    <mergeCell ref="C234:C241"/>
+    <mergeCell ref="B234:B241"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B2:B23"/>
     <mergeCell ref="C282:C294"/>
@@ -10468,68 +10530,6 @@
     <mergeCell ref="C243:C246"/>
     <mergeCell ref="B243:B246"/>
     <mergeCell ref="C248:C256"/>
-    <mergeCell ref="B248:B256"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="C208:C224"/>
-    <mergeCell ref="B208:B224"/>
-    <mergeCell ref="C227:C232"/>
-    <mergeCell ref="B227:B232"/>
-    <mergeCell ref="C234:C241"/>
-    <mergeCell ref="B234:B241"/>
-    <mergeCell ref="C185:C190"/>
-    <mergeCell ref="B185:B190"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C195:C206"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C160:C168"/>
-    <mergeCell ref="B160:B168"/>
-    <mergeCell ref="C170:C183"/>
-    <mergeCell ref="B170:B183"/>
-    <mergeCell ref="C130:C136"/>
-    <mergeCell ref="B130:B136"/>
-    <mergeCell ref="C138:C149"/>
-    <mergeCell ref="B138:B149"/>
-    <mergeCell ref="C151:C155"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="C103:C108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="B110:B114"/>
-    <mergeCell ref="C116:C128"/>
-    <mergeCell ref="B116:B128"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C93:C101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="C66:C80"/>
-    <mergeCell ref="B66:B80"/>
-    <mergeCell ref="C2:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="A2:A64"/>
-    <mergeCell ref="A66:A128"/>
-    <mergeCell ref="A130:A184"/>
-    <mergeCell ref="A185:A247"/>
-    <mergeCell ref="A248:A294"/>
-    <mergeCell ref="L2:L23"/>
-    <mergeCell ref="M2:M23"/>
-    <mergeCell ref="G2:G23"/>
-    <mergeCell ref="H2:H23"/>
-    <mergeCell ref="I2:I23"/>
-    <mergeCell ref="J2:J23"/>
-    <mergeCell ref="K2:K23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E113" r:id="rId1" display="https://www.icbf.gov.co/regional-guaviare/unidad-local-miraflores" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10544,8 +10544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -10582,7 +10582,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="137" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E2" s="127" t="s">
         <v>675</v>
@@ -10660,7 +10660,7 @@
         <v>656</v>
       </c>
       <c r="D8" s="139" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E8" s="128" t="s">
         <v>672</v>
@@ -10750,7 +10750,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="139" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E15" s="128" t="s">
         <v>673</v>
@@ -10828,7 +10828,7 @@
       <c r="D21" s="141"/>
       <c r="E21" s="136"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
+    <row r="22" spans="1:5" ht="36" customHeight="1">
       <c r="A22" s="133" t="s">
         <v>23</v>
       </c>
@@ -10840,13 +10840,13 @@
         <v>25</v>
       </c>
       <c r="D22" s="139" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E22" s="129" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="36" customHeight="1">
       <c r="A23" s="134"/>
       <c r="B23" s="59">
         <f t="shared" si="0"/>
@@ -10858,7 +10858,7 @@
       <c r="D23" s="140"/>
       <c r="E23" s="130"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
+    <row r="24" spans="1:5" ht="36" customHeight="1">
       <c r="A24" s="134"/>
       <c r="B24" s="59">
         <f t="shared" si="0"/>
@@ -10870,7 +10870,7 @@
       <c r="D24" s="140"/>
       <c r="E24" s="130"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
+    <row r="25" spans="1:5" ht="36" customHeight="1">
       <c r="A25" s="134"/>
       <c r="B25" s="59">
         <f t="shared" si="0"/>
@@ -10882,7 +10882,7 @@
       <c r="D25" s="140"/>
       <c r="E25" s="130"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="36" customHeight="1">
       <c r="A26" s="134"/>
       <c r="B26" s="59">
         <f t="shared" si="0"/>
@@ -10894,7 +10894,7 @@
       <c r="D26" s="140"/>
       <c r="E26" s="130"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="36" customHeight="1">
       <c r="A27" s="134"/>
       <c r="B27" s="59">
         <f t="shared" si="0"/>
@@ -10906,7 +10906,7 @@
       <c r="D27" s="140"/>
       <c r="E27" s="130"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
+    <row r="28" spans="1:5" ht="36" customHeight="1">
       <c r="A28" s="135"/>
       <c r="B28" s="59">
         <f t="shared" si="0"/>
@@ -10930,7 +10930,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="139" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E29" s="127" t="s">
         <v>674</v>
